--- a/examples/campaigns/coral-reef-light/coral-reef-light.xlsx
+++ b/examples/campaigns/coral-reef-light/coral-reef-light.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Help" sheetId="1" state="visible" r:id="rId2"/>
@@ -573,7 +573,7 @@
     <t xml:space="preserve">value</t>
   </si>
   <si>
-    <t xml:space="preserve">coral-reef.h5</t>
+    <t xml:space="preserve">coral-reef-light.h5</t>
   </si>
   <si>
     <t xml:space="preserve">audio</t>
@@ -1275,192 +1275,196 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1537,14 +1541,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <tabColor rgb="FFDDDDDD"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B60"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="5" topLeftCell="B6" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1938,7 +1942,7 @@
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1947,7 +1951,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <tabColor rgb="FFB4C7DC"/>
     <pageSetUpPr fitToPage="false"/>
@@ -1975,16 +1979,16 @@
       <c r="B1" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="F1" s="0"/>
+      <c r="F1" s="40"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="36" t="s">
@@ -1993,9 +1997,9 @@
       <c r="B2" s="38" t="n">
         <v>2</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="36" t="s">
@@ -2007,18 +2011,18 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A1" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A1" type="none">
       <formula1>ListAutoclusters!$A$2:$A$1048576</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A2:A1003" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A2:A1003" type="list">
       <formula1>ListReducers!$A$2:$A$1048576</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2028,7 +2032,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <tabColor rgb="FFB4C7DC"/>
     <pageSetUpPr fitToPage="false"/>
@@ -2069,7 +2073,7 @@
       <c r="E1" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="F1" s="0"/>
+      <c r="F1" s="40"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="36" t="s">
@@ -2107,18 +2111,18 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A1" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A1" type="none">
       <formula1>ListAutoclusters!$A$2:$A$1048576</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A2:A1002" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A2:A1002" type="list">
       <formula1>ListAutoclusters!$A$2:$A$1048576</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2127,7 +2131,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <tabColor rgb="FFDDDDDD"/>
     <pageSetUpPr fitToPage="false"/>
@@ -2145,15 +2149,15 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="15" width="16.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="42" width="42.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="43" width="42.79"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1015" min="3" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>213</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="45" t="s">
         <v>214</v>
       </c>
     </row>
@@ -2161,7 +2165,7 @@
       <c r="A2" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="46" t="s">
         <v>215</v>
       </c>
     </row>
@@ -2169,7 +2173,7 @@
       <c r="A3" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="46" t="s">
         <v>217</v>
       </c>
     </row>
@@ -2177,7 +2181,7 @@
       <c r="A4" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="46" t="s">
         <v>219</v>
       </c>
     </row>
@@ -2185,7 +2189,7 @@
       <c r="A5" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="46" t="s">
         <v>221</v>
       </c>
     </row>
@@ -2193,7 +2197,7 @@
       <c r="A6" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="46" t="s">
         <v>223</v>
       </c>
     </row>
@@ -2201,7 +2205,7 @@
       <c r="A7" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="47" t="s">
         <v>225</v>
       </c>
     </row>
@@ -2209,7 +2213,7 @@
       <c r="A8" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="47" t="s">
         <v>226</v>
       </c>
     </row>
@@ -2217,7 +2221,7 @@
       <c r="A9" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="47" t="s">
         <v>228</v>
       </c>
     </row>
@@ -2225,14 +2229,14 @@
       <c r="A10" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="47" t="s">
         <v>229</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2241,7 +2245,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <tabColor rgb="FFDDDDDD"/>
     <pageSetUpPr fitToPage="false"/>
@@ -2259,15 +2263,15 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="15" width="16.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="42" width="42.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="43" width="42.79"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1015" min="3" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>230</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="45" t="s">
         <v>214</v>
       </c>
     </row>
@@ -2275,7 +2279,7 @@
       <c r="A2" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="46" t="s">
         <v>232</v>
       </c>
     </row>
@@ -2283,7 +2287,7 @@
       <c r="A3" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="46" t="s">
         <v>234</v>
       </c>
     </row>
@@ -2291,7 +2295,7 @@
       <c r="A4" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="46" t="s">
         <v>236</v>
       </c>
     </row>
@@ -2299,7 +2303,7 @@
       <c r="A5" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="46" t="s">
         <v>238</v>
       </c>
     </row>
@@ -2307,7 +2311,7 @@
       <c r="A6" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="46" t="s">
         <v>240</v>
       </c>
     </row>
@@ -2315,7 +2319,7 @@
       <c r="A7" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="46" t="s">
         <v>241</v>
       </c>
     </row>
@@ -2323,7 +2327,7 @@
       <c r="A8" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="46" t="s">
         <v>242</v>
       </c>
     </row>
@@ -2331,17 +2335,17 @@
       <c r="A9" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="46" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="46"/>
+      <c r="B10" s="47"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2350,7 +2354,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <tabColor rgb="FFDDDDDD"/>
     <pageSetUpPr fitToPage="false"/>
@@ -2372,7 +2376,7 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2389,7 +2393,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2398,7 +2402,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <tabColor rgb="FFDDDDDD"/>
     <pageSetUpPr fitToPage="false"/>
@@ -2416,7 +2420,7 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2438,7 +2442,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2447,7 +2451,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <tabColor rgb="FFDDDDDD"/>
     <pageSetUpPr fitToPage="false"/>
@@ -2469,7 +2473,7 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2496,7 +2500,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2505,14 +2509,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <tabColor rgb="FFFFFFA6"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
@@ -2522,8 +2526,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="48.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="48.94"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="3" style="1" width="11.52"/>
   </cols>
   <sheetData>
@@ -2611,7 +2615,7 @@
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2620,7 +2624,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <tabColor rgb="FFFFFFA6"/>
     <pageSetUpPr fitToPage="false"/>
@@ -2638,7 +2642,7 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="24" width="56.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="25" width="63.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="25" width="63.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="26" width="22.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="4" style="27" width="20.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="11" style="28" width="15.84"/>
@@ -5894,7 +5898,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -5903,7 +5907,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <tabColor rgb="FFFFFFA6"/>
     <pageSetUpPr fitToPage="false"/>
@@ -5962,7 +5966,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -5971,7 +5975,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <tabColor rgb="FFFFFFA6"/>
     <pageSetUpPr fitToPage="false"/>
@@ -6021,7 +6025,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -6030,7 +6034,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <tabColor rgb="FFFFFFA6"/>
     <pageSetUpPr fitToPage="false"/>
@@ -6110,7 +6114,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -6119,7 +6123,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <tabColor rgb="FFFFFFA6"/>
     <pageSetUpPr fitToPage="false"/>
@@ -6227,14 +6231,14 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F2:F1004" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F2:F1004" type="list">
       <formula1>ListTrajectories!$A$2:$A$1048576</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -6243,7 +6247,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <tabColor rgb="FFB4C7DC"/>
     <pageSetUpPr fitToPage="false"/>
@@ -6256,7 +6260,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="36" width="10.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="36" width="10.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="37" width="14.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="38" width="17.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="38" width="15.45"/>
@@ -6276,7 +6280,7 @@
       <c r="D1" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="0"/>
+      <c r="E1" s="40"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="36" t="s">
@@ -6322,14 +6326,14 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A2:A1001" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A2:A1001" type="list">
       <formula1>ListExtractors!$A$2:$A$1048576</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -6339,7 +6343,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <tabColor rgb="FFB4C7DC"/>
     <pageSetUpPr fitToPage="false"/>
@@ -6378,18 +6382,18 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A1" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A1" type="none">
       <formula1>Help!$A$2:$A$1048576</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A2:A1004" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A2:A1004" type="list">
       <formula1>ListDigesters!$A$2:$A$1048576</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/examples/campaigns/coral-reef-light/coral-reef-light.xlsx
+++ b/examples/campaigns/coral-reef-light/coral-reef-light.xlsx
@@ -615,7 +615,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="220">
   <si>
     <t xml:space="preserve">SoundScapeExplorer
 Version 11</t>
@@ -700,49 +700,8 @@
     <t xml:space="preserve">audio_host</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">The host name serving your audio files. Example: `</t>
-    </r>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">http://localhost:5531/</t>
-    </r>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">`
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <i val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Optional</t>
-    </r>
+    <t xml:space="preserve">The host name serving your audio files. Example: `http://localhost:5531/`
+Optional</t>
   </si>
   <si>
     <t xml:space="preserve">timezone</t>
@@ -1255,133 +1214,133 @@
     <t xml:space="preserve">silhouette</t>
   </si>
   <si>
+    <t xml:space="preserve">contingency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reducer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dimensions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">integrations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ranges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">umap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">autocluster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min_cluster_size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min_samples</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alpha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">epsilon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hdbscan-eom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hdbscan-leaf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">indicator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The VGGish neural network.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">leq_maad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Leq using maad library.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">med</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The temporal median.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ht</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The temporal entropy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The frequency entropy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aci</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The acoustic complexity index.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The acoustic diversity index.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The bioacoustics index.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The normalized difference soundscape index.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">volume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sum_var</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The sum variance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sum_std</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The sum standard deviation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean_std</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The mean standard deviation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean_spreading</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The mean spreading.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">distance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The distance between subtypes of a given cluster.</t>
+  </si>
+  <si>
     <t xml:space="preserve">overlap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">contingency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reducer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dimensions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">integrations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ranges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">umap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">autocluster</t>
-  </si>
-  <si>
-    <t xml:space="preserve">min_cluster_size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">min_samples</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alpha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">epsilon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hdbscan-eom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hdbscan-leaf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">indicator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The VGGish neural network.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">leq_maad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Leq using maad library.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">med</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The temporal median.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ht</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The temporal entropy.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The frequency entropy.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aci</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The acoustic complexity index.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The acoustic diversity index.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The bioacoustics index.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The normalized difference soundscape index.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">volume</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sum_var</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The sum variance.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sum_std</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The sum standard deviation.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean_std</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The mean standard deviation.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean_spreading</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The mean spreading.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">distance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The distance between subtypes of a given cluster.</t>
   </si>
   <si>
     <t xml:space="preserve">The overlap between subtypes of a given cluster.</t>
@@ -1617,7 +1576,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1704,6 +1663,10 @@
     </xf>
     <xf numFmtId="164" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -2038,48 +2001,48 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="37" width="13.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="38" width="14.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="38" width="17.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="38" width="15.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="38" width="25.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="38" width="13.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="39" width="14.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="39" width="17.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="39" width="15.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="39" width="25.98"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1014" min="6" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" s="41" t="s">
         <v>171</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="C1" s="43" t="s">
         <v>172</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="D1" s="43" t="s">
         <v>173</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="E1" s="43" t="s">
         <v>174</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="38" t="s">
         <v>175</v>
       </c>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="37" t="s">
-        <v>176</v>
-      </c>
-      <c r="B2" s="39" t="n">
+      <c r="B2" s="40" t="n">
         <v>2</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="37" t="s">
-        <v>176</v>
-      </c>
-      <c r="B3" s="38" t="n">
+      <c r="A3" s="38" t="s">
+        <v>175</v>
+      </c>
+      <c r="B3" s="39" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2123,63 +2086,63 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="37" width="16.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="38" width="16.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="39" width="17.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="39" width="15.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="39" width="25.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="38" width="16.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="39" width="16.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="40" width="17.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="40" width="15.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="40" width="25.98"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1014" min="6" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1" s="41" t="s">
         <v>177</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="C1" s="41" t="s">
         <v>178</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="D1" s="41" t="s">
         <v>179</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="E1" s="41" t="s">
         <v>180</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="38" t="s">
         <v>181</v>
       </c>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="37" t="s">
+      <c r="B2" s="40" t="n">
+        <v>15</v>
+      </c>
+      <c r="C2" s="40" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="40" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="B2" s="39" t="n">
+      <c r="B3" s="39" t="n">
         <v>15</v>
       </c>
-      <c r="C2" s="39" t="n">
+      <c r="C3" s="40" t="n">
         <v>15</v>
       </c>
-      <c r="D2" s="39" t="n">
+      <c r="D3" s="40" t="n">
         <v>1</v>
       </c>
-      <c r="E2" s="39" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="37" t="s">
-        <v>183</v>
-      </c>
-      <c r="B3" s="38" t="n">
-        <v>15</v>
-      </c>
-      <c r="C3" s="39" t="n">
-        <v>15</v>
-      </c>
-      <c r="D3" s="39" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="39" t="n">
+      <c r="E3" s="40" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -2227,89 +2190,89 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="44" width="16.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="45" width="42.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="45" width="16.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="46" width="42.79"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1015" min="3" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="47" t="s">
+        <v>183</v>
+      </c>
+      <c r="B1" s="48" t="s">
         <v>184</v>
       </c>
-      <c r="B1" s="47" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="45" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="49" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="B2" s="48" t="s">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="45" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="44" t="s">
+      <c r="B3" s="49" t="s">
         <v>187</v>
       </c>
-      <c r="B3" s="48" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="45" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="44" t="s">
+      <c r="B4" s="49" t="s">
         <v>189</v>
       </c>
-      <c r="B4" s="48" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="45" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="44" t="s">
+      <c r="B5" s="49" t="s">
         <v>191</v>
       </c>
-      <c r="B5" s="48" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="45" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="44" t="s">
+      <c r="B6" s="49" t="s">
         <v>193</v>
       </c>
-      <c r="B6" s="48" t="s">
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="45" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="44" t="s">
+      <c r="B7" s="50" t="s">
         <v>195</v>
       </c>
-      <c r="B7" s="49" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="B8" s="50" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="44" t="s">
-        <v>166</v>
-      </c>
-      <c r="B8" s="49" t="s">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="45" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="44" t="s">
+      <c r="B9" s="50" t="s">
         <v>198</v>
       </c>
-      <c r="B9" s="49" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="45" t="s">
+        <v>164</v>
+      </c>
+      <c r="B10" s="50" t="s">
         <v>199</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="44" t="s">
-        <v>164</v>
-      </c>
-      <c r="B10" s="49" t="s">
-        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -2341,85 +2304,85 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="44" width="16.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="45" width="42.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="45" width="16.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="46" width="42.79"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1015" min="3" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="47" t="s">
+        <v>200</v>
+      </c>
+      <c r="B1" s="48" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="45" t="s">
         <v>201</v>
       </c>
-      <c r="B1" s="47" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="44" t="s">
+      <c r="B2" s="49" t="s">
         <v>202</v>
       </c>
-      <c r="B2" s="48" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="45" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="44" t="s">
+      <c r="B3" s="49" t="s">
         <v>204</v>
       </c>
-      <c r="B3" s="48" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="45" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="44" t="s">
+      <c r="B4" s="49" t="s">
         <v>206</v>
       </c>
-      <c r="B4" s="48" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="45" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="44" t="s">
+      <c r="B5" s="49" t="s">
         <v>208</v>
       </c>
-      <c r="B5" s="48" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="45" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="44" t="s">
+      <c r="B6" s="49" t="s">
         <v>210</v>
       </c>
-      <c r="B6" s="48" t="s">
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="45" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="44" t="s">
+      <c r="B7" s="49" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="45" t="s">
+        <v>168</v>
+      </c>
+      <c r="B8" s="49" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="45" t="s">
         <v>169</v>
       </c>
-      <c r="B7" s="48" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="44" t="s">
-        <v>168</v>
-      </c>
-      <c r="B8" s="48" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="44" t="s">
-        <v>170</v>
-      </c>
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="49" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="49"/>
+      <c r="B10" s="50"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2450,32 +2413,32 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="44" width="16.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="45" width="16.24"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1015" min="2" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="46" t="s">
-        <v>171</v>
+      <c r="A1" s="47" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="44" t="s">
-        <v>176</v>
+      <c r="A2" s="45" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="45" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="45" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="45" t="s">
         <v>217</v>
       </c>
     </row>
@@ -2508,23 +2471,23 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="44" width="16.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="45" width="16.24"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1015" min="2" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="46" t="s">
-        <v>177</v>
+      <c r="A1" s="47" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="45" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="45" t="s">
         <v>182</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="44" t="s">
-        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -2552,27 +2515,27 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="44" width="16.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="45" width="16.79"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1014" min="2" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="47" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="45" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="45" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="45" t="s">
         <v>219</v>
       </c>
     </row>
@@ -2673,7 +2636,7 @@
         <v>25</v>
       </c>
       <c r="B6" s="21"/>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="22" t="s">
         <v>26</v>
       </c>
       <c r="D6" s="14"/>
@@ -3702,7 +3665,7 @@
       <c r="A7" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="22"/>
+      <c r="B7" s="23"/>
       <c r="C7" s="18" t="s">
         <v>28</v>
       </c>
@@ -3712,7 +3675,7 @@
       <c r="A8" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="22" t="n">
+      <c r="B8" s="23" t="n">
         <v>3</v>
       </c>
       <c r="C8" s="18" t="s">
@@ -3724,7 +3687,7 @@
       <c r="A9" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="22" t="n">
+      <c r="B9" s="23" t="n">
         <v>10</v>
       </c>
       <c r="C9" s="18" t="s">
@@ -3736,7 +3699,7 @@
       <c r="A10" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="22" t="n">
+      <c r="B10" s="23" t="n">
         <v>42000</v>
       </c>
       <c r="C10" s="18" t="s">
@@ -3746,7 +3709,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C6" r:id="rId1" display="http://localhost:5531/"/>
+    <hyperlink ref="C6" r:id="rId1" display="The host name serving your audio files. Example: `http://localhost:5531/`&#10;Optional"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -3776,3271 +3739,3271 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="23" width="65.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="24" width="63.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="25" width="22.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="26" width="20.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="27" width="12.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="27" width="14.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="27" width="11.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="27" width="19.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="27" width="17.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="27" width="16.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="27" width="14.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="27" width="13.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="27" width="11.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="27" width="13.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="27" width="18.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="27" width="15.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="27" width="15.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="27" width="14.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="27" width="27.03"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="28" min="20" style="27" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="24" width="65.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="25" width="63.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="26" width="22.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="27" width="20.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="28" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="28" width="14.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="28" width="11.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="28" width="19.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="28" width="17.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="28" width="16.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="28" width="14.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="28" width="13.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="28" width="11.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="28" width="13.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="28" width="18.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="28" width="15.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="28" width="15.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="28" width="14.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="28" width="27.03"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="28" min="20" style="28" width="11.52"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1003" min="29" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="J1" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="K1" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="L1" s="28" t="s">
+      <c r="L1" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="M1" s="28" t="s">
+      <c r="M1" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="N1" s="28" t="s">
+      <c r="N1" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="O1" s="28" t="s">
+      <c r="O1" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="P1" s="28" t="s">
+      <c r="P1" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="Q1" s="28" t="s">
+      <c r="Q1" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="R1" s="28" t="s">
+      <c r="R1" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="S1" s="28" t="s">
+      <c r="S1" s="29" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="32" t="n">
+      <c r="C2" s="33" t="n">
         <v>44881.5034722222</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="26" t="n">
+      <c r="E2" s="27" t="n">
         <v>2022</v>
       </c>
-      <c r="F2" s="26" t="n">
+      <c r="F2" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="G2" s="26" t="n">
+      <c r="G2" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="H2" s="26" t="n">
+      <c r="H2" s="27" t="n">
         <v>5</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="J2" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="K2" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="L2" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="M2" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="N2" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="O2" s="27" t="n">
+      <c r="L2" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="M2" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="N2" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="O2" s="28" t="n">
         <v>465</v>
       </c>
-      <c r="P2" s="27" t="n">
+      <c r="P2" s="28" t="n">
         <v>62</v>
       </c>
-      <c r="Q2" s="27" t="n">
+      <c r="Q2" s="28" t="n">
         <v>461</v>
       </c>
-      <c r="R2" s="27" t="n">
+      <c r="R2" s="28" t="n">
         <v>58</v>
       </c>
-      <c r="S2" s="27" t="s">
+      <c r="S2" s="28" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="32" t="n">
+      <c r="C3" s="33" t="n">
         <v>44881.5104166667</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="26" t="n">
+      <c r="E3" s="27" t="n">
         <v>2022</v>
       </c>
-      <c r="F3" s="26" t="n">
+      <c r="F3" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="G3" s="26" t="n">
+      <c r="G3" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="H3" s="26" t="n">
+      <c r="H3" s="27" t="n">
         <v>5</v>
       </c>
-      <c r="I3" s="26" t="s">
+      <c r="I3" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="J3" s="26" t="s">
+      <c r="J3" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="K3" s="27" t="s">
+      <c r="K3" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="L3" s="27" t="s">
+      <c r="L3" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="M3" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="N3" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="O3" s="27" t="n">
+      <c r="M3" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="N3" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" s="28" t="n">
         <v>465</v>
       </c>
-      <c r="P3" s="27" t="n">
+      <c r="P3" s="28" t="n">
         <v>62</v>
       </c>
-      <c r="Q3" s="27" t="n">
+      <c r="Q3" s="28" t="n">
         <v>461</v>
       </c>
-      <c r="R3" s="27" t="n">
+      <c r="R3" s="28" t="n">
         <v>58</v>
       </c>
-      <c r="S3" s="27" t="s">
+      <c r="S3" s="28" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="32" t="n">
+      <c r="C4" s="33" t="n">
         <v>44881.5173611111</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="26" t="n">
+      <c r="E4" s="27" t="n">
         <v>2022</v>
       </c>
-      <c r="F4" s="26" t="n">
+      <c r="F4" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="G4" s="26" t="n">
+      <c r="G4" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="H4" s="26" t="n">
+      <c r="H4" s="27" t="n">
         <v>5</v>
       </c>
-      <c r="I4" s="26" t="s">
+      <c r="I4" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="J4" s="26" t="s">
+      <c r="J4" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="K4" s="27" t="s">
+      <c r="K4" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="L4" s="27" t="s">
+      <c r="L4" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="M4" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="N4" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="O4" s="27" t="n">
+      <c r="M4" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="N4" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" s="28" t="n">
         <v>465</v>
       </c>
-      <c r="P4" s="27" t="n">
+      <c r="P4" s="28" t="n">
         <v>62</v>
       </c>
-      <c r="Q4" s="27" t="n">
+      <c r="Q4" s="28" t="n">
         <v>461</v>
       </c>
-      <c r="R4" s="27" t="n">
+      <c r="R4" s="28" t="n">
         <v>58</v>
       </c>
-      <c r="S4" s="27" t="s">
+      <c r="S4" s="28" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="33" t="n">
+      <c r="C5" s="34" t="n">
         <v>44887.5</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="26" t="n">
+      <c r="E5" s="27" t="n">
         <v>2022</v>
       </c>
-      <c r="F5" s="26" t="n">
+      <c r="F5" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="G5" s="26" t="n">
+      <c r="G5" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="H5" s="26" t="n">
+      <c r="H5" s="27" t="n">
         <v>5</v>
       </c>
-      <c r="I5" s="26" t="s">
+      <c r="I5" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="J5" s="26" t="s">
+      <c r="J5" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="K5" s="27" t="s">
+      <c r="K5" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="L5" s="27" t="s">
+      <c r="L5" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="M5" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="N5" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="O5" s="27" t="n">
+      <c r="M5" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="N5" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="O5" s="28" t="n">
         <v>465</v>
       </c>
-      <c r="P5" s="27" t="n">
+      <c r="P5" s="28" t="n">
         <v>62</v>
       </c>
-      <c r="Q5" s="27" t="n">
+      <c r="Q5" s="28" t="n">
         <v>461</v>
       </c>
-      <c r="R5" s="27" t="n">
+      <c r="R5" s="28" t="n">
         <v>58</v>
       </c>
-      <c r="S5" s="27" t="s">
+      <c r="S5" s="28" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="33" t="n">
+      <c r="C6" s="34" t="n">
         <v>44887.5069444444</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="26" t="n">
+      <c r="E6" s="27" t="n">
         <v>2022</v>
       </c>
-      <c r="F6" s="26" t="n">
+      <c r="F6" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="G6" s="26" t="n">
+      <c r="G6" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="H6" s="26" t="n">
+      <c r="H6" s="27" t="n">
         <v>5</v>
       </c>
-      <c r="I6" s="26" t="s">
+      <c r="I6" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="J6" s="26" t="s">
+      <c r="J6" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="K6" s="27" t="s">
+      <c r="K6" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="L6" s="27" t="s">
+      <c r="L6" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="M6" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="N6" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="O6" s="27" t="n">
+      <c r="M6" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="N6" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="O6" s="28" t="n">
         <v>465</v>
       </c>
-      <c r="P6" s="27" t="n">
+      <c r="P6" s="28" t="n">
         <v>62</v>
       </c>
-      <c r="Q6" s="27" t="n">
+      <c r="Q6" s="28" t="n">
         <v>461</v>
       </c>
-      <c r="R6" s="27" t="n">
+      <c r="R6" s="28" t="n">
         <v>58</v>
       </c>
-      <c r="S6" s="27" t="s">
+      <c r="S6" s="28" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="33" t="n">
+      <c r="C7" s="34" t="n">
         <v>44887.5138888889</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="26" t="n">
+      <c r="E7" s="27" t="n">
         <v>2022</v>
       </c>
-      <c r="F7" s="26" t="n">
+      <c r="F7" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="G7" s="26" t="n">
+      <c r="G7" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="H7" s="26" t="n">
+      <c r="H7" s="27" t="n">
         <v>5</v>
       </c>
-      <c r="I7" s="26" t="s">
+      <c r="I7" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="J7" s="26" t="s">
+      <c r="J7" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="K7" s="27" t="s">
+      <c r="K7" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="L7" s="27" t="s">
+      <c r="L7" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="M7" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="N7" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="O7" s="27" t="n">
+      <c r="M7" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="N7" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="O7" s="28" t="n">
         <v>465</v>
       </c>
-      <c r="P7" s="27" t="n">
+      <c r="P7" s="28" t="n">
         <v>62</v>
       </c>
-      <c r="Q7" s="27" t="n">
+      <c r="Q7" s="28" t="n">
         <v>461</v>
       </c>
-      <c r="R7" s="27" t="n">
+      <c r="R7" s="28" t="n">
         <v>58</v>
       </c>
-      <c r="S7" s="27" t="s">
+      <c r="S7" s="28" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="33" t="n">
+      <c r="C8" s="34" t="n">
         <v>44907.5034722222</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="26" t="n">
+      <c r="E8" s="27" t="n">
         <v>2022</v>
       </c>
-      <c r="F8" s="26" t="n">
+      <c r="F8" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="G8" s="26" t="n">
+      <c r="G8" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="H8" s="26" t="n">
+      <c r="H8" s="27" t="n">
         <v>5</v>
       </c>
-      <c r="I8" s="26" t="s">
+      <c r="I8" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="J8" s="26" t="s">
+      <c r="J8" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="K8" s="27" t="s">
+      <c r="K8" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="L8" s="27" t="s">
+      <c r="L8" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="M8" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="N8" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="O8" s="27" t="n">
+      <c r="M8" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="N8" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="O8" s="28" t="n">
         <v>465</v>
       </c>
-      <c r="P8" s="27" t="n">
+      <c r="P8" s="28" t="n">
         <v>62</v>
       </c>
-      <c r="Q8" s="27" t="n">
+      <c r="Q8" s="28" t="n">
         <v>461</v>
       </c>
-      <c r="R8" s="27" t="n">
+      <c r="R8" s="28" t="n">
         <v>58</v>
       </c>
-      <c r="S8" s="27" t="s">
+      <c r="S8" s="28" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="33" t="n">
+      <c r="C9" s="34" t="n">
         <v>44907.5104166667</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="26" t="n">
+      <c r="E9" s="27" t="n">
         <v>2022</v>
       </c>
-      <c r="F9" s="26" t="n">
+      <c r="F9" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="G9" s="26" t="n">
+      <c r="G9" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="H9" s="26" t="n">
+      <c r="H9" s="27" t="n">
         <v>5</v>
       </c>
-      <c r="I9" s="26" t="s">
+      <c r="I9" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="J9" s="26" t="s">
+      <c r="J9" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="K9" s="27" t="s">
+      <c r="K9" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="L9" s="27" t="s">
+      <c r="L9" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="M9" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="N9" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="O9" s="27" t="n">
+      <c r="M9" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="N9" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="O9" s="28" t="n">
         <v>465</v>
       </c>
-      <c r="P9" s="27" t="n">
+      <c r="P9" s="28" t="n">
         <v>62</v>
       </c>
-      <c r="Q9" s="27" t="n">
+      <c r="Q9" s="28" t="n">
         <v>461</v>
       </c>
-      <c r="R9" s="27" t="n">
+      <c r="R9" s="28" t="n">
         <v>58</v>
       </c>
-      <c r="S9" s="27" t="s">
+      <c r="S9" s="28" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="33" t="n">
+      <c r="C10" s="34" t="n">
         <v>44907.5173611111</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="26" t="n">
+      <c r="E10" s="27" t="n">
         <v>2022</v>
       </c>
-      <c r="F10" s="26" t="n">
+      <c r="F10" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="G10" s="26" t="n">
+      <c r="G10" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="H10" s="26" t="n">
+      <c r="H10" s="27" t="n">
         <v>5</v>
       </c>
-      <c r="I10" s="26" t="s">
+      <c r="I10" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="J10" s="26" t="s">
+      <c r="J10" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="K10" s="27" t="s">
+      <c r="K10" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="L10" s="27" t="s">
+      <c r="L10" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="M10" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="N10" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="O10" s="27" t="n">
+      <c r="M10" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="N10" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="O10" s="28" t="n">
         <v>465</v>
       </c>
-      <c r="P10" s="27" t="n">
+      <c r="P10" s="28" t="n">
         <v>62</v>
       </c>
-      <c r="Q10" s="27" t="n">
+      <c r="Q10" s="28" t="n">
         <v>461</v>
       </c>
-      <c r="R10" s="27" t="n">
+      <c r="R10" s="28" t="n">
         <v>58</v>
       </c>
-      <c r="S10" s="27" t="s">
+      <c r="S10" s="28" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="33" t="n">
+      <c r="C11" s="34" t="n">
         <v>44881.5034722222</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="E11" s="26" t="n">
+      <c r="E11" s="27" t="n">
         <v>2022</v>
       </c>
-      <c r="F11" s="26" t="n">
+      <c r="F11" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="G11" s="26" t="n">
+      <c r="G11" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="H11" s="26" t="n">
+      <c r="H11" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="I11" s="26" t="s">
+      <c r="I11" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="J11" s="26" t="s">
+      <c r="J11" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="K11" s="27" t="s">
+      <c r="K11" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="L11" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="M11" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="N11" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="O11" s="27" t="n">
+      <c r="L11" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="M11" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="N11" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="O11" s="28" t="n">
         <v>378</v>
       </c>
-      <c r="P11" s="27" t="n">
+      <c r="P11" s="28" t="n">
         <v>52</v>
       </c>
-      <c r="Q11" s="27" t="n">
+      <c r="Q11" s="28" t="n">
         <v>334</v>
       </c>
-      <c r="R11" s="27" t="n">
+      <c r="R11" s="28" t="n">
         <v>44</v>
       </c>
-      <c r="S11" s="27" t="s">
+      <c r="S11" s="28" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="C12" s="33" t="n">
+      <c r="C12" s="34" t="n">
         <v>44881.5104166667</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="E12" s="26" t="n">
+      <c r="E12" s="27" t="n">
         <v>2022</v>
       </c>
-      <c r="F12" s="26" t="n">
+      <c r="F12" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="G12" s="26" t="n">
+      <c r="G12" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="H12" s="26" t="n">
+      <c r="H12" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="I12" s="26" t="s">
+      <c r="I12" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="J12" s="26" t="s">
+      <c r="J12" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="K12" s="27" t="s">
+      <c r="K12" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="L12" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="M12" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="N12" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="O12" s="27" t="n">
+      <c r="L12" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="M12" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="N12" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="O12" s="28" t="n">
         <v>378</v>
       </c>
-      <c r="P12" s="27" t="n">
+      <c r="P12" s="28" t="n">
         <v>52</v>
       </c>
-      <c r="Q12" s="27" t="n">
+      <c r="Q12" s="28" t="n">
         <v>334</v>
       </c>
-      <c r="R12" s="27" t="n">
+      <c r="R12" s="28" t="n">
         <v>44</v>
       </c>
-      <c r="S12" s="27" t="s">
+      <c r="S12" s="28" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="C13" s="33" t="n">
+      <c r="C13" s="34" t="n">
         <v>44881.5173611111</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="E13" s="26" t="n">
+      <c r="E13" s="27" t="n">
         <v>2022</v>
       </c>
-      <c r="F13" s="26" t="n">
+      <c r="F13" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="G13" s="26" t="n">
+      <c r="G13" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="H13" s="26" t="n">
+      <c r="H13" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="I13" s="26" t="s">
+      <c r="I13" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="J13" s="26" t="s">
+      <c r="J13" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="K13" s="27" t="s">
+      <c r="K13" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="L13" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="M13" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="N13" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="O13" s="27" t="n">
+      <c r="L13" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="M13" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="N13" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="O13" s="28" t="n">
         <v>378</v>
       </c>
-      <c r="P13" s="27" t="n">
+      <c r="P13" s="28" t="n">
         <v>52</v>
       </c>
-      <c r="Q13" s="27" t="n">
+      <c r="Q13" s="28" t="n">
         <v>334</v>
       </c>
-      <c r="R13" s="27" t="n">
+      <c r="R13" s="28" t="n">
         <v>44</v>
       </c>
-      <c r="S13" s="27" t="s">
+      <c r="S13" s="28" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="C14" s="33" t="n">
+      <c r="C14" s="34" t="n">
         <v>44887.5034722222</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="E14" s="26" t="n">
+      <c r="E14" s="27" t="n">
         <v>2022</v>
       </c>
-      <c r="F14" s="26" t="n">
+      <c r="F14" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="G14" s="26" t="n">
+      <c r="G14" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="H14" s="26" t="n">
+      <c r="H14" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="I14" s="26" t="s">
+      <c r="I14" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="J14" s="26" t="s">
+      <c r="J14" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="K14" s="27" t="s">
+      <c r="K14" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="L14" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="M14" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="N14" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="O14" s="27" t="n">
+      <c r="L14" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="M14" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="N14" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="O14" s="28" t="n">
         <v>378</v>
       </c>
-      <c r="P14" s="27" t="n">
+      <c r="P14" s="28" t="n">
         <v>52</v>
       </c>
-      <c r="Q14" s="27" t="n">
+      <c r="Q14" s="28" t="n">
         <v>334</v>
       </c>
-      <c r="R14" s="27" t="n">
+      <c r="R14" s="28" t="n">
         <v>44</v>
       </c>
-      <c r="S14" s="27" t="s">
+      <c r="S14" s="28" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="C15" s="33" t="n">
+      <c r="C15" s="34" t="n">
         <v>44887.5104166667</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="E15" s="26" t="n">
+      <c r="E15" s="27" t="n">
         <v>2022</v>
       </c>
-      <c r="F15" s="26" t="n">
+      <c r="F15" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="G15" s="26" t="n">
+      <c r="G15" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="H15" s="26" t="n">
+      <c r="H15" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="I15" s="26" t="s">
+      <c r="I15" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="J15" s="26" t="s">
+      <c r="J15" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="K15" s="27" t="s">
+      <c r="K15" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="L15" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="M15" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="N15" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="O15" s="27" t="n">
+      <c r="L15" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="M15" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="N15" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="O15" s="28" t="n">
         <v>378</v>
       </c>
-      <c r="P15" s="27" t="n">
+      <c r="P15" s="28" t="n">
         <v>52</v>
       </c>
-      <c r="Q15" s="27" t="n">
+      <c r="Q15" s="28" t="n">
         <v>334</v>
       </c>
-      <c r="R15" s="27" t="n">
+      <c r="R15" s="28" t="n">
         <v>44</v>
       </c>
-      <c r="S15" s="27" t="s">
+      <c r="S15" s="28" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="33" t="n">
+      <c r="C16" s="34" t="n">
         <v>44887.5173611111</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="E16" s="26" t="n">
+      <c r="E16" s="27" t="n">
         <v>2022</v>
       </c>
-      <c r="F16" s="26" t="n">
+      <c r="F16" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="G16" s="26" t="n">
+      <c r="G16" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="H16" s="26" t="n">
+      <c r="H16" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="I16" s="26" t="s">
+      <c r="I16" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="J16" s="26" t="s">
+      <c r="J16" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="K16" s="27" t="s">
+      <c r="K16" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="L16" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="M16" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="N16" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="O16" s="27" t="n">
+      <c r="L16" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="M16" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="N16" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="O16" s="28" t="n">
         <v>378</v>
       </c>
-      <c r="P16" s="27" t="n">
+      <c r="P16" s="28" t="n">
         <v>52</v>
       </c>
-      <c r="Q16" s="27" t="n">
+      <c r="Q16" s="28" t="n">
         <v>334</v>
       </c>
-      <c r="R16" s="27" t="n">
+      <c r="R16" s="28" t="n">
         <v>44</v>
       </c>
-      <c r="S16" s="27" t="s">
+      <c r="S16" s="28" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="C17" s="33" t="n">
+      <c r="C17" s="34" t="n">
         <v>44907.5</v>
       </c>
-      <c r="D17" s="26" t="s">
+      <c r="D17" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="E17" s="26" t="n">
+      <c r="E17" s="27" t="n">
         <v>2022</v>
       </c>
-      <c r="F17" s="26" t="n">
+      <c r="F17" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="G17" s="26" t="n">
+      <c r="G17" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="H17" s="26" t="n">
+      <c r="H17" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="I17" s="26" t="s">
+      <c r="I17" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="J17" s="26" t="s">
+      <c r="J17" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="K17" s="27" t="s">
+      <c r="K17" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="L17" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="M17" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="N17" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="O17" s="27" t="n">
+      <c r="L17" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="M17" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="N17" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="O17" s="28" t="n">
         <v>378</v>
       </c>
-      <c r="P17" s="27" t="n">
+      <c r="P17" s="28" t="n">
         <v>52</v>
       </c>
-      <c r="Q17" s="27" t="n">
+      <c r="Q17" s="28" t="n">
         <v>334</v>
       </c>
-      <c r="R17" s="27" t="n">
+      <c r="R17" s="28" t="n">
         <v>44</v>
       </c>
-      <c r="S17" s="27" t="s">
+      <c r="S17" s="28" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="C18" s="33" t="n">
+      <c r="C18" s="34" t="n">
         <v>44907.5069444444</v>
       </c>
-      <c r="D18" s="26" t="s">
+      <c r="D18" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="E18" s="26" t="n">
+      <c r="E18" s="27" t="n">
         <v>2022</v>
       </c>
-      <c r="F18" s="26" t="n">
+      <c r="F18" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="G18" s="26" t="n">
+      <c r="G18" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="H18" s="26" t="n">
+      <c r="H18" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="I18" s="26" t="s">
+      <c r="I18" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="J18" s="26" t="s">
+      <c r="J18" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="K18" s="27" t="s">
+      <c r="K18" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="L18" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="M18" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="N18" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="O18" s="27" t="n">
+      <c r="L18" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="M18" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="N18" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="O18" s="28" t="n">
         <v>378</v>
       </c>
-      <c r="P18" s="27" t="n">
+      <c r="P18" s="28" t="n">
         <v>52</v>
       </c>
-      <c r="Q18" s="27" t="n">
+      <c r="Q18" s="28" t="n">
         <v>334</v>
       </c>
-      <c r="R18" s="27" t="n">
+      <c r="R18" s="28" t="n">
         <v>44</v>
       </c>
-      <c r="S18" s="27" t="s">
+      <c r="S18" s="28" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="33" t="n">
+      <c r="C19" s="34" t="n">
         <v>44907.5138888889</v>
       </c>
-      <c r="D19" s="26" t="s">
+      <c r="D19" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="E19" s="26" t="n">
+      <c r="E19" s="27" t="n">
         <v>2022</v>
       </c>
-      <c r="F19" s="26" t="n">
+      <c r="F19" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="G19" s="26" t="n">
+      <c r="G19" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="H19" s="26" t="n">
+      <c r="H19" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="I19" s="26" t="s">
+      <c r="I19" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="J19" s="26" t="s">
+      <c r="J19" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="K19" s="27" t="s">
+      <c r="K19" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="L19" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="M19" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="N19" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="O19" s="27" t="n">
+      <c r="L19" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="M19" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="N19" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="O19" s="28" t="n">
         <v>378</v>
       </c>
-      <c r="P19" s="27" t="n">
+      <c r="P19" s="28" t="n">
         <v>52</v>
       </c>
-      <c r="Q19" s="27" t="n">
+      <c r="Q19" s="28" t="n">
         <v>334</v>
       </c>
-      <c r="R19" s="27" t="n">
+      <c r="R19" s="28" t="n">
         <v>44</v>
       </c>
-      <c r="S19" s="27" t="s">
+      <c r="S19" s="28" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="C20" s="33" t="n">
+      <c r="C20" s="34" t="n">
         <v>44881.5</v>
       </c>
-      <c r="D20" s="26" t="s">
+      <c r="D20" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="E20" s="26" t="n">
+      <c r="E20" s="27" t="n">
         <v>2022</v>
       </c>
-      <c r="F20" s="26" t="n">
+      <c r="F20" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="G20" s="26" t="n">
+      <c r="G20" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="H20" s="26" t="n">
+      <c r="H20" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="I20" s="26" t="s">
+      <c r="I20" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="J20" s="26" t="s">
+      <c r="J20" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="K20" s="27" t="s">
+      <c r="K20" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="L20" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="M20" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="N20" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="O20" s="27" t="n">
+      <c r="L20" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="M20" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="N20" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="O20" s="28" t="n">
         <v>509</v>
       </c>
-      <c r="P20" s="27" t="n">
+      <c r="P20" s="28" t="n">
         <v>58</v>
       </c>
-      <c r="Q20" s="27" t="n">
+      <c r="Q20" s="28" t="n">
         <v>486</v>
       </c>
-      <c r="R20" s="27" t="n">
+      <c r="R20" s="28" t="n">
         <v>47</v>
       </c>
-      <c r="S20" s="27" t="s">
+      <c r="S20" s="28" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="C21" s="33" t="n">
+      <c r="C21" s="34" t="n">
         <v>44881.5069444444</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="D21" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="E21" s="26" t="n">
+      <c r="E21" s="27" t="n">
         <v>2022</v>
       </c>
-      <c r="F21" s="26" t="n">
+      <c r="F21" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="G21" s="26" t="n">
+      <c r="G21" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="H21" s="26" t="n">
+      <c r="H21" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="I21" s="26" t="s">
+      <c r="I21" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="J21" s="26" t="s">
+      <c r="J21" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="K21" s="27" t="s">
+      <c r="K21" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="L21" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="M21" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="N21" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="O21" s="27" t="n">
+      <c r="L21" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="M21" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="N21" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="O21" s="28" t="n">
         <v>509</v>
       </c>
-      <c r="P21" s="27" t="n">
+      <c r="P21" s="28" t="n">
         <v>58</v>
       </c>
-      <c r="Q21" s="27" t="n">
+      <c r="Q21" s="28" t="n">
         <v>486</v>
       </c>
-      <c r="R21" s="27" t="n">
+      <c r="R21" s="28" t="n">
         <v>47</v>
       </c>
-      <c r="S21" s="27" t="s">
+      <c r="S21" s="28" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="C22" s="33" t="n">
+      <c r="C22" s="34" t="n">
         <v>44881.5138888889</v>
       </c>
-      <c r="D22" s="26" t="s">
+      <c r="D22" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="E22" s="26" t="n">
+      <c r="E22" s="27" t="n">
         <v>2022</v>
       </c>
-      <c r="F22" s="26" t="n">
+      <c r="F22" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="G22" s="26" t="n">
+      <c r="G22" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="H22" s="26" t="n">
+      <c r="H22" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="I22" s="26" t="s">
+      <c r="I22" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="J22" s="26" t="s">
+      <c r="J22" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="K22" s="27" t="s">
+      <c r="K22" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="L22" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="M22" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="N22" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="O22" s="27" t="n">
+      <c r="L22" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="M22" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="N22" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="O22" s="28" t="n">
         <v>509</v>
       </c>
-      <c r="P22" s="27" t="n">
+      <c r="P22" s="28" t="n">
         <v>58</v>
       </c>
-      <c r="Q22" s="27" t="n">
+      <c r="Q22" s="28" t="n">
         <v>486</v>
       </c>
-      <c r="R22" s="27" t="n">
+      <c r="R22" s="28" t="n">
         <v>47</v>
       </c>
-      <c r="S22" s="27" t="s">
+      <c r="S22" s="28" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="C23" s="33" t="n">
+      <c r="C23" s="34" t="n">
         <v>44887.5034722222</v>
       </c>
-      <c r="D23" s="26" t="s">
+      <c r="D23" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="E23" s="26" t="n">
+      <c r="E23" s="27" t="n">
         <v>2022</v>
       </c>
-      <c r="F23" s="26" t="n">
+      <c r="F23" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="G23" s="26" t="n">
+      <c r="G23" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="H23" s="26" t="n">
+      <c r="H23" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="I23" s="26" t="s">
+      <c r="I23" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="J23" s="26" t="s">
+      <c r="J23" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="K23" s="27" t="s">
+      <c r="K23" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="L23" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="M23" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="N23" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="O23" s="27" t="n">
+      <c r="L23" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="M23" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="N23" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="O23" s="28" t="n">
         <v>509</v>
       </c>
-      <c r="P23" s="27" t="n">
+      <c r="P23" s="28" t="n">
         <v>58</v>
       </c>
-      <c r="Q23" s="27" t="n">
+      <c r="Q23" s="28" t="n">
         <v>486</v>
       </c>
-      <c r="R23" s="27" t="n">
+      <c r="R23" s="28" t="n">
         <v>47</v>
       </c>
-      <c r="S23" s="27" t="s">
+      <c r="S23" s="28" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="C24" s="33" t="n">
+      <c r="C24" s="34" t="n">
         <v>44887.5104166667</v>
       </c>
-      <c r="D24" s="26" t="s">
+      <c r="D24" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="E24" s="26" t="n">
+      <c r="E24" s="27" t="n">
         <v>2022</v>
       </c>
-      <c r="F24" s="26" t="n">
+      <c r="F24" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="G24" s="26" t="n">
+      <c r="G24" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="H24" s="26" t="n">
+      <c r="H24" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="I24" s="26" t="s">
+      <c r="I24" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="J24" s="26" t="s">
+      <c r="J24" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="K24" s="27" t="s">
+      <c r="K24" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="L24" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="M24" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="N24" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="O24" s="27" t="n">
+      <c r="L24" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="M24" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="N24" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="O24" s="28" t="n">
         <v>509</v>
       </c>
-      <c r="P24" s="27" t="n">
+      <c r="P24" s="28" t="n">
         <v>58</v>
       </c>
-      <c r="Q24" s="27" t="n">
+      <c r="Q24" s="28" t="n">
         <v>486</v>
       </c>
-      <c r="R24" s="27" t="n">
+      <c r="R24" s="28" t="n">
         <v>47</v>
       </c>
-      <c r="S24" s="27" t="s">
+      <c r="S24" s="28" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="B25" s="24" t="s">
+      <c r="B25" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="C25" s="33" t="n">
+      <c r="C25" s="34" t="n">
         <v>44887.5173611111</v>
       </c>
-      <c r="D25" s="26" t="s">
+      <c r="D25" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="E25" s="26" t="n">
+      <c r="E25" s="27" t="n">
         <v>2022</v>
       </c>
-      <c r="F25" s="26" t="n">
+      <c r="F25" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="G25" s="26" t="n">
+      <c r="G25" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="H25" s="26" t="n">
+      <c r="H25" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="I25" s="26" t="s">
+      <c r="I25" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="J25" s="26" t="s">
+      <c r="J25" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="K25" s="27" t="s">
+      <c r="K25" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="L25" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="M25" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="N25" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="O25" s="27" t="n">
+      <c r="L25" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="M25" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="N25" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="O25" s="28" t="n">
         <v>509</v>
       </c>
-      <c r="P25" s="27" t="n">
+      <c r="P25" s="28" t="n">
         <v>58</v>
       </c>
-      <c r="Q25" s="27" t="n">
+      <c r="Q25" s="28" t="n">
         <v>486</v>
       </c>
-      <c r="R25" s="27" t="n">
+      <c r="R25" s="28" t="n">
         <v>47</v>
       </c>
-      <c r="S25" s="27" t="s">
+      <c r="S25" s="28" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="C26" s="33" t="n">
+      <c r="C26" s="34" t="n">
         <v>44907.5034722222</v>
       </c>
-      <c r="D26" s="26" t="s">
+      <c r="D26" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="E26" s="26" t="n">
+      <c r="E26" s="27" t="n">
         <v>2022</v>
       </c>
-      <c r="F26" s="26" t="n">
+      <c r="F26" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="G26" s="26" t="n">
+      <c r="G26" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="H26" s="26" t="n">
+      <c r="H26" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="I26" s="26" t="s">
+      <c r="I26" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="J26" s="26" t="s">
+      <c r="J26" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="K26" s="27" t="s">
+      <c r="K26" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="L26" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="M26" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="N26" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="O26" s="27" t="n">
+      <c r="L26" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="M26" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="N26" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="O26" s="28" t="n">
         <v>509</v>
       </c>
-      <c r="P26" s="27" t="n">
+      <c r="P26" s="28" t="n">
         <v>58</v>
       </c>
-      <c r="Q26" s="27" t="n">
+      <c r="Q26" s="28" t="n">
         <v>486</v>
       </c>
-      <c r="R26" s="27" t="n">
+      <c r="R26" s="28" t="n">
         <v>47</v>
       </c>
-      <c r="S26" s="27" t="s">
+      <c r="S26" s="28" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="B27" s="24" t="s">
+      <c r="B27" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="C27" s="33" t="n">
+      <c r="C27" s="34" t="n">
         <v>44907.5104166667</v>
       </c>
-      <c r="D27" s="26" t="s">
+      <c r="D27" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="E27" s="26" t="n">
+      <c r="E27" s="27" t="n">
         <v>2022</v>
       </c>
-      <c r="F27" s="26" t="n">
+      <c r="F27" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="G27" s="26" t="n">
+      <c r="G27" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="H27" s="26" t="n">
+      <c r="H27" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="I27" s="26" t="s">
+      <c r="I27" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="J27" s="26" t="s">
+      <c r="J27" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="K27" s="27" t="s">
+      <c r="K27" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="L27" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="M27" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="N27" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="O27" s="27" t="n">
+      <c r="L27" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="M27" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="N27" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="O27" s="28" t="n">
         <v>509</v>
       </c>
-      <c r="P27" s="27" t="n">
+      <c r="P27" s="28" t="n">
         <v>58</v>
       </c>
-      <c r="Q27" s="27" t="n">
+      <c r="Q27" s="28" t="n">
         <v>486</v>
       </c>
-      <c r="R27" s="27" t="n">
+      <c r="R27" s="28" t="n">
         <v>47</v>
       </c>
-      <c r="S27" s="27" t="s">
+      <c r="S27" s="28" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="C28" s="33" t="n">
+      <c r="C28" s="34" t="n">
         <v>44907.5173611111</v>
       </c>
-      <c r="D28" s="26" t="s">
+      <c r="D28" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="E28" s="26" t="n">
+      <c r="E28" s="27" t="n">
         <v>2022</v>
       </c>
-      <c r="F28" s="26" t="n">
+      <c r="F28" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="G28" s="26" t="n">
+      <c r="G28" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="H28" s="26" t="n">
+      <c r="H28" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="I28" s="26" t="s">
+      <c r="I28" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="J28" s="26" t="s">
+      <c r="J28" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="K28" s="27" t="s">
+      <c r="K28" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="L28" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="M28" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="N28" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="O28" s="27" t="n">
+      <c r="L28" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="M28" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="N28" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="O28" s="28" t="n">
         <v>509</v>
       </c>
-      <c r="P28" s="27" t="n">
+      <c r="P28" s="28" t="n">
         <v>58</v>
       </c>
-      <c r="Q28" s="27" t="n">
+      <c r="Q28" s="28" t="n">
         <v>486</v>
       </c>
-      <c r="R28" s="27" t="n">
+      <c r="R28" s="28" t="n">
         <v>47</v>
       </c>
-      <c r="S28" s="27" t="s">
+      <c r="S28" s="28" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="23" t="s">
+      <c r="A29" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="C29" s="33" t="n">
+      <c r="C29" s="34" t="n">
         <v>44243.5013888889</v>
       </c>
-      <c r="D29" s="26" t="s">
+      <c r="D29" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="E29" s="26" t="n">
+      <c r="E29" s="27" t="n">
         <v>2021</v>
       </c>
-      <c r="F29" s="26" t="n">
+      <c r="F29" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="G29" s="26" t="n">
+      <c r="G29" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="H29" s="26" t="n">
+      <c r="H29" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="I29" s="26" t="s">
+      <c r="I29" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="J29" s="26" t="s">
+      <c r="J29" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="K29" s="27" t="s">
+      <c r="K29" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="L29" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="M29" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="N29" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="O29" s="27" t="n">
+      <c r="L29" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="M29" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="N29" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="O29" s="28" t="n">
         <v>384</v>
       </c>
-      <c r="P29" s="27" t="n">
+      <c r="P29" s="28" t="n">
         <v>69</v>
       </c>
-      <c r="Q29" s="27" t="n">
+      <c r="Q29" s="28" t="n">
         <v>367</v>
       </c>
-      <c r="R29" s="27" t="n">
+      <c r="R29" s="28" t="n">
         <v>60</v>
       </c>
-      <c r="S29" s="27" t="s">
+      <c r="S29" s="28" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="C30" s="33" t="n">
+      <c r="C30" s="34" t="n">
         <v>44243.5090277778</v>
       </c>
-      <c r="D30" s="26" t="s">
+      <c r="D30" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="E30" s="26" t="n">
+      <c r="E30" s="27" t="n">
         <v>2021</v>
       </c>
-      <c r="F30" s="26" t="n">
+      <c r="F30" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="G30" s="26" t="n">
+      <c r="G30" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="H30" s="26" t="n">
+      <c r="H30" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="I30" s="26" t="s">
+      <c r="I30" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="J30" s="26" t="s">
+      <c r="J30" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="K30" s="27" t="s">
+      <c r="K30" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="L30" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="M30" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="N30" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="O30" s="27" t="n">
+      <c r="L30" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="M30" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="N30" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="O30" s="28" t="n">
         <v>384</v>
       </c>
-      <c r="P30" s="27" t="n">
+      <c r="P30" s="28" t="n">
         <v>69</v>
       </c>
-      <c r="Q30" s="27" t="n">
+      <c r="Q30" s="28" t="n">
         <v>367</v>
       </c>
-      <c r="R30" s="27" t="n">
+      <c r="R30" s="28" t="n">
         <v>60</v>
       </c>
-      <c r="S30" s="27" t="s">
+      <c r="S30" s="28" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="B31" s="24" t="s">
+      <c r="B31" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="C31" s="33" t="n">
+      <c r="C31" s="34" t="n">
         <v>44243.5166666667</v>
       </c>
-      <c r="D31" s="26" t="s">
+      <c r="D31" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="E31" s="26" t="n">
+      <c r="E31" s="27" t="n">
         <v>2021</v>
       </c>
-      <c r="F31" s="26" t="n">
+      <c r="F31" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="G31" s="26" t="n">
+      <c r="G31" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="H31" s="26" t="n">
+      <c r="H31" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="I31" s="26" t="s">
+      <c r="I31" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="J31" s="26" t="s">
+      <c r="J31" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="K31" s="27" t="s">
+      <c r="K31" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="L31" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="M31" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="N31" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="O31" s="27" t="n">
+      <c r="L31" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="M31" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="N31" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="O31" s="28" t="n">
         <v>384</v>
       </c>
-      <c r="P31" s="27" t="n">
+      <c r="P31" s="28" t="n">
         <v>69</v>
       </c>
-      <c r="Q31" s="27" t="n">
+      <c r="Q31" s="28" t="n">
         <v>367</v>
       </c>
-      <c r="R31" s="27" t="n">
+      <c r="R31" s="28" t="n">
         <v>60</v>
       </c>
-      <c r="S31" s="27" t="s">
+      <c r="S31" s="28" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="23" t="s">
+      <c r="A32" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="B32" s="24" t="s">
+      <c r="B32" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="C32" s="33" t="n">
+      <c r="C32" s="34" t="n">
         <v>44273.5034722222</v>
       </c>
-      <c r="D32" s="26" t="s">
+      <c r="D32" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="E32" s="26" t="n">
+      <c r="E32" s="27" t="n">
         <v>2021</v>
       </c>
-      <c r="F32" s="26" t="n">
+      <c r="F32" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="G32" s="26" t="n">
+      <c r="G32" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="H32" s="26" t="n">
+      <c r="H32" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="I32" s="26" t="s">
+      <c r="I32" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="J32" s="26" t="s">
+      <c r="J32" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="K32" s="27" t="s">
+      <c r="K32" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="L32" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="M32" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="N32" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="O32" s="27" t="n">
+      <c r="L32" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="M32" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="N32" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="O32" s="28" t="n">
         <v>697</v>
       </c>
-      <c r="P32" s="27" t="n">
+      <c r="P32" s="28" t="n">
         <v>88</v>
       </c>
-      <c r="Q32" s="27" t="n">
+      <c r="Q32" s="28" t="n">
         <v>656</v>
       </c>
-      <c r="R32" s="27" t="n">
+      <c r="R32" s="28" t="n">
         <v>72</v>
       </c>
-      <c r="S32" s="27" t="s">
+      <c r="S32" s="28" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="23" t="s">
+      <c r="A33" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="B33" s="24" t="s">
+      <c r="B33" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="C33" s="33" t="n">
+      <c r="C33" s="34" t="n">
         <v>44273.5111111111</v>
       </c>
-      <c r="D33" s="26" t="s">
+      <c r="D33" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="E33" s="26" t="n">
+      <c r="E33" s="27" t="n">
         <v>2021</v>
       </c>
-      <c r="F33" s="26" t="n">
+      <c r="F33" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="G33" s="26" t="n">
+      <c r="G33" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="H33" s="26" t="n">
+      <c r="H33" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="I33" s="26" t="s">
+      <c r="I33" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="J33" s="26" t="s">
+      <c r="J33" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="K33" s="27" t="s">
+      <c r="K33" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="L33" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="M33" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="N33" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="O33" s="27" t="n">
+      <c r="L33" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="M33" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="N33" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="O33" s="28" t="n">
         <v>697</v>
       </c>
-      <c r="P33" s="27" t="n">
+      <c r="P33" s="28" t="n">
         <v>88</v>
       </c>
-      <c r="Q33" s="27" t="n">
+      <c r="Q33" s="28" t="n">
         <v>656</v>
       </c>
-      <c r="R33" s="27" t="n">
+      <c r="R33" s="28" t="n">
         <v>72</v>
       </c>
-      <c r="S33" s="27" t="s">
+      <c r="S33" s="28" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="23" t="s">
+      <c r="A34" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="B34" s="24" t="s">
+      <c r="B34" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="C34" s="33" t="n">
+      <c r="C34" s="34" t="n">
         <v>44273.51875</v>
       </c>
-      <c r="D34" s="26" t="s">
+      <c r="D34" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="E34" s="26" t="n">
+      <c r="E34" s="27" t="n">
         <v>2021</v>
       </c>
-      <c r="F34" s="26" t="n">
+      <c r="F34" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="G34" s="26" t="n">
+      <c r="G34" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="H34" s="26" t="n">
+      <c r="H34" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="I34" s="26" t="s">
+      <c r="I34" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="J34" s="26" t="s">
+      <c r="J34" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="K34" s="27" t="s">
+      <c r="K34" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="L34" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="M34" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="N34" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="O34" s="27" t="n">
+      <c r="L34" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="M34" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="N34" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="O34" s="28" t="n">
         <v>697</v>
       </c>
-      <c r="P34" s="27" t="n">
+      <c r="P34" s="28" t="n">
         <v>88</v>
       </c>
-      <c r="Q34" s="27" t="n">
+      <c r="Q34" s="28" t="n">
         <v>656</v>
       </c>
-      <c r="R34" s="27" t="n">
+      <c r="R34" s="28" t="n">
         <v>72</v>
       </c>
-      <c r="S34" s="27" t="s">
+      <c r="S34" s="28" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="23" t="s">
+      <c r="A35" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="B35" s="24" t="s">
+      <c r="B35" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="C35" s="33" t="n">
+      <c r="C35" s="34" t="n">
         <v>44300.5034722222</v>
       </c>
-      <c r="D35" s="26" t="s">
+      <c r="D35" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="E35" s="26" t="n">
+      <c r="E35" s="27" t="n">
         <v>2021</v>
       </c>
-      <c r="F35" s="26" t="n">
+      <c r="F35" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="G35" s="26" t="n">
+      <c r="G35" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="H35" s="26" t="n">
+      <c r="H35" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="I35" s="26" t="s">
+      <c r="I35" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="J35" s="26" t="s">
+      <c r="J35" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="K35" s="27" t="s">
+      <c r="K35" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="L35" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="M35" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="N35" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="O35" s="27" t="n">
+      <c r="L35" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="M35" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="N35" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="O35" s="28" t="n">
         <v>1794</v>
       </c>
-      <c r="P35" s="27" t="n">
+      <c r="P35" s="28" t="n">
         <v>194</v>
       </c>
-      <c r="Q35" s="27" t="n">
+      <c r="Q35" s="28" t="n">
         <v>1500</v>
       </c>
-      <c r="R35" s="27" t="n">
+      <c r="R35" s="28" t="n">
         <v>146</v>
       </c>
-      <c r="S35" s="27" t="s">
+      <c r="S35" s="28" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="23" t="s">
+      <c r="A36" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="B36" s="24" t="s">
+      <c r="B36" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="C36" s="33" t="n">
+      <c r="C36" s="34" t="n">
         <v>44300.5111111111</v>
       </c>
-      <c r="D36" s="26" t="s">
+      <c r="D36" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="E36" s="26" t="n">
+      <c r="E36" s="27" t="n">
         <v>2021</v>
       </c>
-      <c r="F36" s="26" t="n">
+      <c r="F36" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="G36" s="26" t="n">
+      <c r="G36" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="H36" s="26" t="n">
+      <c r="H36" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="I36" s="26" t="s">
+      <c r="I36" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="J36" s="26" t="s">
+      <c r="J36" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="K36" s="27" t="s">
+      <c r="K36" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="L36" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="M36" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="N36" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="O36" s="27" t="n">
+      <c r="L36" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="M36" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="N36" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="O36" s="28" t="n">
         <v>1794</v>
       </c>
-      <c r="P36" s="27" t="n">
+      <c r="P36" s="28" t="n">
         <v>194</v>
       </c>
-      <c r="Q36" s="27" t="n">
+      <c r="Q36" s="28" t="n">
         <v>1500</v>
       </c>
-      <c r="R36" s="27" t="n">
+      <c r="R36" s="28" t="n">
         <v>146</v>
       </c>
-      <c r="S36" s="27" t="s">
+      <c r="S36" s="28" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="23" t="s">
+      <c r="A37" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="B37" s="24" t="s">
+      <c r="B37" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="C37" s="33" t="n">
+      <c r="C37" s="34" t="n">
         <v>44300.51875</v>
       </c>
-      <c r="D37" s="26" t="s">
+      <c r="D37" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="E37" s="26" t="n">
+      <c r="E37" s="27" t="n">
         <v>2021</v>
       </c>
-      <c r="F37" s="26" t="n">
+      <c r="F37" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="G37" s="26" t="n">
+      <c r="G37" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="H37" s="26" t="n">
+      <c r="H37" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="I37" s="26" t="s">
+      <c r="I37" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="J37" s="26" t="s">
+      <c r="J37" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="K37" s="27" t="s">
+      <c r="K37" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="L37" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="M37" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="N37" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="O37" s="27" t="n">
+      <c r="L37" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="M37" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="N37" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="O37" s="28" t="n">
         <v>1794</v>
       </c>
-      <c r="P37" s="27" t="n">
+      <c r="P37" s="28" t="n">
         <v>194</v>
       </c>
-      <c r="Q37" s="27" t="n">
+      <c r="Q37" s="28" t="n">
         <v>1500</v>
       </c>
-      <c r="R37" s="27" t="n">
+      <c r="R37" s="28" t="n">
         <v>146</v>
       </c>
-      <c r="S37" s="27" t="s">
+      <c r="S37" s="28" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="23" t="s">
+      <c r="A38" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="B38" s="24" t="s">
+      <c r="B38" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="C38" s="33" t="n">
+      <c r="C38" s="34" t="n">
         <v>44245.5041666667</v>
       </c>
-      <c r="D38" s="26" t="s">
+      <c r="D38" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="E38" s="26" t="n">
+      <c r="E38" s="27" t="n">
         <v>2021</v>
       </c>
-      <c r="F38" s="26" t="n">
+      <c r="F38" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="G38" s="26" t="n">
+      <c r="G38" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="H38" s="26" t="n">
+      <c r="H38" s="27" t="n">
         <v>5</v>
       </c>
-      <c r="I38" s="26" t="s">
+      <c r="I38" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="J38" s="26" t="s">
+      <c r="J38" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="K38" s="27" t="s">
+      <c r="K38" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="L38" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="M38" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="N38" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="O38" s="27" t="n">
+      <c r="L38" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="M38" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="N38" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="O38" s="28" t="n">
         <v>352</v>
       </c>
-      <c r="P38" s="27" t="n">
+      <c r="P38" s="28" t="n">
         <v>50</v>
       </c>
-      <c r="Q38" s="27" t="n">
+      <c r="Q38" s="28" t="n">
         <v>347</v>
       </c>
-      <c r="R38" s="27" t="n">
+      <c r="R38" s="28" t="n">
         <v>46</v>
       </c>
-      <c r="S38" s="27" t="s">
+      <c r="S38" s="28" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="23" t="s">
+      <c r="A39" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="B39" s="24" t="s">
+      <c r="B39" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="C39" s="33" t="n">
+      <c r="C39" s="34" t="n">
         <v>44245.5118055556</v>
       </c>
-      <c r="D39" s="26" t="s">
+      <c r="D39" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="E39" s="26" t="n">
+      <c r="E39" s="27" t="n">
         <v>2021</v>
       </c>
-      <c r="F39" s="26" t="n">
+      <c r="F39" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="G39" s="26" t="n">
+      <c r="G39" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="H39" s="26" t="n">
+      <c r="H39" s="27" t="n">
         <v>5</v>
       </c>
-      <c r="I39" s="26" t="s">
+      <c r="I39" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="J39" s="26" t="s">
+      <c r="J39" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="K39" s="27" t="s">
+      <c r="K39" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="L39" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="M39" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="N39" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="O39" s="27" t="n">
+      <c r="L39" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="M39" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="N39" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="O39" s="28" t="n">
         <v>352</v>
       </c>
-      <c r="P39" s="27" t="n">
+      <c r="P39" s="28" t="n">
         <v>50</v>
       </c>
-      <c r="Q39" s="27" t="n">
+      <c r="Q39" s="28" t="n">
         <v>347</v>
       </c>
-      <c r="R39" s="27" t="n">
+      <c r="R39" s="28" t="n">
         <v>46</v>
       </c>
-      <c r="S39" s="27" t="s">
+      <c r="S39" s="28" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="23" t="s">
+      <c r="A40" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="B40" s="24" t="s">
+      <c r="B40" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="C40" s="33" t="n">
+      <c r="C40" s="34" t="n">
         <v>44245.5194444444</v>
       </c>
-      <c r="D40" s="26" t="s">
+      <c r="D40" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="E40" s="26" t="n">
+      <c r="E40" s="27" t="n">
         <v>2021</v>
       </c>
-      <c r="F40" s="26" t="n">
+      <c r="F40" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="G40" s="26" t="n">
+      <c r="G40" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="H40" s="26" t="n">
+      <c r="H40" s="27" t="n">
         <v>5</v>
       </c>
-      <c r="I40" s="26" t="s">
+      <c r="I40" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="J40" s="26" t="s">
+      <c r="J40" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="K40" s="27" t="s">
+      <c r="K40" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="L40" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="M40" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="N40" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="O40" s="27" t="n">
+      <c r="L40" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="M40" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="N40" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="O40" s="28" t="n">
         <v>352</v>
       </c>
-      <c r="P40" s="27" t="n">
+      <c r="P40" s="28" t="n">
         <v>50</v>
       </c>
-      <c r="Q40" s="27" t="n">
+      <c r="Q40" s="28" t="n">
         <v>347</v>
       </c>
-      <c r="R40" s="27" t="n">
+      <c r="R40" s="28" t="n">
         <v>46</v>
       </c>
-      <c r="S40" s="27" t="s">
+      <c r="S40" s="28" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="23" t="s">
+      <c r="A41" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="B41" s="24" t="s">
+      <c r="B41" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="C41" s="33" t="n">
+      <c r="C41" s="34" t="n">
         <v>44271.5027777778</v>
       </c>
-      <c r="D41" s="26" t="s">
+      <c r="D41" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="E41" s="26" t="n">
+      <c r="E41" s="27" t="n">
         <v>2021</v>
       </c>
-      <c r="F41" s="26" t="n">
+      <c r="F41" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="G41" s="26" t="n">
+      <c r="G41" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="H41" s="26" t="n">
+      <c r="H41" s="27" t="n">
         <v>5</v>
       </c>
-      <c r="I41" s="26" t="s">
+      <c r="I41" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="J41" s="26" t="s">
+      <c r="J41" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="K41" s="27" t="s">
+      <c r="K41" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="L41" s="27" t="s">
+      <c r="L41" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="M41" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="N41" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="O41" s="27" t="n">
+      <c r="M41" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="N41" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="O41" s="28" t="n">
         <v>497</v>
       </c>
-      <c r="P41" s="27" t="n">
+      <c r="P41" s="28" t="n">
         <v>45</v>
       </c>
-      <c r="Q41" s="27" t="n">
+      <c r="Q41" s="28" t="n">
         <v>483</v>
       </c>
-      <c r="R41" s="27" t="n">
+      <c r="R41" s="28" t="n">
         <v>42</v>
       </c>
-      <c r="S41" s="27" t="s">
+      <c r="S41" s="28" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="23" t="s">
+      <c r="A42" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="B42" s="24" t="s">
+      <c r="B42" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="C42" s="33" t="n">
+      <c r="C42" s="34" t="n">
         <v>44271.5104166667</v>
       </c>
-      <c r="D42" s="26" t="s">
+      <c r="D42" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="E42" s="26" t="n">
+      <c r="E42" s="27" t="n">
         <v>2021</v>
       </c>
-      <c r="F42" s="26" t="n">
+      <c r="F42" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="G42" s="26" t="n">
+      <c r="G42" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="H42" s="26" t="n">
+      <c r="H42" s="27" t="n">
         <v>5</v>
       </c>
-      <c r="I42" s="26" t="s">
+      <c r="I42" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="J42" s="26" t="s">
+      <c r="J42" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="K42" s="27" t="s">
+      <c r="K42" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="L42" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="M42" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="N42" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="O42" s="27" t="n">
+      <c r="L42" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="M42" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="N42" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="O42" s="28" t="n">
         <v>497</v>
       </c>
-      <c r="P42" s="27" t="n">
+      <c r="P42" s="28" t="n">
         <v>45</v>
       </c>
-      <c r="Q42" s="27" t="n">
+      <c r="Q42" s="28" t="n">
         <v>483</v>
       </c>
-      <c r="R42" s="27" t="n">
+      <c r="R42" s="28" t="n">
         <v>42</v>
       </c>
-      <c r="S42" s="27" t="s">
+      <c r="S42" s="28" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="23" t="s">
+      <c r="A43" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="B43" s="24" t="s">
+      <c r="B43" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="C43" s="33" t="n">
+      <c r="C43" s="34" t="n">
         <v>44271.5180555556</v>
       </c>
-      <c r="D43" s="26" t="s">
+      <c r="D43" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="E43" s="26" t="n">
+      <c r="E43" s="27" t="n">
         <v>2021</v>
       </c>
-      <c r="F43" s="26" t="n">
+      <c r="F43" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="G43" s="26" t="n">
+      <c r="G43" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="H43" s="26" t="n">
+      <c r="H43" s="27" t="n">
         <v>5</v>
       </c>
-      <c r="I43" s="26" t="s">
+      <c r="I43" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="J43" s="26" t="s">
+      <c r="J43" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="K43" s="27" t="s">
+      <c r="K43" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="L43" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="M43" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="N43" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="O43" s="27" t="n">
+      <c r="L43" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="M43" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="N43" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="O43" s="28" t="n">
         <v>497</v>
       </c>
-      <c r="P43" s="27" t="n">
+      <c r="P43" s="28" t="n">
         <v>45</v>
       </c>
-      <c r="Q43" s="27" t="n">
+      <c r="Q43" s="28" t="n">
         <v>483</v>
       </c>
-      <c r="R43" s="27" t="n">
+      <c r="R43" s="28" t="n">
         <v>42</v>
       </c>
-      <c r="S43" s="27" t="s">
+      <c r="S43" s="28" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="23" t="s">
+      <c r="A44" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="C44" s="33" t="n">
+      <c r="C44" s="34" t="n">
         <v>44305.5027777778</v>
       </c>
-      <c r="D44" s="26" t="s">
+      <c r="D44" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="E44" s="26" t="n">
+      <c r="E44" s="27" t="n">
         <v>2021</v>
       </c>
-      <c r="F44" s="26" t="n">
+      <c r="F44" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="G44" s="26" t="n">
+      <c r="G44" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="H44" s="26" t="n">
+      <c r="H44" s="27" t="n">
         <v>5</v>
       </c>
-      <c r="I44" s="26" t="s">
+      <c r="I44" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="J44" s="26" t="s">
+      <c r="J44" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="K44" s="27" t="s">
+      <c r="K44" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="L44" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="M44" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="N44" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="O44" s="27" t="n">
+      <c r="L44" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="M44" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="N44" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="O44" s="28" t="n">
         <v>1178</v>
       </c>
-      <c r="P44" s="27" t="n">
+      <c r="P44" s="28" t="n">
         <v>100</v>
       </c>
-      <c r="Q44" s="27" t="n">
+      <c r="Q44" s="28" t="n">
         <v>1092</v>
       </c>
-      <c r="R44" s="27" t="n">
+      <c r="R44" s="28" t="n">
         <v>90</v>
       </c>
-      <c r="S44" s="27" t="s">
+      <c r="S44" s="28" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="23" t="s">
+      <c r="A45" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="B45" s="24" t="s">
+      <c r="B45" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="C45" s="33" t="n">
+      <c r="C45" s="34" t="n">
         <v>44305.5104166667</v>
       </c>
-      <c r="D45" s="26" t="s">
+      <c r="D45" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="E45" s="26" t="n">
+      <c r="E45" s="27" t="n">
         <v>2021</v>
       </c>
-      <c r="F45" s="26" t="n">
+      <c r="F45" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="G45" s="26" t="n">
+      <c r="G45" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="H45" s="26" t="n">
+      <c r="H45" s="27" t="n">
         <v>5</v>
       </c>
-      <c r="I45" s="26" t="s">
+      <c r="I45" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="J45" s="26" t="s">
+      <c r="J45" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="K45" s="27" t="s">
+      <c r="K45" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="L45" s="27" t="s">
+      <c r="L45" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="M45" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="N45" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="O45" s="27" t="n">
+      <c r="M45" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="N45" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="O45" s="28" t="n">
         <v>1178</v>
       </c>
-      <c r="P45" s="27" t="n">
+      <c r="P45" s="28" t="n">
         <v>100</v>
       </c>
-      <c r="Q45" s="27" t="n">
+      <c r="Q45" s="28" t="n">
         <v>1092</v>
       </c>
-      <c r="R45" s="27" t="n">
+      <c r="R45" s="28" t="n">
         <v>90</v>
       </c>
-      <c r="S45" s="27" t="s">
+      <c r="S45" s="28" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="23" t="s">
+      <c r="A46" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="B46" s="24" t="s">
+      <c r="B46" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="C46" s="33" t="n">
+      <c r="C46" s="34" t="n">
         <v>44305.5180555556</v>
       </c>
-      <c r="D46" s="26" t="s">
+      <c r="D46" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="E46" s="26" t="n">
+      <c r="E46" s="27" t="n">
         <v>2021</v>
       </c>
-      <c r="F46" s="26" t="n">
+      <c r="F46" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="G46" s="26" t="n">
+      <c r="G46" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="H46" s="26" t="n">
+      <c r="H46" s="27" t="n">
         <v>5</v>
       </c>
-      <c r="I46" s="26" t="s">
+      <c r="I46" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="J46" s="26" t="s">
+      <c r="J46" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="K46" s="27" t="s">
+      <c r="K46" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="L46" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="M46" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="N46" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="O46" s="27" t="n">
+      <c r="L46" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="M46" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="N46" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="O46" s="28" t="n">
         <v>1178</v>
       </c>
-      <c r="P46" s="27" t="n">
+      <c r="P46" s="28" t="n">
         <v>100</v>
       </c>
-      <c r="Q46" s="27" t="n">
+      <c r="Q46" s="28" t="n">
         <v>1092</v>
       </c>
-      <c r="R46" s="27" t="n">
+      <c r="R46" s="28" t="n">
         <v>90</v>
       </c>
-      <c r="S46" s="27" t="s">
+      <c r="S46" s="28" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="23" t="s">
+      <c r="A47" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="B47" s="24" t="s">
+      <c r="B47" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="C47" s="33" t="n">
+      <c r="C47" s="34" t="n">
         <v>44243.5055555556</v>
       </c>
-      <c r="D47" s="26" t="s">
+      <c r="D47" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="E47" s="26" t="n">
+      <c r="E47" s="27" t="n">
         <v>2021</v>
       </c>
-      <c r="F47" s="26" t="n">
+      <c r="F47" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="G47" s="26" t="n">
+      <c r="G47" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="H47" s="26" t="n">
+      <c r="H47" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="I47" s="26" t="s">
+      <c r="I47" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="J47" s="26" t="s">
+      <c r="J47" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="K47" s="27" t="s">
+      <c r="K47" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="L47" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="M47" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="N47" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="O47" s="27" t="n">
+      <c r="L47" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="M47" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="N47" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="O47" s="28" t="n">
         <v>387</v>
       </c>
-      <c r="P47" s="27" t="n">
+      <c r="P47" s="28" t="n">
         <v>65</v>
       </c>
-      <c r="Q47" s="27" t="n">
+      <c r="Q47" s="28" t="n">
         <v>369</v>
       </c>
-      <c r="R47" s="27" t="n">
+      <c r="R47" s="28" t="n">
         <v>54</v>
       </c>
-      <c r="S47" s="27" t="s">
+      <c r="S47" s="28" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="23" t="s">
+      <c r="A48" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="B48" s="24" t="s">
+      <c r="B48" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="C48" s="33" t="n">
+      <c r="C48" s="34" t="n">
         <v>44243.5131944445</v>
       </c>
-      <c r="D48" s="26" t="s">
+      <c r="D48" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="E48" s="26" t="n">
+      <c r="E48" s="27" t="n">
         <v>2021</v>
       </c>
-      <c r="F48" s="26" t="n">
+      <c r="F48" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="G48" s="26" t="n">
+      <c r="G48" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="H48" s="26" t="n">
+      <c r="H48" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="I48" s="26" t="s">
+      <c r="I48" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="J48" s="26" t="s">
+      <c r="J48" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="K48" s="27" t="s">
+      <c r="K48" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="L48" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="M48" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="N48" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="O48" s="27" t="n">
+      <c r="L48" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="M48" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="N48" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="O48" s="28" t="n">
         <v>387</v>
       </c>
-      <c r="P48" s="27" t="n">
+      <c r="P48" s="28" t="n">
         <v>65</v>
       </c>
-      <c r="Q48" s="27" t="n">
+      <c r="Q48" s="28" t="n">
         <v>369</v>
       </c>
-      <c r="R48" s="27" t="n">
+      <c r="R48" s="28" t="n">
         <v>54</v>
       </c>
-      <c r="S48" s="27" t="s">
+      <c r="S48" s="28" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="23" t="s">
+      <c r="A49" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="B49" s="24" t="s">
+      <c r="B49" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="C49" s="33" t="n">
+      <c r="C49" s="34" t="n">
         <v>44243.5208333333</v>
       </c>
-      <c r="D49" s="26" t="s">
+      <c r="D49" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="E49" s="26" t="n">
+      <c r="E49" s="27" t="n">
         <v>2021</v>
       </c>
-      <c r="F49" s="26" t="n">
+      <c r="F49" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="G49" s="26" t="n">
+      <c r="G49" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="H49" s="26" t="n">
+      <c r="H49" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="I49" s="26" t="s">
+      <c r="I49" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="J49" s="26" t="s">
+      <c r="J49" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="K49" s="27" t="s">
+      <c r="K49" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="L49" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="M49" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="N49" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="O49" s="27" t="n">
+      <c r="L49" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="M49" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="N49" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="O49" s="28" t="n">
         <v>387</v>
       </c>
-      <c r="P49" s="27" t="n">
+      <c r="P49" s="28" t="n">
         <v>65</v>
       </c>
-      <c r="Q49" s="27" t="n">
+      <c r="Q49" s="28" t="n">
         <v>369</v>
       </c>
-      <c r="R49" s="27" t="n">
+      <c r="R49" s="28" t="n">
         <v>54</v>
       </c>
-      <c r="S49" s="27" t="s">
+      <c r="S49" s="28" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="23" t="s">
+      <c r="A50" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="B50" s="24" t="s">
+      <c r="B50" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="C50" s="33" t="n">
+      <c r="C50" s="34" t="n">
         <v>44273.5</v>
       </c>
-      <c r="D50" s="26" t="s">
+      <c r="D50" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="E50" s="26" t="n">
+      <c r="E50" s="27" t="n">
         <v>2021</v>
       </c>
-      <c r="F50" s="26" t="n">
+      <c r="F50" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="G50" s="26" t="n">
+      <c r="G50" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="H50" s="26" t="n">
+      <c r="H50" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="I50" s="26" t="s">
+      <c r="I50" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="J50" s="26" t="s">
+      <c r="J50" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="K50" s="27" t="s">
+      <c r="K50" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="L50" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="M50" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="N50" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="O50" s="27" t="n">
+      <c r="L50" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="M50" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="N50" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="O50" s="28" t="n">
         <v>680</v>
       </c>
-      <c r="P50" s="27" t="n">
+      <c r="P50" s="28" t="n">
         <v>87</v>
       </c>
-      <c r="Q50" s="27" t="n">
+      <c r="Q50" s="28" t="n">
         <v>606</v>
       </c>
-      <c r="R50" s="27" t="n">
+      <c r="R50" s="28" t="n">
         <v>63</v>
       </c>
-      <c r="S50" s="27" t="s">
+      <c r="S50" s="28" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="23" t="s">
+      <c r="A51" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="B51" s="24" t="s">
+      <c r="B51" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="C51" s="33" t="n">
+      <c r="C51" s="34" t="n">
         <v>44273.5076388889</v>
       </c>
-      <c r="D51" s="26" t="s">
+      <c r="D51" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="E51" s="26" t="n">
+      <c r="E51" s="27" t="n">
         <v>2021</v>
       </c>
-      <c r="F51" s="26" t="n">
+      <c r="F51" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="G51" s="26" t="n">
+      <c r="G51" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="H51" s="26" t="n">
+      <c r="H51" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="I51" s="26" t="s">
+      <c r="I51" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="J51" s="26" t="s">
+      <c r="J51" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="K51" s="27" t="s">
+      <c r="K51" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="L51" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="M51" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="N51" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="O51" s="27" t="n">
+      <c r="L51" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="M51" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="N51" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="O51" s="28" t="n">
         <v>680</v>
       </c>
-      <c r="P51" s="27" t="n">
+      <c r="P51" s="28" t="n">
         <v>87</v>
       </c>
-      <c r="Q51" s="27" t="n">
+      <c r="Q51" s="28" t="n">
         <v>606</v>
       </c>
-      <c r="R51" s="27" t="n">
+      <c r="R51" s="28" t="n">
         <v>63</v>
       </c>
-      <c r="S51" s="27" t="s">
+      <c r="S51" s="28" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="23" t="s">
+      <c r="A52" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="B52" s="24" t="s">
+      <c r="B52" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="C52" s="33" t="n">
+      <c r="C52" s="34" t="n">
         <v>44273.5152777778</v>
       </c>
-      <c r="D52" s="26" t="s">
+      <c r="D52" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="E52" s="26" t="n">
+      <c r="E52" s="27" t="n">
         <v>2021</v>
       </c>
-      <c r="F52" s="26" t="n">
+      <c r="F52" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="G52" s="26" t="n">
+      <c r="G52" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="H52" s="26" t="n">
+      <c r="H52" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="I52" s="26" t="s">
+      <c r="I52" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="J52" s="26" t="s">
+      <c r="J52" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="K52" s="27" t="s">
+      <c r="K52" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="L52" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="M52" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="N52" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="O52" s="27" t="n">
+      <c r="L52" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="M52" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="N52" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="O52" s="28" t="n">
         <v>680</v>
       </c>
-      <c r="P52" s="27" t="n">
+      <c r="P52" s="28" t="n">
         <v>87</v>
       </c>
-      <c r="Q52" s="27" t="n">
+      <c r="Q52" s="28" t="n">
         <v>606</v>
       </c>
-      <c r="R52" s="27" t="n">
+      <c r="R52" s="28" t="n">
         <v>63</v>
       </c>
-      <c r="S52" s="27" t="s">
+      <c r="S52" s="28" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="23" t="s">
+      <c r="A53" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="B53" s="24" t="s">
+      <c r="B53" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="C53" s="33" t="n">
+      <c r="C53" s="34" t="n">
         <v>44299.5069444445</v>
       </c>
-      <c r="D53" s="26" t="s">
+      <c r="D53" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="E53" s="26" t="n">
+      <c r="E53" s="27" t="n">
         <v>2021</v>
       </c>
-      <c r="F53" s="26" t="n">
+      <c r="F53" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="G53" s="26" t="n">
+      <c r="G53" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="H53" s="26" t="n">
+      <c r="H53" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="I53" s="26" t="s">
+      <c r="I53" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="J53" s="26" t="s">
+      <c r="J53" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="K53" s="27" t="s">
+      <c r="K53" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="L53" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="M53" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="N53" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="O53" s="27" t="n">
+      <c r="L53" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="M53" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="N53" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="O53" s="28" t="n">
         <v>1258</v>
       </c>
-      <c r="P53" s="27" t="n">
+      <c r="P53" s="28" t="n">
         <v>103</v>
       </c>
-      <c r="Q53" s="27" t="n">
+      <c r="Q53" s="28" t="n">
         <v>1175</v>
       </c>
-      <c r="R53" s="27" t="n">
+      <c r="R53" s="28" t="n">
         <v>86</v>
       </c>
-      <c r="S53" s="27" t="s">
+      <c r="S53" s="28" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="23" t="s">
+      <c r="A54" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="B54" s="24" t="s">
+      <c r="B54" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="C54" s="33" t="n">
+      <c r="C54" s="34" t="n">
         <v>44299.5145833333</v>
       </c>
-      <c r="D54" s="26" t="s">
+      <c r="D54" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="E54" s="26" t="n">
+      <c r="E54" s="27" t="n">
         <v>2021</v>
       </c>
-      <c r="F54" s="26" t="n">
+      <c r="F54" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="G54" s="26" t="n">
+      <c r="G54" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="H54" s="26" t="n">
+      <c r="H54" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="I54" s="26" t="s">
+      <c r="I54" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="J54" s="26" t="s">
+      <c r="J54" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="K54" s="27" t="s">
+      <c r="K54" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="L54" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="M54" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="N54" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="O54" s="27" t="n">
+      <c r="L54" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="M54" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="N54" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="O54" s="28" t="n">
         <v>1258</v>
       </c>
-      <c r="P54" s="27" t="n">
+      <c r="P54" s="28" t="n">
         <v>103</v>
       </c>
-      <c r="Q54" s="27" t="n">
+      <c r="Q54" s="28" t="n">
         <v>1175</v>
       </c>
-      <c r="R54" s="27" t="n">
+      <c r="R54" s="28" t="n">
         <v>86</v>
       </c>
-      <c r="S54" s="27" t="s">
+      <c r="S54" s="28" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="23" t="s">
+      <c r="A55" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="B55" s="24" t="s">
+      <c r="B55" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="C55" s="33" t="n">
+      <c r="C55" s="34" t="n">
         <v>44299.5222222222</v>
       </c>
-      <c r="D55" s="26" t="s">
+      <c r="D55" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="E55" s="26" t="n">
+      <c r="E55" s="27" t="n">
         <v>2021</v>
       </c>
-      <c r="F55" s="26" t="n">
+      <c r="F55" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="G55" s="26" t="n">
+      <c r="G55" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="H55" s="26" t="n">
+      <c r="H55" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="I55" s="26" t="s">
+      <c r="I55" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="J55" s="26" t="s">
+      <c r="J55" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="K55" s="27" t="s">
+      <c r="K55" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="L55" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="M55" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="N55" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="O55" s="27" t="n">
+      <c r="L55" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="M55" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="N55" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="O55" s="28" t="n">
         <v>1258</v>
       </c>
-      <c r="P55" s="27" t="n">
+      <c r="P55" s="28" t="n">
         <v>103</v>
       </c>
-      <c r="Q55" s="27" t="n">
+      <c r="Q55" s="28" t="n">
         <v>1175</v>
       </c>
-      <c r="R55" s="27" t="n">
+      <c r="R55" s="28" t="n">
         <v>86</v>
       </c>
-      <c r="S55" s="27" t="s">
+      <c r="S55" s="28" t="s">
         <v>133</v>
       </c>
     </row>
@@ -7074,44 +7037,44 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="34" width="11.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="35" width="11.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="35" width="11.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="36" width="11.84"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1017" min="4" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="29" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="B2" s="35" t="n">
+      <c r="B2" s="36" t="n">
         <v>70</v>
       </c>
-      <c r="C2" s="35" t="n">
+      <c r="C2" s="36" t="n">
         <v>2000</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -7143,35 +7106,35 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="34" width="14.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="35" width="18.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="35" width="14.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="36" width="18.97"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1016" min="3" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="29" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="B2" s="35" t="n">
+      <c r="B2" s="36" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="26"/>
+      <c r="B4" s="27"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="26"/>
+      <c r="B5" s="27"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="26"/>
+      <c r="B6" s="27"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -7203,63 +7166,63 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="34" width="13.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="35" width="20.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="35" width="13.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="36" width="20.03"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1017" min="4" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="29" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="35" t="s">
         <v>146</v>
       </c>
-      <c r="B2" s="32" t="n">
+      <c r="B2" s="33" t="n">
         <v>44562.5</v>
       </c>
-      <c r="C2" s="32" t="n">
+      <c r="C2" s="33" t="n">
         <v>44926.5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="B3" s="32" t="n">
+      <c r="B3" s="33" t="n">
         <v>44881.5</v>
       </c>
-      <c r="C3" s="32" t="n">
+      <c r="C3" s="33" t="n">
         <v>44882.5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="B4" s="33" t="n">
+      <c r="B4" s="34" t="n">
         <v>44887.5</v>
       </c>
-      <c r="C4" s="32" t="n">
+      <c r="C4" s="33" t="n">
         <v>44888.5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="B5" s="33" t="n">
+      <c r="B5" s="34" t="n">
         <v>44907.5</v>
       </c>
-      <c r="C5" s="33" t="n">
+      <c r="C5" s="34" t="n">
         <v>44908.5</v>
       </c>
     </row>
@@ -7289,98 +7252,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="34" width="16.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="35" width="26.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="35" width="18.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="35" width="16.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="36" width="26.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="36" width="18.2"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1012" min="7" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="29" t="s">
         <v>152</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="29" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="B2" s="32" t="n">
+      <c r="B2" s="33" t="n">
         <v>44881.5</v>
       </c>
-      <c r="C2" s="32" t="n">
+      <c r="C2" s="33" t="n">
         <v>44882.5034722222</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="33" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="B3" s="32" t="n">
+      <c r="B3" s="33" t="n">
         <v>44887.5</v>
       </c>
-      <c r="C3" s="32" t="n">
+      <c r="C3" s="33" t="n">
         <v>44888.5034722222</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="33" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="B4" s="32" t="n">
+      <c r="B4" s="33" t="n">
         <v>44907.5</v>
       </c>
-      <c r="C4" s="32" t="n">
+      <c r="C4" s="33" t="n">
         <v>44908.5034722222</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" s="33" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -7418,24 +7381,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="37" width="10.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="38" width="14.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="39" width="17.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="39" width="15.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="38" width="10.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="39" width="14.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="40" width="17.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="40" width="15.45"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1013" min="5" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>159</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="41" t="s">
         <v>160</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="41" t="s">
         <v>153</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="41" t="s">
         <v>161</v>
       </c>
       <c r="E1" s="3"/>
@@ -8449,44 +8412,44 @@
       <c r="ALY1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="B2" s="38" t="n">
+      <c r="B2" s="39" t="n">
         <v>0</v>
       </c>
-      <c r="C2" s="39" t="n">
+      <c r="C2" s="40" t="n">
         <v>1000</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="40" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="38" t="s">
         <v>164</v>
       </c>
-      <c r="B3" s="38" t="n">
+      <c r="B3" s="39" t="n">
         <v>0</v>
       </c>
-      <c r="C3" s="39" t="n">
+      <c r="C3" s="40" t="n">
         <v>1000</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="40" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="38" t="s">
         <v>166</v>
       </c>
-      <c r="B4" s="38" t="n">
+      <c r="B4" s="39" t="n">
         <v>0</v>
       </c>
-      <c r="C4" s="39" t="n">
+      <c r="C4" s="40" t="n">
         <v>1000</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="40" t="s">
         <v>165</v>
       </c>
     </row>
@@ -8518,7 +8481,7 @@
     <tabColor rgb="FFB4C7DC"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -8526,28 +8489,23 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="41" width="15.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="42" width="15.63"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1012" min="2" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="42" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="42" t="s">
         <v>169</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="41" t="s">
-        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -8556,7 +8514,7 @@
       <formula1>Help!$A$2:$A$1048576</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A2:A1004" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A2:A1003" type="list">
       <formula1>ListDigesters!$A$2:$A$1048576</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/examples/campaigns/coral-reef-light/coral-reef-light.xlsx
+++ b/examples/campaigns/coral-reef-light/coral-reef-light.xlsx
@@ -615,7 +615,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="214">
   <si>
     <t xml:space="preserve">SoundScapeExplorer
 Version 12</t>
@@ -640,6 +640,12 @@
     <t xml:space="preserve">https://sound-scape-explorer.github.io/</t>
   </si>
   <si>
+    <t xml:space="preserve">Campaign user guide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://sound-scape-explorer.github.io/docs/modules/campaign/user-guide/</t>
+  </si>
+  <si>
     <t xml:space="preserve">setting</t>
   </si>
   <si>
@@ -686,6 +692,9 @@
   </si>
   <si>
     <t xml:space="preserve">timezone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pacific/Tahiti</t>
   </si>
   <si>
     <r>
@@ -1180,111 +1189,108 @@
     <t xml:space="preserve">no</t>
   </si>
   <si>
+    <t xml:space="preserve">digester</t>
+  </si>
+  <si>
+    <t xml:space="preserve">silhouette</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contingency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reducer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dimensions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">integrations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ranges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">umap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">autocluster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min_cluster_size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min_samples</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alpha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">epsilon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hdbscan-eom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hdbscan-leaf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">indicator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The VGGish neural network.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">leq_maad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Leq using maad library.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">med</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The temporal median.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ht</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The temporal entropy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The frequency entropy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aci</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The acoustic complexity index.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The acoustic diversity index.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The bioacoustics index.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ndsi</t>
   </si>
   <si>
-    <t xml:space="preserve">yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">digester</t>
-  </si>
-  <si>
-    <t xml:space="preserve">silhouette</t>
-  </si>
-  <si>
-    <t xml:space="preserve">contingency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reducer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dimensions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">integrations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ranges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">umap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">autocluster</t>
-  </si>
-  <si>
-    <t xml:space="preserve">min_cluster_size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">min_samples</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alpha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">epsilon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hdbscan-eom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hdbscan-leaf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">indicator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The VGGish neural network.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">leq_maad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Leq using maad library.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">med</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The temporal median.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ht</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The temporal entropy.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The frequency entropy.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aci</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The acoustic complexity index.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The acoustic diversity index.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The bioacoustics index.</t>
-  </si>
-  <si>
     <t xml:space="preserve">The normalized difference soundscape index.</t>
   </si>
   <si>
@@ -1333,13 +1339,7 @@
     <t xml:space="preserve">Contingency between two clusters.</t>
   </si>
   <si>
-    <t xml:space="preserve">vae</t>
-  </si>
-  <si>
     <t xml:space="preserve">pca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sparse_pca</t>
   </si>
   <si>
     <t xml:space="preserve">day</t>
@@ -1356,7 +1356,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1427,13 +1427,6 @@
       <i val="true"/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -1674,10 +1667,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1718,6 +1707,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1726,7 +1719,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1836,7 +1829,7 @@
     <tabColor rgb="FFDDDDDD"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMI12"/>
+  <dimension ref="A1:AMI13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -1911,6 +1904,14 @@
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
     </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:B5"/>
@@ -1918,6 +1919,7 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B11" r:id="rId1" display="https://sound-scape-explorer.github.io/"/>
+    <hyperlink ref="B13" r:id="rId2" display="https://sound-scape-explorer.github.io/docs/modules/campaign/user-guide/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1935,19 +1937,21 @@
     <tabColor rgb="FFB4C7DC"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="B2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="37" width="13.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="38" width="14.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="38" width="17.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="38" width="15.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="38" width="25.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="36" width="13.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="37" width="14.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="37" width="17.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="37" width="15.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="37" width="25.98"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1014" min="6" style="1" width="11.52"/>
   </cols>
   <sheetData>
@@ -1967,13 +1971,12 @@
       <c r="E1" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="F1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="B2" s="39" t="n">
+      <c r="B2" s="38" t="n">
         <v>2</v>
       </c>
       <c r="C2" s="43"/>
@@ -1981,10 +1984,10 @@
       <c r="E2" s="43"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="B3" s="38" t="n">
+      <c r="B3" s="37" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2016,23 +2019,21 @@
     <tabColor rgb="FFB4C7DC"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="B2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="37" width="16.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="38" width="16.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="39" width="17.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="39" width="15.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="39" width="25.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="36" width="16.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="37" width="16.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="38" width="17.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="38" width="15.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="38" width="25.98"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1014" min="6" style="1" width="11.52"/>
   </cols>
   <sheetData>
@@ -2052,39 +2053,38 @@
       <c r="E1" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="F1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="36" t="s">
         <v>175</v>
       </c>
-      <c r="B2" s="39" t="n">
+      <c r="B2" s="38" t="n">
         <v>15</v>
       </c>
-      <c r="C2" s="39" t="n">
+      <c r="C2" s="38" t="n">
         <v>15</v>
       </c>
-      <c r="D2" s="39" t="n">
+      <c r="D2" s="38" t="n">
         <v>1</v>
       </c>
-      <c r="E2" s="39" t="n">
+      <c r="E2" s="38" t="n">
         <v>0.1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="B3" s="38" t="n">
+      <c r="B3" s="37" t="n">
         <v>15</v>
       </c>
-      <c r="C3" s="39" t="n">
+      <c r="C3" s="38" t="n">
         <v>15</v>
       </c>
-      <c r="D3" s="39" t="n">
+      <c r="D3" s="38" t="n">
         <v>1</v>
       </c>
-      <c r="E3" s="39" t="n">
+      <c r="E3" s="38" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -2094,12 +2094,12 @@
       <formula1>ListAutoclusters!$A$2:$A$1048576</formula1>
       <formula2>0</formula2>
     </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A4:A1002" type="list">
+      <formula1>ListAutoclusters!$A$2:$A$1048576</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A2:A3" type="list">
       <formula1>ListReducers!$A$2:$A$1048576</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A4:A1002" type="list">
-      <formula1>ListAutoclusters!$A$2:$A$1048576</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -2147,7 +2147,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="44" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B2" s="48" t="s">
         <v>179</v>
@@ -2195,26 +2195,26 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="44" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="B8" s="49" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="44" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B9" s="49" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="44" t="s">
-        <v>158</v>
+        <v>194</v>
       </c>
       <c r="B10" s="49" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -2253,7 +2253,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="46" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B1" s="47" t="s">
         <v>178</v>
@@ -2261,50 +2261,50 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="44" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B2" s="48" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="44" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B3" s="48" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="44" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B4" s="48" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="44" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B5" s="48" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="44" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B6" s="48" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="44" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B7" s="48" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2312,7 +2312,7 @@
         <v>162</v>
       </c>
       <c r="B8" s="48" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2320,7 +2320,7 @@
         <v>163</v>
       </c>
       <c r="B9" s="48" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2343,7 +2343,7 @@
     <tabColor rgb="FFDDDDDD"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -2371,16 +2371,6 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="44" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="44" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="44" t="s">
         <v>211</v>
       </c>
     </row>
@@ -2463,12 +2453,12 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="46" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="44" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2501,11 +2491,9 @@
   <dimension ref="A1:AMJ10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="B2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2518,68 +2506,68 @@
   <sheetData>
     <row r="1" s="13" customFormat="true" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="12" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AMJ1" s="14"/>
     </row>
     <row r="2" s="13" customFormat="true" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="15" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AMJ2" s="14"/>
     </row>
     <row r="3" s="13" customFormat="true" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="15" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AMJ3" s="14"/>
     </row>
     <row r="4" s="13" customFormat="true" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="15" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B4" s="16" t="n">
         <v>44100</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AMJ4" s="14"/>
     </row>
     <row r="5" s="13" customFormat="true" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B5" s="18" t="n">
         <v>44197</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AMJ5" s="14"/>
     </row>
     <row r="6" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="19" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B6" s="20"/>
       <c r="C6" s="21" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
@@ -3605,47 +3593,49 @@
     </row>
     <row r="7" s="13" customFormat="true" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="22"/>
+        <v>23</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>24</v>
+      </c>
       <c r="C7" s="17" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AMJ7" s="14"/>
     </row>
     <row r="8" s="13" customFormat="true" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="19" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B8" s="22" t="n">
         <v>3</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AMJ8" s="14"/>
     </row>
     <row r="9" s="13" customFormat="true" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="19" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B9" s="22" t="n">
         <v>10</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AMJ9" s="14"/>
     </row>
     <row r="10" s="13" customFormat="true" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="19" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B10" s="22" t="n">
         <v>42000</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="AMJ10" s="14"/>
     </row>
@@ -3681,100 +3671,85 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="23" width="65.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="24" width="63.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="23" width="56.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="24" width="42.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="25" width="22.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="26" width="20.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="27" width="12.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="27" width="14.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="27" width="11.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="27" width="19.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="27" width="17.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="27" width="16.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="27" width="14.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="27" width="13.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="27" width="11.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="27" width="13.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="27" width="18.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="27" width="15.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="27" width="15.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="27" width="14.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="27" width="27.03"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="28" min="20" style="27" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="28" min="5" style="27" width="11.52"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1003" min="29" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="28" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E1" s="28" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F1" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" s="29" t="s">
-        <v>35</v>
+        <v>37</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>38</v>
       </c>
       <c r="H1" s="28" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I1" s="28" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J1" s="28" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K1" s="28" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L1" s="28" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="M1" s="28" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N1" s="28" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="O1" s="28" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="P1" s="28" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="Q1" s="28" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="R1" s="28" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="S1" s="28" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="32" t="n">
+      <c r="A2" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="31" t="n">
         <v>44881.5034722222</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E2" s="26" t="n">
         <v>2022</v>
@@ -3789,22 +3764,22 @@
         <v>5</v>
       </c>
       <c r="I2" s="26" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J2" s="26" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K2" s="27" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L2" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M2" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N2" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="O2" s="27" t="n">
         <v>465</v>
@@ -3819,21 +3794,21 @@
         <v>58</v>
       </c>
       <c r="S2" s="27" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="32" t="n">
+      <c r="A3" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="31" t="n">
         <v>44881.5104166667</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E3" s="26" t="n">
         <v>2022</v>
@@ -3848,22 +3823,22 @@
         <v>5</v>
       </c>
       <c r="I3" s="26" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J3" s="26" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K3" s="27" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L3" s="27" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M3" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N3" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="O3" s="27" t="n">
         <v>465</v>
@@ -3878,21 +3853,21 @@
         <v>58</v>
       </c>
       <c r="S3" s="27" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" s="32" t="n">
+      <c r="A4" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="31" t="n">
         <v>44881.5173611111</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E4" s="26" t="n">
         <v>2022</v>
@@ -3907,22 +3882,22 @@
         <v>5</v>
       </c>
       <c r="I4" s="26" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J4" s="26" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K4" s="27" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L4" s="27" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M4" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N4" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="O4" s="27" t="n">
         <v>465</v>
@@ -3937,21 +3912,21 @@
         <v>58</v>
       </c>
       <c r="S4" s="27" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="33" t="n">
+      <c r="A5" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="32" t="n">
         <v>44887.5</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E5" s="26" t="n">
         <v>2022</v>
@@ -3966,22 +3941,22 @@
         <v>5</v>
       </c>
       <c r="I5" s="26" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J5" s="26" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K5" s="27" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L5" s="27" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M5" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N5" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="O5" s="27" t="n">
         <v>465</v>
@@ -3996,21 +3971,21 @@
         <v>58</v>
       </c>
       <c r="S5" s="27" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="33" t="n">
+      <c r="A6" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="32" t="n">
         <v>44887.5069444444</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E6" s="26" t="n">
         <v>2022</v>
@@ -4025,22 +4000,22 @@
         <v>5</v>
       </c>
       <c r="I6" s="26" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J6" s="26" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K6" s="27" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L6" s="27" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M6" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N6" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="O6" s="27" t="n">
         <v>465</v>
@@ -4055,21 +4030,21 @@
         <v>58</v>
       </c>
       <c r="S6" s="27" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="23" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" s="33" t="n">
+        <v>64</v>
+      </c>
+      <c r="C7" s="32" t="n">
         <v>44887.5138888889</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E7" s="26" t="n">
         <v>2022</v>
@@ -4084,22 +4059,22 @@
         <v>5</v>
       </c>
       <c r="I7" s="26" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J7" s="26" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K7" s="27" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L7" s="27" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M7" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N7" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="O7" s="27" t="n">
         <v>465</v>
@@ -4114,21 +4089,21 @@
         <v>58</v>
       </c>
       <c r="S7" s="27" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="23" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" s="33" t="n">
+        <v>65</v>
+      </c>
+      <c r="C8" s="32" t="n">
         <v>44907.5034722222</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E8" s="26" t="n">
         <v>2022</v>
@@ -4143,22 +4118,22 @@
         <v>5</v>
       </c>
       <c r="I8" s="26" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J8" s="26" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K8" s="27" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L8" s="27" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M8" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N8" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="O8" s="27" t="n">
         <v>465</v>
@@ -4173,21 +4148,21 @@
         <v>58</v>
       </c>
       <c r="S8" s="27" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="23" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" s="33" t="n">
+        <v>67</v>
+      </c>
+      <c r="C9" s="32" t="n">
         <v>44907.5104166667</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E9" s="26" t="n">
         <v>2022</v>
@@ -4202,22 +4177,22 @@
         <v>5</v>
       </c>
       <c r="I9" s="26" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J9" s="26" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K9" s="27" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L9" s="27" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M9" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N9" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="O9" s="27" t="n">
         <v>465</v>
@@ -4232,21 +4207,21 @@
         <v>58</v>
       </c>
       <c r="S9" s="27" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="23" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="33" t="n">
+        <v>68</v>
+      </c>
+      <c r="C10" s="32" t="n">
         <v>44907.5173611111</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E10" s="26" t="n">
         <v>2022</v>
@@ -4261,22 +4236,22 @@
         <v>5</v>
       </c>
       <c r="I10" s="26" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J10" s="26" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K10" s="27" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L10" s="27" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M10" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N10" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="O10" s="27" t="n">
         <v>465</v>
@@ -4291,21 +4266,21 @@
         <v>58</v>
       </c>
       <c r="S10" s="27" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="23" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="33" t="n">
+        <v>69</v>
+      </c>
+      <c r="C11" s="32" t="n">
         <v>44881.5034722222</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E11" s="26" t="n">
         <v>2022</v>
@@ -4320,22 +4295,22 @@
         <v>2</v>
       </c>
       <c r="I11" s="26" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J11" s="26" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K11" s="27" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L11" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M11" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N11" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="O11" s="27" t="n">
         <v>378</v>
@@ -4350,21 +4325,21 @@
         <v>44</v>
       </c>
       <c r="S11" s="27" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="23" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="C12" s="33" t="n">
+        <v>74</v>
+      </c>
+      <c r="C12" s="32" t="n">
         <v>44881.5104166667</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E12" s="26" t="n">
         <v>2022</v>
@@ -4379,22 +4354,22 @@
         <v>2</v>
       </c>
       <c r="I12" s="26" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J12" s="26" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K12" s="27" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L12" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M12" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N12" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="O12" s="27" t="n">
         <v>378</v>
@@ -4409,21 +4384,21 @@
         <v>44</v>
       </c>
       <c r="S12" s="27" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="23" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13" s="33" t="n">
+        <v>75</v>
+      </c>
+      <c r="C13" s="32" t="n">
         <v>44881.5173611111</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E13" s="26" t="n">
         <v>2022</v>
@@ -4438,22 +4413,22 @@
         <v>2</v>
       </c>
       <c r="I13" s="26" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J13" s="26" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K13" s="27" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L13" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M13" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N13" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="O13" s="27" t="n">
         <v>378</v>
@@ -4468,21 +4443,21 @@
         <v>44</v>
       </c>
       <c r="S13" s="27" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="23" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="C14" s="33" t="n">
+        <v>76</v>
+      </c>
+      <c r="C14" s="32" t="n">
         <v>44887.5034722222</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E14" s="26" t="n">
         <v>2022</v>
@@ -4497,22 +4472,22 @@
         <v>2</v>
       </c>
       <c r="I14" s="26" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J14" s="26" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K14" s="27" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L14" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M14" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N14" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="O14" s="27" t="n">
         <v>378</v>
@@ -4527,21 +4502,21 @@
         <v>44</v>
       </c>
       <c r="S14" s="27" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="23" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" s="33" t="n">
+        <v>78</v>
+      </c>
+      <c r="C15" s="32" t="n">
         <v>44887.5104166667</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E15" s="26" t="n">
         <v>2022</v>
@@ -4556,22 +4531,22 @@
         <v>2</v>
       </c>
       <c r="I15" s="26" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J15" s="26" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K15" s="27" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L15" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M15" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N15" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="O15" s="27" t="n">
         <v>378</v>
@@ -4586,21 +4561,21 @@
         <v>44</v>
       </c>
       <c r="S15" s="27" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="23" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16" s="33" t="n">
+        <v>79</v>
+      </c>
+      <c r="C16" s="32" t="n">
         <v>44887.5173611111</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E16" s="26" t="n">
         <v>2022</v>
@@ -4615,22 +4590,22 @@
         <v>2</v>
       </c>
       <c r="I16" s="26" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J16" s="26" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K16" s="27" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L16" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M16" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N16" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="O16" s="27" t="n">
         <v>378</v>
@@ -4645,21 +4620,21 @@
         <v>44</v>
       </c>
       <c r="S16" s="27" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="23" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="C17" s="33" t="n">
+        <v>80</v>
+      </c>
+      <c r="C17" s="32" t="n">
         <v>44907.5</v>
       </c>
       <c r="D17" s="26" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E17" s="26" t="n">
         <v>2022</v>
@@ -4674,22 +4649,22 @@
         <v>2</v>
       </c>
       <c r="I17" s="26" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J17" s="26" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K17" s="27" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L17" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M17" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N17" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="O17" s="27" t="n">
         <v>378</v>
@@ -4704,21 +4679,21 @@
         <v>44</v>
       </c>
       <c r="S17" s="27" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="23" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="C18" s="33" t="n">
+        <v>82</v>
+      </c>
+      <c r="C18" s="32" t="n">
         <v>44907.5069444444</v>
       </c>
       <c r="D18" s="26" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E18" s="26" t="n">
         <v>2022</v>
@@ -4733,22 +4708,22 @@
         <v>2</v>
       </c>
       <c r="I18" s="26" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J18" s="26" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K18" s="27" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L18" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M18" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N18" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="O18" s="27" t="n">
         <v>378</v>
@@ -4763,21 +4738,21 @@
         <v>44</v>
       </c>
       <c r="S18" s="27" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="23" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="C19" s="33" t="n">
+        <v>83</v>
+      </c>
+      <c r="C19" s="32" t="n">
         <v>44907.5138888889</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E19" s="26" t="n">
         <v>2022</v>
@@ -4792,22 +4767,22 @@
         <v>2</v>
       </c>
       <c r="I19" s="26" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J19" s="26" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K19" s="27" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L19" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M19" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N19" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="O19" s="27" t="n">
         <v>378</v>
@@ -4822,21 +4797,21 @@
         <v>44</v>
       </c>
       <c r="S19" s="27" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="23" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="C20" s="33" t="n">
+        <v>84</v>
+      </c>
+      <c r="C20" s="32" t="n">
         <v>44881.5</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E20" s="26" t="n">
         <v>2022</v>
@@ -4851,22 +4826,22 @@
         <v>2</v>
       </c>
       <c r="I20" s="26" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J20" s="26" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K20" s="27" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L20" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M20" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N20" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="O20" s="27" t="n">
         <v>509</v>
@@ -4881,21 +4856,21 @@
         <v>47</v>
       </c>
       <c r="S20" s="27" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="23" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="C21" s="33" t="n">
+        <v>87</v>
+      </c>
+      <c r="C21" s="32" t="n">
         <v>44881.5069444444</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E21" s="26" t="n">
         <v>2022</v>
@@ -4910,22 +4885,22 @@
         <v>2</v>
       </c>
       <c r="I21" s="26" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J21" s="26" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K21" s="27" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L21" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M21" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N21" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="O21" s="27" t="n">
         <v>509</v>
@@ -4940,21 +4915,21 @@
         <v>47</v>
       </c>
       <c r="S21" s="27" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="32" t="n">
+        <v>44881.5138888889</v>
+      </c>
+      <c r="D22" s="26" t="s">
         <v>85</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="C22" s="33" t="n">
-        <v>44881.5138888889</v>
-      </c>
-      <c r="D22" s="26" t="s">
-        <v>82</v>
       </c>
       <c r="E22" s="26" t="n">
         <v>2022</v>
@@ -4969,22 +4944,22 @@
         <v>2</v>
       </c>
       <c r="I22" s="26" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J22" s="26" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K22" s="27" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L22" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M22" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N22" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="O22" s="27" t="n">
         <v>509</v>
@@ -4999,21 +4974,21 @@
         <v>47</v>
       </c>
       <c r="S22" s="27" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="23" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="C23" s="33" t="n">
+        <v>89</v>
+      </c>
+      <c r="C23" s="32" t="n">
         <v>44887.5034722222</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E23" s="26" t="n">
         <v>2022</v>
@@ -5028,22 +5003,22 @@
         <v>2</v>
       </c>
       <c r="I23" s="26" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J23" s="26" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K23" s="27" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L23" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M23" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N23" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="O23" s="27" t="n">
         <v>509</v>
@@ -5058,21 +5033,21 @@
         <v>47</v>
       </c>
       <c r="S23" s="27" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="23" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="C24" s="33" t="n">
+        <v>91</v>
+      </c>
+      <c r="C24" s="32" t="n">
         <v>44887.5104166667</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E24" s="26" t="n">
         <v>2022</v>
@@ -5087,22 +5062,22 @@
         <v>2</v>
       </c>
       <c r="I24" s="26" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J24" s="26" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K24" s="27" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L24" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M24" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N24" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="O24" s="27" t="n">
         <v>509</v>
@@ -5117,21 +5092,21 @@
         <v>47</v>
       </c>
       <c r="S24" s="27" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="23" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="C25" s="33" t="n">
+        <v>92</v>
+      </c>
+      <c r="C25" s="32" t="n">
         <v>44887.5173611111</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E25" s="26" t="n">
         <v>2022</v>
@@ -5146,22 +5121,22 @@
         <v>2</v>
       </c>
       <c r="I25" s="26" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J25" s="26" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K25" s="27" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L25" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M25" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N25" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="O25" s="27" t="n">
         <v>509</v>
@@ -5176,21 +5151,21 @@
         <v>47</v>
       </c>
       <c r="S25" s="27" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="23" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="C26" s="33" t="n">
+        <v>93</v>
+      </c>
+      <c r="C26" s="32" t="n">
         <v>44907.5034722222</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E26" s="26" t="n">
         <v>2022</v>
@@ -5205,22 +5180,22 @@
         <v>2</v>
       </c>
       <c r="I26" s="26" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J26" s="26" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K26" s="27" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L26" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M26" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N26" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="O26" s="27" t="n">
         <v>509</v>
@@ -5235,21 +5210,21 @@
         <v>47</v>
       </c>
       <c r="S26" s="27" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="23" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="C27" s="33" t="n">
+        <v>95</v>
+      </c>
+      <c r="C27" s="32" t="n">
         <v>44907.5104166667</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E27" s="26" t="n">
         <v>2022</v>
@@ -5264,22 +5239,22 @@
         <v>2</v>
       </c>
       <c r="I27" s="26" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J27" s="26" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K27" s="27" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L27" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M27" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N27" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="O27" s="27" t="n">
         <v>509</v>
@@ -5294,21 +5269,21 @@
         <v>47</v>
       </c>
       <c r="S27" s="27" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="23" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="C28" s="33" t="n">
+        <v>96</v>
+      </c>
+      <c r="C28" s="32" t="n">
         <v>44907.5173611111</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E28" s="26" t="n">
         <v>2022</v>
@@ -5323,22 +5298,22 @@
         <v>2</v>
       </c>
       <c r="I28" s="26" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J28" s="26" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K28" s="27" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L28" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M28" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N28" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="O28" s="27" t="n">
         <v>509</v>
@@ -5353,21 +5328,21 @@
         <v>47</v>
       </c>
       <c r="S28" s="27" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="23" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="C29" s="33" t="n">
+        <v>97</v>
+      </c>
+      <c r="C29" s="32" t="n">
         <v>44243.5013888889</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E29" s="26" t="n">
         <v>2021</v>
@@ -5382,22 +5357,22 @@
         <v>2</v>
       </c>
       <c r="I29" s="26" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J29" s="26" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K29" s="27" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L29" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M29" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N29" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="O29" s="27" t="n">
         <v>384</v>
@@ -5412,21 +5387,21 @@
         <v>60</v>
       </c>
       <c r="S29" s="27" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="23" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="C30" s="33" t="n">
+        <v>99</v>
+      </c>
+      <c r="C30" s="32" t="n">
         <v>44243.5090277778</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E30" s="26" t="n">
         <v>2021</v>
@@ -5441,22 +5416,22 @@
         <v>2</v>
       </c>
       <c r="I30" s="26" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J30" s="26" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K30" s="27" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L30" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M30" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N30" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="O30" s="27" t="n">
         <v>384</v>
@@ -5471,21 +5446,21 @@
         <v>60</v>
       </c>
       <c r="S30" s="27" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="23" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="C31" s="33" t="n">
+        <v>100</v>
+      </c>
+      <c r="C31" s="32" t="n">
         <v>44243.5166666667</v>
       </c>
       <c r="D31" s="26" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E31" s="26" t="n">
         <v>2021</v>
@@ -5500,22 +5475,22 @@
         <v>2</v>
       </c>
       <c r="I31" s="26" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J31" s="26" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K31" s="27" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L31" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M31" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N31" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="O31" s="27" t="n">
         <v>384</v>
@@ -5530,21 +5505,21 @@
         <v>60</v>
       </c>
       <c r="S31" s="27" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="23" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="C32" s="33" t="n">
+        <v>101</v>
+      </c>
+      <c r="C32" s="32" t="n">
         <v>44273.5034722222</v>
       </c>
       <c r="D32" s="26" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E32" s="26" t="n">
         <v>2021</v>
@@ -5559,22 +5534,22 @@
         <v>2</v>
       </c>
       <c r="I32" s="26" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J32" s="26" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K32" s="27" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L32" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M32" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N32" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="O32" s="27" t="n">
         <v>697</v>
@@ -5589,21 +5564,21 @@
         <v>72</v>
       </c>
       <c r="S32" s="27" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="23" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="C33" s="33" t="n">
+        <v>103</v>
+      </c>
+      <c r="C33" s="32" t="n">
         <v>44273.5111111111</v>
       </c>
       <c r="D33" s="26" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E33" s="26" t="n">
         <v>2021</v>
@@ -5618,22 +5593,22 @@
         <v>2</v>
       </c>
       <c r="I33" s="26" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J33" s="26" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K33" s="27" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L33" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M33" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N33" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="O33" s="27" t="n">
         <v>697</v>
@@ -5648,21 +5623,21 @@
         <v>72</v>
       </c>
       <c r="S33" s="27" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="23" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="C34" s="33" t="n">
+        <v>104</v>
+      </c>
+      <c r="C34" s="32" t="n">
         <v>44273.51875</v>
       </c>
       <c r="D34" s="26" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E34" s="26" t="n">
         <v>2021</v>
@@ -5677,22 +5652,22 @@
         <v>2</v>
       </c>
       <c r="I34" s="26" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J34" s="26" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K34" s="27" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L34" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M34" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N34" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="O34" s="27" t="n">
         <v>697</v>
@@ -5707,21 +5682,21 @@
         <v>72</v>
       </c>
       <c r="S34" s="27" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="23" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="C35" s="33" t="n">
+        <v>105</v>
+      </c>
+      <c r="C35" s="32" t="n">
         <v>44300.5034722222</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E35" s="26" t="n">
         <v>2021</v>
@@ -5736,22 +5711,22 @@
         <v>2</v>
       </c>
       <c r="I35" s="26" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J35" s="26" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K35" s="27" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L35" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M35" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N35" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="O35" s="27" t="n">
         <v>1794</v>
@@ -5766,21 +5741,21 @@
         <v>146</v>
       </c>
       <c r="S35" s="27" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="23" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="C36" s="33" t="n">
+        <v>107</v>
+      </c>
+      <c r="C36" s="32" t="n">
         <v>44300.5111111111</v>
       </c>
       <c r="D36" s="26" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E36" s="26" t="n">
         <v>2021</v>
@@ -5795,22 +5770,22 @@
         <v>2</v>
       </c>
       <c r="I36" s="26" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J36" s="26" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K36" s="27" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L36" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M36" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N36" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="O36" s="27" t="n">
         <v>1794</v>
@@ -5825,21 +5800,21 @@
         <v>146</v>
       </c>
       <c r="S36" s="27" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="23" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="C37" s="33" t="n">
+        <v>108</v>
+      </c>
+      <c r="C37" s="32" t="n">
         <v>44300.51875</v>
       </c>
       <c r="D37" s="26" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E37" s="26" t="n">
         <v>2021</v>
@@ -5854,22 +5829,22 @@
         <v>2</v>
       </c>
       <c r="I37" s="26" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J37" s="26" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K37" s="27" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L37" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M37" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N37" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="O37" s="27" t="n">
         <v>1794</v>
@@ -5884,21 +5859,21 @@
         <v>146</v>
       </c>
       <c r="S37" s="27" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="23" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="C38" s="33" t="n">
+        <v>109</v>
+      </c>
+      <c r="C38" s="32" t="n">
         <v>44245.5041666667</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E38" s="26" t="n">
         <v>2021</v>
@@ -5913,22 +5888,22 @@
         <v>5</v>
       </c>
       <c r="I38" s="26" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J38" s="26" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K38" s="27" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L38" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M38" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N38" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="O38" s="27" t="n">
         <v>352</v>
@@ -5943,21 +5918,21 @@
         <v>46</v>
       </c>
       <c r="S38" s="27" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="23" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="C39" s="33" t="n">
+        <v>111</v>
+      </c>
+      <c r="C39" s="32" t="n">
         <v>44245.5118055556</v>
       </c>
       <c r="D39" s="26" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E39" s="26" t="n">
         <v>2021</v>
@@ -5972,22 +5947,22 @@
         <v>5</v>
       </c>
       <c r="I39" s="26" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J39" s="26" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K39" s="27" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L39" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M39" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N39" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="O39" s="27" t="n">
         <v>352</v>
@@ -6002,21 +5977,21 @@
         <v>46</v>
       </c>
       <c r="S39" s="27" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="23" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="C40" s="33" t="n">
+        <v>112</v>
+      </c>
+      <c r="C40" s="32" t="n">
         <v>44245.5194444444</v>
       </c>
       <c r="D40" s="26" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E40" s="26" t="n">
         <v>2021</v>
@@ -6031,22 +6006,22 @@
         <v>5</v>
       </c>
       <c r="I40" s="26" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J40" s="26" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K40" s="27" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L40" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M40" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N40" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="O40" s="27" t="n">
         <v>352</v>
@@ -6061,21 +6036,21 @@
         <v>46</v>
       </c>
       <c r="S40" s="27" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="23" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="C41" s="33" t="n">
+        <v>113</v>
+      </c>
+      <c r="C41" s="32" t="n">
         <v>44271.5027777778</v>
       </c>
       <c r="D41" s="26" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E41" s="26" t="n">
         <v>2021</v>
@@ -6090,22 +6065,22 @@
         <v>5</v>
       </c>
       <c r="I41" s="26" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J41" s="26" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K41" s="27" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L41" s="27" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M41" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N41" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="O41" s="27" t="n">
         <v>497</v>
@@ -6120,21 +6095,21 @@
         <v>42</v>
       </c>
       <c r="S41" s="27" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="23" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B42" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="C42" s="33" t="n">
+        <v>115</v>
+      </c>
+      <c r="C42" s="32" t="n">
         <v>44271.5104166667</v>
       </c>
       <c r="D42" s="26" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E42" s="26" t="n">
         <v>2021</v>
@@ -6149,22 +6124,22 @@
         <v>5</v>
       </c>
       <c r="I42" s="26" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J42" s="26" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K42" s="27" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L42" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M42" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N42" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="O42" s="27" t="n">
         <v>497</v>
@@ -6179,21 +6154,21 @@
         <v>42</v>
       </c>
       <c r="S42" s="27" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="23" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B43" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="C43" s="33" t="n">
+        <v>116</v>
+      </c>
+      <c r="C43" s="32" t="n">
         <v>44271.5180555556</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E43" s="26" t="n">
         <v>2021</v>
@@ -6208,22 +6183,22 @@
         <v>5</v>
       </c>
       <c r="I43" s="26" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J43" s="26" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K43" s="27" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L43" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M43" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N43" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="O43" s="27" t="n">
         <v>497</v>
@@ -6238,21 +6213,21 @@
         <v>42</v>
       </c>
       <c r="S43" s="27" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="23" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B44" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="C44" s="33" t="n">
+        <v>117</v>
+      </c>
+      <c r="C44" s="32" t="n">
         <v>44305.5027777778</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E44" s="26" t="n">
         <v>2021</v>
@@ -6267,22 +6242,22 @@
         <v>5</v>
       </c>
       <c r="I44" s="26" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J44" s="26" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K44" s="27" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L44" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M44" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N44" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="O44" s="27" t="n">
         <v>1178</v>
@@ -6297,21 +6272,21 @@
         <v>90</v>
       </c>
       <c r="S44" s="27" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="23" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B45" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="C45" s="33" t="n">
+        <v>119</v>
+      </c>
+      <c r="C45" s="32" t="n">
         <v>44305.5104166667</v>
       </c>
       <c r="D45" s="26" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E45" s="26" t="n">
         <v>2021</v>
@@ -6326,22 +6301,22 @@
         <v>5</v>
       </c>
       <c r="I45" s="26" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J45" s="26" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K45" s="27" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L45" s="27" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M45" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N45" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="O45" s="27" t="n">
         <v>1178</v>
@@ -6356,21 +6331,21 @@
         <v>90</v>
       </c>
       <c r="S45" s="27" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="23" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B46" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="C46" s="33" t="n">
+        <v>120</v>
+      </c>
+      <c r="C46" s="32" t="n">
         <v>44305.5180555556</v>
       </c>
       <c r="D46" s="26" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E46" s="26" t="n">
         <v>2021</v>
@@ -6385,22 +6360,22 @@
         <v>5</v>
       </c>
       <c r="I46" s="26" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J46" s="26" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K46" s="27" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L46" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M46" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N46" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="O46" s="27" t="n">
         <v>1178</v>
@@ -6415,21 +6390,21 @@
         <v>90</v>
       </c>
       <c r="S46" s="27" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="23" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B47" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="C47" s="33" t="n">
+        <v>121</v>
+      </c>
+      <c r="C47" s="32" t="n">
         <v>44243.5055555556</v>
       </c>
       <c r="D47" s="26" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E47" s="26" t="n">
         <v>2021</v>
@@ -6444,22 +6419,22 @@
         <v>2</v>
       </c>
       <c r="I47" s="26" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J47" s="26" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K47" s="27" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L47" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M47" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N47" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="O47" s="27" t="n">
         <v>387</v>
@@ -6474,21 +6449,21 @@
         <v>54</v>
       </c>
       <c r="S47" s="27" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="23" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B48" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="C48" s="33" t="n">
+        <v>123</v>
+      </c>
+      <c r="C48" s="32" t="n">
         <v>44243.5131944445</v>
       </c>
       <c r="D48" s="26" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E48" s="26" t="n">
         <v>2021</v>
@@ -6503,22 +6478,22 @@
         <v>2</v>
       </c>
       <c r="I48" s="26" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J48" s="26" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K48" s="27" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L48" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M48" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N48" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="O48" s="27" t="n">
         <v>387</v>
@@ -6533,21 +6508,21 @@
         <v>54</v>
       </c>
       <c r="S48" s="27" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="23" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B49" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="C49" s="33" t="n">
+        <v>124</v>
+      </c>
+      <c r="C49" s="32" t="n">
         <v>44243.5208333333</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E49" s="26" t="n">
         <v>2021</v>
@@ -6562,22 +6537,22 @@
         <v>2</v>
       </c>
       <c r="I49" s="26" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J49" s="26" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K49" s="27" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L49" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M49" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N49" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="O49" s="27" t="n">
         <v>387</v>
@@ -6592,21 +6567,21 @@
         <v>54</v>
       </c>
       <c r="S49" s="27" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="23" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B50" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="C50" s="33" t="n">
+        <v>125</v>
+      </c>
+      <c r="C50" s="32" t="n">
         <v>44273.5</v>
       </c>
       <c r="D50" s="26" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E50" s="26" t="n">
         <v>2021</v>
@@ -6621,22 +6596,22 @@
         <v>2</v>
       </c>
       <c r="I50" s="26" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J50" s="26" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K50" s="27" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L50" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M50" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N50" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="O50" s="27" t="n">
         <v>680</v>
@@ -6651,21 +6626,21 @@
         <v>63</v>
       </c>
       <c r="S50" s="27" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="23" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="C51" s="33" t="n">
+        <v>127</v>
+      </c>
+      <c r="C51" s="32" t="n">
         <v>44273.5076388889</v>
       </c>
       <c r="D51" s="26" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E51" s="26" t="n">
         <v>2021</v>
@@ -6680,22 +6655,22 @@
         <v>2</v>
       </c>
       <c r="I51" s="26" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J51" s="26" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K51" s="27" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L51" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M51" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N51" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="O51" s="27" t="n">
         <v>680</v>
@@ -6710,21 +6685,21 @@
         <v>63</v>
       </c>
       <c r="S51" s="27" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="23" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B52" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="C52" s="33" t="n">
+        <v>128</v>
+      </c>
+      <c r="C52" s="32" t="n">
         <v>44273.5152777778</v>
       </c>
       <c r="D52" s="26" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E52" s="26" t="n">
         <v>2021</v>
@@ -6739,22 +6714,22 @@
         <v>2</v>
       </c>
       <c r="I52" s="26" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J52" s="26" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K52" s="27" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L52" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M52" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N52" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="O52" s="27" t="n">
         <v>680</v>
@@ -6769,21 +6744,21 @@
         <v>63</v>
       </c>
       <c r="S52" s="27" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="23" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B53" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="C53" s="33" t="n">
+        <v>129</v>
+      </c>
+      <c r="C53" s="32" t="n">
         <v>44299.5069444445</v>
       </c>
       <c r="D53" s="26" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E53" s="26" t="n">
         <v>2021</v>
@@ -6798,22 +6773,22 @@
         <v>2</v>
       </c>
       <c r="I53" s="26" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J53" s="26" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K53" s="27" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L53" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M53" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N53" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="O53" s="27" t="n">
         <v>1258</v>
@@ -6828,21 +6803,21 @@
         <v>86</v>
       </c>
       <c r="S53" s="27" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="23" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B54" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="C54" s="33" t="n">
+        <v>131</v>
+      </c>
+      <c r="C54" s="32" t="n">
         <v>44299.5145833333</v>
       </c>
       <c r="D54" s="26" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E54" s="26" t="n">
         <v>2021</v>
@@ -6857,22 +6832,22 @@
         <v>2</v>
       </c>
       <c r="I54" s="26" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J54" s="26" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K54" s="27" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L54" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M54" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N54" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="O54" s="27" t="n">
         <v>1258</v>
@@ -6887,21 +6862,21 @@
         <v>86</v>
       </c>
       <c r="S54" s="27" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="23" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B55" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="C55" s="33" t="n">
+        <v>132</v>
+      </c>
+      <c r="C55" s="32" t="n">
         <v>44299.5222222222</v>
       </c>
       <c r="D55" s="26" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E55" s="26" t="n">
         <v>2021</v>
@@ -6916,22 +6891,22 @@
         <v>2</v>
       </c>
       <c r="I55" s="26" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J55" s="26" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K55" s="27" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L55" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M55" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N55" s="27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="O55" s="27" t="n">
         <v>1258</v>
@@ -6946,7 +6921,7 @@
         <v>86</v>
       </c>
       <c r="S55" s="27" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -6970,39 +6945,37 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="B2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="34" width="11.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="35" width="11.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="33" width="11.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="34" width="11.84"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1017" min="4" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="28" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="34" t="s">
-        <v>133</v>
-      </c>
-      <c r="B2" s="35" t="n">
+      <c r="A2" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="34" t="n">
         <v>70</v>
       </c>
-      <c r="C2" s="35" t="n">
+      <c r="C2" s="34" t="n">
         <v>2000</v>
       </c>
     </row>
@@ -7039,33 +7012,31 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="B2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="34" width="14.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="35" width="18.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="33" width="14.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="34" width="18.97"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1016" min="3" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="28" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="B2" s="35" t="n">
+      <c r="A2" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" s="34" t="n">
         <v>15</v>
       </c>
     </row>
@@ -7099,72 +7070,71 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="B2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="34" width="13.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="35" width="20.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="33" width="13.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="34" width="20.03"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1017" min="4" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1018" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="28" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="B2" s="32" t="n">
+      <c r="A2" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" s="31" t="n">
         <v>44562.5</v>
       </c>
-      <c r="C2" s="32" t="n">
+      <c r="C2" s="31" t="n">
         <v>44926.5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="34" t="s">
-        <v>141</v>
-      </c>
-      <c r="B3" s="32" t="n">
+      <c r="A3" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" s="31" t="n">
         <v>44881.5</v>
       </c>
-      <c r="C3" s="32" t="n">
+      <c r="C3" s="31" t="n">
         <v>44882.5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="B4" s="33" t="n">
+      <c r="A4" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="B4" s="32" t="n">
         <v>44887.5</v>
       </c>
-      <c r="C4" s="32" t="n">
+      <c r="C4" s="31" t="n">
         <v>44888.5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="B5" s="33" t="n">
+      <c r="A5" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="B5" s="32" t="n">
         <v>44907.5</v>
       </c>
-      <c r="C5" s="33" t="n">
+      <c r="C5" s="32" t="n">
         <v>44908.5</v>
       </c>
     </row>
@@ -7189,103 +7159,105 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="34" width="16.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="35" width="26.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="35" width="18.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="33" width="16.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="34" width="26.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="34" width="18.2"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1012" min="7" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="28" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E1" s="28" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F1" s="28" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="B2" s="32" t="n">
+      <c r="A2" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" s="31" t="n">
         <v>44881.5</v>
       </c>
-      <c r="C2" s="32" t="n">
+      <c r="C2" s="31" t="n">
         <v>44882.5034722222</v>
       </c>
-      <c r="D2" s="32" t="s">
-        <v>149</v>
-      </c>
-      <c r="E2" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="F2" s="32" t="s">
-        <v>150</v>
+      <c r="D2" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="B3" s="32" t="n">
+      <c r="A3" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="B3" s="31" t="n">
         <v>44887.5</v>
       </c>
-      <c r="C3" s="32" t="n">
+      <c r="C3" s="31" t="n">
         <v>44888.5034722222</v>
       </c>
-      <c r="D3" s="32" t="s">
-        <v>149</v>
-      </c>
-      <c r="E3" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="F3" s="32" t="s">
-        <v>150</v>
+      <c r="D3" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="B4" s="31" t="n">
+        <v>44907.5</v>
+      </c>
+      <c r="C4" s="31" t="n">
+        <v>44908.5034722222</v>
+      </c>
+      <c r="D4" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="B4" s="32" t="n">
-        <v>44907.5</v>
-      </c>
-      <c r="C4" s="32" t="n">
-        <v>44908.5034722222</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>149</v>
-      </c>
-      <c r="E4" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="F4" s="32" t="s">
-        <v>150</v>
+      <c r="E4" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -7315,1093 +7287,60 @@
     <tabColor rgb="FFB4C7DC"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:ALY4"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="37" width="10.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="38" width="14.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="39" width="17.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="39" width="15.45"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1013" min="5" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="36" width="10.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="37" width="14.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="38" width="17.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="38" width="15.45"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="39" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1013" min="6" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1014" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="40" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C1" s="40" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>155</v>
-      </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
-      <c r="AC1" s="3"/>
-      <c r="AD1" s="3"/>
-      <c r="AE1" s="3"/>
-      <c r="AF1" s="3"/>
-      <c r="AG1" s="3"/>
-      <c r="AH1" s="3"/>
-      <c r="AI1" s="3"/>
-      <c r="AJ1" s="3"/>
-      <c r="AK1" s="3"/>
-      <c r="AL1" s="3"/>
-      <c r="AM1" s="3"/>
-      <c r="AN1" s="3"/>
-      <c r="AO1" s="3"/>
-      <c r="AP1" s="3"/>
-      <c r="AQ1" s="3"/>
-      <c r="AR1" s="3"/>
-      <c r="AS1" s="3"/>
-      <c r="AT1" s="3"/>
-      <c r="AU1" s="3"/>
-      <c r="AV1" s="3"/>
-      <c r="AW1" s="3"/>
-      <c r="AX1" s="3"/>
-      <c r="AY1" s="3"/>
-      <c r="AZ1" s="3"/>
-      <c r="BA1" s="3"/>
-      <c r="BB1" s="3"/>
-      <c r="BC1" s="3"/>
-      <c r="BD1" s="3"/>
-      <c r="BE1" s="3"/>
-      <c r="BF1" s="3"/>
-      <c r="BG1" s="3"/>
-      <c r="BH1" s="3"/>
-      <c r="BI1" s="3"/>
-      <c r="BJ1" s="3"/>
-      <c r="BK1" s="3"/>
-      <c r="BL1" s="3"/>
-      <c r="BM1" s="3"/>
-      <c r="BN1" s="3"/>
-      <c r="BO1" s="3"/>
-      <c r="BP1" s="3"/>
-      <c r="BQ1" s="3"/>
-      <c r="BR1" s="3"/>
-      <c r="BS1" s="3"/>
-      <c r="BT1" s="3"/>
-      <c r="BU1" s="3"/>
-      <c r="BV1" s="3"/>
-      <c r="BW1" s="3"/>
-      <c r="BX1" s="3"/>
-      <c r="BY1" s="3"/>
-      <c r="BZ1" s="3"/>
-      <c r="CA1" s="3"/>
-      <c r="CB1" s="3"/>
-      <c r="CC1" s="3"/>
-      <c r="CD1" s="3"/>
-      <c r="CE1" s="3"/>
-      <c r="CF1" s="3"/>
-      <c r="CG1" s="3"/>
-      <c r="CH1" s="3"/>
-      <c r="CI1" s="3"/>
-      <c r="CJ1" s="3"/>
-      <c r="CK1" s="3"/>
-      <c r="CL1" s="3"/>
-      <c r="CM1" s="3"/>
-      <c r="CN1" s="3"/>
-      <c r="CO1" s="3"/>
-      <c r="CP1" s="3"/>
-      <c r="CQ1" s="3"/>
-      <c r="CR1" s="3"/>
-      <c r="CS1" s="3"/>
-      <c r="CT1" s="3"/>
-      <c r="CU1" s="3"/>
-      <c r="CV1" s="3"/>
-      <c r="CW1" s="3"/>
-      <c r="CX1" s="3"/>
-      <c r="CY1" s="3"/>
-      <c r="CZ1" s="3"/>
-      <c r="DA1" s="3"/>
-      <c r="DB1" s="3"/>
-      <c r="DC1" s="3"/>
-      <c r="DD1" s="3"/>
-      <c r="DE1" s="3"/>
-      <c r="DF1" s="3"/>
-      <c r="DG1" s="3"/>
-      <c r="DH1" s="3"/>
-      <c r="DI1" s="3"/>
-      <c r="DJ1" s="3"/>
-      <c r="DK1" s="3"/>
-      <c r="DL1" s="3"/>
-      <c r="DM1" s="3"/>
-      <c r="DN1" s="3"/>
-      <c r="DO1" s="3"/>
-      <c r="DP1" s="3"/>
-      <c r="DQ1" s="3"/>
-      <c r="DR1" s="3"/>
-      <c r="DS1" s="3"/>
-      <c r="DT1" s="3"/>
-      <c r="DU1" s="3"/>
-      <c r="DV1" s="3"/>
-      <c r="DW1" s="3"/>
-      <c r="DX1" s="3"/>
-      <c r="DY1" s="3"/>
-      <c r="DZ1" s="3"/>
-      <c r="EA1" s="3"/>
-      <c r="EB1" s="3"/>
-      <c r="EC1" s="3"/>
-      <c r="ED1" s="3"/>
-      <c r="EE1" s="3"/>
-      <c r="EF1" s="3"/>
-      <c r="EG1" s="3"/>
-      <c r="EH1" s="3"/>
-      <c r="EI1" s="3"/>
-      <c r="EJ1" s="3"/>
-      <c r="EK1" s="3"/>
-      <c r="EL1" s="3"/>
-      <c r="EM1" s="3"/>
-      <c r="EN1" s="3"/>
-      <c r="EO1" s="3"/>
-      <c r="EP1" s="3"/>
-      <c r="EQ1" s="3"/>
-      <c r="ER1" s="3"/>
-      <c r="ES1" s="3"/>
-      <c r="ET1" s="3"/>
-      <c r="EU1" s="3"/>
-      <c r="EV1" s="3"/>
-      <c r="EW1" s="3"/>
-      <c r="EX1" s="3"/>
-      <c r="EY1" s="3"/>
-      <c r="EZ1" s="3"/>
-      <c r="FA1" s="3"/>
-      <c r="FB1" s="3"/>
-      <c r="FC1" s="3"/>
-      <c r="FD1" s="3"/>
-      <c r="FE1" s="3"/>
-      <c r="FF1" s="3"/>
-      <c r="FG1" s="3"/>
-      <c r="FH1" s="3"/>
-      <c r="FI1" s="3"/>
-      <c r="FJ1" s="3"/>
-      <c r="FK1" s="3"/>
-      <c r="FL1" s="3"/>
-      <c r="FM1" s="3"/>
-      <c r="FN1" s="3"/>
-      <c r="FO1" s="3"/>
-      <c r="FP1" s="3"/>
-      <c r="FQ1" s="3"/>
-      <c r="FR1" s="3"/>
-      <c r="FS1" s="3"/>
-      <c r="FT1" s="3"/>
-      <c r="FU1" s="3"/>
-      <c r="FV1" s="3"/>
-      <c r="FW1" s="3"/>
-      <c r="FX1" s="3"/>
-      <c r="FY1" s="3"/>
-      <c r="FZ1" s="3"/>
-      <c r="GA1" s="3"/>
-      <c r="GB1" s="3"/>
-      <c r="GC1" s="3"/>
-      <c r="GD1" s="3"/>
-      <c r="GE1" s="3"/>
-      <c r="GF1" s="3"/>
-      <c r="GG1" s="3"/>
-      <c r="GH1" s="3"/>
-      <c r="GI1" s="3"/>
-      <c r="GJ1" s="3"/>
-      <c r="GK1" s="3"/>
-      <c r="GL1" s="3"/>
-      <c r="GM1" s="3"/>
-      <c r="GN1" s="3"/>
-      <c r="GO1" s="3"/>
-      <c r="GP1" s="3"/>
-      <c r="GQ1" s="3"/>
-      <c r="GR1" s="3"/>
-      <c r="GS1" s="3"/>
-      <c r="GT1" s="3"/>
-      <c r="GU1" s="3"/>
-      <c r="GV1" s="3"/>
-      <c r="GW1" s="3"/>
-      <c r="GX1" s="3"/>
-      <c r="GY1" s="3"/>
-      <c r="GZ1" s="3"/>
-      <c r="HA1" s="3"/>
-      <c r="HB1" s="3"/>
-      <c r="HC1" s="3"/>
-      <c r="HD1" s="3"/>
-      <c r="HE1" s="3"/>
-      <c r="HF1" s="3"/>
-      <c r="HG1" s="3"/>
-      <c r="HH1" s="3"/>
-      <c r="HI1" s="3"/>
-      <c r="HJ1" s="3"/>
-      <c r="HK1" s="3"/>
-      <c r="HL1" s="3"/>
-      <c r="HM1" s="3"/>
-      <c r="HN1" s="3"/>
-      <c r="HO1" s="3"/>
-      <c r="HP1" s="3"/>
-      <c r="HQ1" s="3"/>
-      <c r="HR1" s="3"/>
-      <c r="HS1" s="3"/>
-      <c r="HT1" s="3"/>
-      <c r="HU1" s="3"/>
-      <c r="HV1" s="3"/>
-      <c r="HW1" s="3"/>
-      <c r="HX1" s="3"/>
-      <c r="HY1" s="3"/>
-      <c r="HZ1" s="3"/>
-      <c r="IA1" s="3"/>
-      <c r="IB1" s="3"/>
-      <c r="IC1" s="3"/>
-      <c r="ID1" s="3"/>
-      <c r="IE1" s="3"/>
-      <c r="IF1" s="3"/>
-      <c r="IG1" s="3"/>
-      <c r="IH1" s="3"/>
-      <c r="II1" s="3"/>
-      <c r="IJ1" s="3"/>
-      <c r="IK1" s="3"/>
-      <c r="IL1" s="3"/>
-      <c r="IM1" s="3"/>
-      <c r="IN1" s="3"/>
-      <c r="IO1" s="3"/>
-      <c r="IP1" s="3"/>
-      <c r="IQ1" s="3"/>
-      <c r="IR1" s="3"/>
-      <c r="IS1" s="3"/>
-      <c r="IT1" s="3"/>
-      <c r="IU1" s="3"/>
-      <c r="IV1" s="3"/>
-      <c r="IW1" s="3"/>
-      <c r="IX1" s="3"/>
-      <c r="IY1" s="3"/>
-      <c r="IZ1" s="3"/>
-      <c r="JA1" s="3"/>
-      <c r="JB1" s="3"/>
-      <c r="JC1" s="3"/>
-      <c r="JD1" s="3"/>
-      <c r="JE1" s="3"/>
-      <c r="JF1" s="3"/>
-      <c r="JG1" s="3"/>
-      <c r="JH1" s="3"/>
-      <c r="JI1" s="3"/>
-      <c r="JJ1" s="3"/>
-      <c r="JK1" s="3"/>
-      <c r="JL1" s="3"/>
-      <c r="JM1" s="3"/>
-      <c r="JN1" s="3"/>
-      <c r="JO1" s="3"/>
-      <c r="JP1" s="3"/>
-      <c r="JQ1" s="3"/>
-      <c r="JR1" s="3"/>
-      <c r="JS1" s="3"/>
-      <c r="JT1" s="3"/>
-      <c r="JU1" s="3"/>
-      <c r="JV1" s="3"/>
-      <c r="JW1" s="3"/>
-      <c r="JX1" s="3"/>
-      <c r="JY1" s="3"/>
-      <c r="JZ1" s="3"/>
-      <c r="KA1" s="3"/>
-      <c r="KB1" s="3"/>
-      <c r="KC1" s="3"/>
-      <c r="KD1" s="3"/>
-      <c r="KE1" s="3"/>
-      <c r="KF1" s="3"/>
-      <c r="KG1" s="3"/>
-      <c r="KH1" s="3"/>
-      <c r="KI1" s="3"/>
-      <c r="KJ1" s="3"/>
-      <c r="KK1" s="3"/>
-      <c r="KL1" s="3"/>
-      <c r="KM1" s="3"/>
-      <c r="KN1" s="3"/>
-      <c r="KO1" s="3"/>
-      <c r="KP1" s="3"/>
-      <c r="KQ1" s="3"/>
-      <c r="KR1" s="3"/>
-      <c r="KS1" s="3"/>
-      <c r="KT1" s="3"/>
-      <c r="KU1" s="3"/>
-      <c r="KV1" s="3"/>
-      <c r="KW1" s="3"/>
-      <c r="KX1" s="3"/>
-      <c r="KY1" s="3"/>
-      <c r="KZ1" s="3"/>
-      <c r="LA1" s="3"/>
-      <c r="LB1" s="3"/>
-      <c r="LC1" s="3"/>
-      <c r="LD1" s="3"/>
-      <c r="LE1" s="3"/>
-      <c r="LF1" s="3"/>
-      <c r="LG1" s="3"/>
-      <c r="LH1" s="3"/>
-      <c r="LI1" s="3"/>
-      <c r="LJ1" s="3"/>
-      <c r="LK1" s="3"/>
-      <c r="LL1" s="3"/>
-      <c r="LM1" s="3"/>
-      <c r="LN1" s="3"/>
-      <c r="LO1" s="3"/>
-      <c r="LP1" s="3"/>
-      <c r="LQ1" s="3"/>
-      <c r="LR1" s="3"/>
-      <c r="LS1" s="3"/>
-      <c r="LT1" s="3"/>
-      <c r="LU1" s="3"/>
-      <c r="LV1" s="3"/>
-      <c r="LW1" s="3"/>
-      <c r="LX1" s="3"/>
-      <c r="LY1" s="3"/>
-      <c r="LZ1" s="3"/>
-      <c r="MA1" s="3"/>
-      <c r="MB1" s="3"/>
-      <c r="MC1" s="3"/>
-      <c r="MD1" s="3"/>
-      <c r="ME1" s="3"/>
-      <c r="MF1" s="3"/>
-      <c r="MG1" s="3"/>
-      <c r="MH1" s="3"/>
-      <c r="MI1" s="3"/>
-      <c r="MJ1" s="3"/>
-      <c r="MK1" s="3"/>
-      <c r="ML1" s="3"/>
-      <c r="MM1" s="3"/>
-      <c r="MN1" s="3"/>
-      <c r="MO1" s="3"/>
-      <c r="MP1" s="3"/>
-      <c r="MQ1" s="3"/>
-      <c r="MR1" s="3"/>
-      <c r="MS1" s="3"/>
-      <c r="MT1" s="3"/>
-      <c r="MU1" s="3"/>
-      <c r="MV1" s="3"/>
-      <c r="MW1" s="3"/>
-      <c r="MX1" s="3"/>
-      <c r="MY1" s="3"/>
-      <c r="MZ1" s="3"/>
-      <c r="NA1" s="3"/>
-      <c r="NB1" s="3"/>
-      <c r="NC1" s="3"/>
-      <c r="ND1" s="3"/>
-      <c r="NE1" s="3"/>
-      <c r="NF1" s="3"/>
-      <c r="NG1" s="3"/>
-      <c r="NH1" s="3"/>
-      <c r="NI1" s="3"/>
-      <c r="NJ1" s="3"/>
-      <c r="NK1" s="3"/>
-      <c r="NL1" s="3"/>
-      <c r="NM1" s="3"/>
-      <c r="NN1" s="3"/>
-      <c r="NO1" s="3"/>
-      <c r="NP1" s="3"/>
-      <c r="NQ1" s="3"/>
-      <c r="NR1" s="3"/>
-      <c r="NS1" s="3"/>
-      <c r="NT1" s="3"/>
-      <c r="NU1" s="3"/>
-      <c r="NV1" s="3"/>
-      <c r="NW1" s="3"/>
-      <c r="NX1" s="3"/>
-      <c r="NY1" s="3"/>
-      <c r="NZ1" s="3"/>
-      <c r="OA1" s="3"/>
-      <c r="OB1" s="3"/>
-      <c r="OC1" s="3"/>
-      <c r="OD1" s="3"/>
-      <c r="OE1" s="3"/>
-      <c r="OF1" s="3"/>
-      <c r="OG1" s="3"/>
-      <c r="OH1" s="3"/>
-      <c r="OI1" s="3"/>
-      <c r="OJ1" s="3"/>
-      <c r="OK1" s="3"/>
-      <c r="OL1" s="3"/>
-      <c r="OM1" s="3"/>
-      <c r="ON1" s="3"/>
-      <c r="OO1" s="3"/>
-      <c r="OP1" s="3"/>
-      <c r="OQ1" s="3"/>
-      <c r="OR1" s="3"/>
-      <c r="OS1" s="3"/>
-      <c r="OT1" s="3"/>
-      <c r="OU1" s="3"/>
-      <c r="OV1" s="3"/>
-      <c r="OW1" s="3"/>
-      <c r="OX1" s="3"/>
-      <c r="OY1" s="3"/>
-      <c r="OZ1" s="3"/>
-      <c r="PA1" s="3"/>
-      <c r="PB1" s="3"/>
-      <c r="PC1" s="3"/>
-      <c r="PD1" s="3"/>
-      <c r="PE1" s="3"/>
-      <c r="PF1" s="3"/>
-      <c r="PG1" s="3"/>
-      <c r="PH1" s="3"/>
-      <c r="PI1" s="3"/>
-      <c r="PJ1" s="3"/>
-      <c r="PK1" s="3"/>
-      <c r="PL1" s="3"/>
-      <c r="PM1" s="3"/>
-      <c r="PN1" s="3"/>
-      <c r="PO1" s="3"/>
-      <c r="PP1" s="3"/>
-      <c r="PQ1" s="3"/>
-      <c r="PR1" s="3"/>
-      <c r="PS1" s="3"/>
-      <c r="PT1" s="3"/>
-      <c r="PU1" s="3"/>
-      <c r="PV1" s="3"/>
-      <c r="PW1" s="3"/>
-      <c r="PX1" s="3"/>
-      <c r="PY1" s="3"/>
-      <c r="PZ1" s="3"/>
-      <c r="QA1" s="3"/>
-      <c r="QB1" s="3"/>
-      <c r="QC1" s="3"/>
-      <c r="QD1" s="3"/>
-      <c r="QE1" s="3"/>
-      <c r="QF1" s="3"/>
-      <c r="QG1" s="3"/>
-      <c r="QH1" s="3"/>
-      <c r="QI1" s="3"/>
-      <c r="QJ1" s="3"/>
-      <c r="QK1" s="3"/>
-      <c r="QL1" s="3"/>
-      <c r="QM1" s="3"/>
-      <c r="QN1" s="3"/>
-      <c r="QO1" s="3"/>
-      <c r="QP1" s="3"/>
-      <c r="QQ1" s="3"/>
-      <c r="QR1" s="3"/>
-      <c r="QS1" s="3"/>
-      <c r="QT1" s="3"/>
-      <c r="QU1" s="3"/>
-      <c r="QV1" s="3"/>
-      <c r="QW1" s="3"/>
-      <c r="QX1" s="3"/>
-      <c r="QY1" s="3"/>
-      <c r="QZ1" s="3"/>
-      <c r="RA1" s="3"/>
-      <c r="RB1" s="3"/>
-      <c r="RC1" s="3"/>
-      <c r="RD1" s="3"/>
-      <c r="RE1" s="3"/>
-      <c r="RF1" s="3"/>
-      <c r="RG1" s="3"/>
-      <c r="RH1" s="3"/>
-      <c r="RI1" s="3"/>
-      <c r="RJ1" s="3"/>
-      <c r="RK1" s="3"/>
-      <c r="RL1" s="3"/>
-      <c r="RM1" s="3"/>
-      <c r="RN1" s="3"/>
-      <c r="RO1" s="3"/>
-      <c r="RP1" s="3"/>
-      <c r="RQ1" s="3"/>
-      <c r="RR1" s="3"/>
-      <c r="RS1" s="3"/>
-      <c r="RT1" s="3"/>
-      <c r="RU1" s="3"/>
-      <c r="RV1" s="3"/>
-      <c r="RW1" s="3"/>
-      <c r="RX1" s="3"/>
-      <c r="RY1" s="3"/>
-      <c r="RZ1" s="3"/>
-      <c r="SA1" s="3"/>
-      <c r="SB1" s="3"/>
-      <c r="SC1" s="3"/>
-      <c r="SD1" s="3"/>
-      <c r="SE1" s="3"/>
-      <c r="SF1" s="3"/>
-      <c r="SG1" s="3"/>
-      <c r="SH1" s="3"/>
-      <c r="SI1" s="3"/>
-      <c r="SJ1" s="3"/>
-      <c r="SK1" s="3"/>
-      <c r="SL1" s="3"/>
-      <c r="SM1" s="3"/>
-      <c r="SN1" s="3"/>
-      <c r="SO1" s="3"/>
-      <c r="SP1" s="3"/>
-      <c r="SQ1" s="3"/>
-      <c r="SR1" s="3"/>
-      <c r="SS1" s="3"/>
-      <c r="ST1" s="3"/>
-      <c r="SU1" s="3"/>
-      <c r="SV1" s="3"/>
-      <c r="SW1" s="3"/>
-      <c r="SX1" s="3"/>
-      <c r="SY1" s="3"/>
-      <c r="SZ1" s="3"/>
-      <c r="TA1" s="3"/>
-      <c r="TB1" s="3"/>
-      <c r="TC1" s="3"/>
-      <c r="TD1" s="3"/>
-      <c r="TE1" s="3"/>
-      <c r="TF1" s="3"/>
-      <c r="TG1" s="3"/>
-      <c r="TH1" s="3"/>
-      <c r="TI1" s="3"/>
-      <c r="TJ1" s="3"/>
-      <c r="TK1" s="3"/>
-      <c r="TL1" s="3"/>
-      <c r="TM1" s="3"/>
-      <c r="TN1" s="3"/>
-      <c r="TO1" s="3"/>
-      <c r="TP1" s="3"/>
-      <c r="TQ1" s="3"/>
-      <c r="TR1" s="3"/>
-      <c r="TS1" s="3"/>
-      <c r="TT1" s="3"/>
-      <c r="TU1" s="3"/>
-      <c r="TV1" s="3"/>
-      <c r="TW1" s="3"/>
-      <c r="TX1" s="3"/>
-      <c r="TY1" s="3"/>
-      <c r="TZ1" s="3"/>
-      <c r="UA1" s="3"/>
-      <c r="UB1" s="3"/>
-      <c r="UC1" s="3"/>
-      <c r="UD1" s="3"/>
-      <c r="UE1" s="3"/>
-      <c r="UF1" s="3"/>
-      <c r="UG1" s="3"/>
-      <c r="UH1" s="3"/>
-      <c r="UI1" s="3"/>
-      <c r="UJ1" s="3"/>
-      <c r="UK1" s="3"/>
-      <c r="UL1" s="3"/>
-      <c r="UM1" s="3"/>
-      <c r="UN1" s="3"/>
-      <c r="UO1" s="3"/>
-      <c r="UP1" s="3"/>
-      <c r="UQ1" s="3"/>
-      <c r="UR1" s="3"/>
-      <c r="US1" s="3"/>
-      <c r="UT1" s="3"/>
-      <c r="UU1" s="3"/>
-      <c r="UV1" s="3"/>
-      <c r="UW1" s="3"/>
-      <c r="UX1" s="3"/>
-      <c r="UY1" s="3"/>
-      <c r="UZ1" s="3"/>
-      <c r="VA1" s="3"/>
-      <c r="VB1" s="3"/>
-      <c r="VC1" s="3"/>
-      <c r="VD1" s="3"/>
-      <c r="VE1" s="3"/>
-      <c r="VF1" s="3"/>
-      <c r="VG1" s="3"/>
-      <c r="VH1" s="3"/>
-      <c r="VI1" s="3"/>
-      <c r="VJ1" s="3"/>
-      <c r="VK1" s="3"/>
-      <c r="VL1" s="3"/>
-      <c r="VM1" s="3"/>
-      <c r="VN1" s="3"/>
-      <c r="VO1" s="3"/>
-      <c r="VP1" s="3"/>
-      <c r="VQ1" s="3"/>
-      <c r="VR1" s="3"/>
-      <c r="VS1" s="3"/>
-      <c r="VT1" s="3"/>
-      <c r="VU1" s="3"/>
-      <c r="VV1" s="3"/>
-      <c r="VW1" s="3"/>
-      <c r="VX1" s="3"/>
-      <c r="VY1" s="3"/>
-      <c r="VZ1" s="3"/>
-      <c r="WA1" s="3"/>
-      <c r="WB1" s="3"/>
-      <c r="WC1" s="3"/>
-      <c r="WD1" s="3"/>
-      <c r="WE1" s="3"/>
-      <c r="WF1" s="3"/>
-      <c r="WG1" s="3"/>
-      <c r="WH1" s="3"/>
-      <c r="WI1" s="3"/>
-      <c r="WJ1" s="3"/>
-      <c r="WK1" s="3"/>
-      <c r="WL1" s="3"/>
-      <c r="WM1" s="3"/>
-      <c r="WN1" s="3"/>
-      <c r="WO1" s="3"/>
-      <c r="WP1" s="3"/>
-      <c r="WQ1" s="3"/>
-      <c r="WR1" s="3"/>
-      <c r="WS1" s="3"/>
-      <c r="WT1" s="3"/>
-      <c r="WU1" s="3"/>
-      <c r="WV1" s="3"/>
-      <c r="WW1" s="3"/>
-      <c r="WX1" s="3"/>
-      <c r="WY1" s="3"/>
-      <c r="WZ1" s="3"/>
-      <c r="XA1" s="3"/>
-      <c r="XB1" s="3"/>
-      <c r="XC1" s="3"/>
-      <c r="XD1" s="3"/>
-      <c r="XE1" s="3"/>
-      <c r="XF1" s="3"/>
-      <c r="XG1" s="3"/>
-      <c r="XH1" s="3"/>
-      <c r="XI1" s="3"/>
-      <c r="XJ1" s="3"/>
-      <c r="XK1" s="3"/>
-      <c r="XL1" s="3"/>
-      <c r="XM1" s="3"/>
-      <c r="XN1" s="3"/>
-      <c r="XO1" s="3"/>
-      <c r="XP1" s="3"/>
-      <c r="XQ1" s="3"/>
-      <c r="XR1" s="3"/>
-      <c r="XS1" s="3"/>
-      <c r="XT1" s="3"/>
-      <c r="XU1" s="3"/>
-      <c r="XV1" s="3"/>
-      <c r="XW1" s="3"/>
-      <c r="XX1" s="3"/>
-      <c r="XY1" s="3"/>
-      <c r="XZ1" s="3"/>
-      <c r="YA1" s="3"/>
-      <c r="YB1" s="3"/>
-      <c r="YC1" s="3"/>
-      <c r="YD1" s="3"/>
-      <c r="YE1" s="3"/>
-      <c r="YF1" s="3"/>
-      <c r="YG1" s="3"/>
-      <c r="YH1" s="3"/>
-      <c r="YI1" s="3"/>
-      <c r="YJ1" s="3"/>
-      <c r="YK1" s="3"/>
-      <c r="YL1" s="3"/>
-      <c r="YM1" s="3"/>
-      <c r="YN1" s="3"/>
-      <c r="YO1" s="3"/>
-      <c r="YP1" s="3"/>
-      <c r="YQ1" s="3"/>
-      <c r="YR1" s="3"/>
-      <c r="YS1" s="3"/>
-      <c r="YT1" s="3"/>
-      <c r="YU1" s="3"/>
-      <c r="YV1" s="3"/>
-      <c r="YW1" s="3"/>
-      <c r="YX1" s="3"/>
-      <c r="YY1" s="3"/>
-      <c r="YZ1" s="3"/>
-      <c r="ZA1" s="3"/>
-      <c r="ZB1" s="3"/>
-      <c r="ZC1" s="3"/>
-      <c r="ZD1" s="3"/>
-      <c r="ZE1" s="3"/>
-      <c r="ZF1" s="3"/>
-      <c r="ZG1" s="3"/>
-      <c r="ZH1" s="3"/>
-      <c r="ZI1" s="3"/>
-      <c r="ZJ1" s="3"/>
-      <c r="ZK1" s="3"/>
-      <c r="ZL1" s="3"/>
-      <c r="ZM1" s="3"/>
-      <c r="ZN1" s="3"/>
-      <c r="ZO1" s="3"/>
-      <c r="ZP1" s="3"/>
-      <c r="ZQ1" s="3"/>
-      <c r="ZR1" s="3"/>
-      <c r="ZS1" s="3"/>
-      <c r="ZT1" s="3"/>
-      <c r="ZU1" s="3"/>
-      <c r="ZV1" s="3"/>
-      <c r="ZW1" s="3"/>
-      <c r="ZX1" s="3"/>
-      <c r="ZY1" s="3"/>
-      <c r="ZZ1" s="3"/>
-      <c r="AAA1" s="3"/>
-      <c r="AAB1" s="3"/>
-      <c r="AAC1" s="3"/>
-      <c r="AAD1" s="3"/>
-      <c r="AAE1" s="3"/>
-      <c r="AAF1" s="3"/>
-      <c r="AAG1" s="3"/>
-      <c r="AAH1" s="3"/>
-      <c r="AAI1" s="3"/>
-      <c r="AAJ1" s="3"/>
-      <c r="AAK1" s="3"/>
-      <c r="AAL1" s="3"/>
-      <c r="AAM1" s="3"/>
-      <c r="AAN1" s="3"/>
-      <c r="AAO1" s="3"/>
-      <c r="AAP1" s="3"/>
-      <c r="AAQ1" s="3"/>
-      <c r="AAR1" s="3"/>
-      <c r="AAS1" s="3"/>
-      <c r="AAT1" s="3"/>
-      <c r="AAU1" s="3"/>
-      <c r="AAV1" s="3"/>
-      <c r="AAW1" s="3"/>
-      <c r="AAX1" s="3"/>
-      <c r="AAY1" s="3"/>
-      <c r="AAZ1" s="3"/>
-      <c r="ABA1" s="3"/>
-      <c r="ABB1" s="3"/>
-      <c r="ABC1" s="3"/>
-      <c r="ABD1" s="3"/>
-      <c r="ABE1" s="3"/>
-      <c r="ABF1" s="3"/>
-      <c r="ABG1" s="3"/>
-      <c r="ABH1" s="3"/>
-      <c r="ABI1" s="3"/>
-      <c r="ABJ1" s="3"/>
-      <c r="ABK1" s="3"/>
-      <c r="ABL1" s="3"/>
-      <c r="ABM1" s="3"/>
-      <c r="ABN1" s="3"/>
-      <c r="ABO1" s="3"/>
-      <c r="ABP1" s="3"/>
-      <c r="ABQ1" s="3"/>
-      <c r="ABR1" s="3"/>
-      <c r="ABS1" s="3"/>
-      <c r="ABT1" s="3"/>
-      <c r="ABU1" s="3"/>
-      <c r="ABV1" s="3"/>
-      <c r="ABW1" s="3"/>
-      <c r="ABX1" s="3"/>
-      <c r="ABY1" s="3"/>
-      <c r="ABZ1" s="3"/>
-      <c r="ACA1" s="3"/>
-      <c r="ACB1" s="3"/>
-      <c r="ACC1" s="3"/>
-      <c r="ACD1" s="3"/>
-      <c r="ACE1" s="3"/>
-      <c r="ACF1" s="3"/>
-      <c r="ACG1" s="3"/>
-      <c r="ACH1" s="3"/>
-      <c r="ACI1" s="3"/>
-      <c r="ACJ1" s="3"/>
-      <c r="ACK1" s="3"/>
-      <c r="ACL1" s="3"/>
-      <c r="ACM1" s="3"/>
-      <c r="ACN1" s="3"/>
-      <c r="ACO1" s="3"/>
-      <c r="ACP1" s="3"/>
-      <c r="ACQ1" s="3"/>
-      <c r="ACR1" s="3"/>
-      <c r="ACS1" s="3"/>
-      <c r="ACT1" s="3"/>
-      <c r="ACU1" s="3"/>
-      <c r="ACV1" s="3"/>
-      <c r="ACW1" s="3"/>
-      <c r="ACX1" s="3"/>
-      <c r="ACY1" s="3"/>
-      <c r="ACZ1" s="3"/>
-      <c r="ADA1" s="3"/>
-      <c r="ADB1" s="3"/>
-      <c r="ADC1" s="3"/>
-      <c r="ADD1" s="3"/>
-      <c r="ADE1" s="3"/>
-      <c r="ADF1" s="3"/>
-      <c r="ADG1" s="3"/>
-      <c r="ADH1" s="3"/>
-      <c r="ADI1" s="3"/>
-      <c r="ADJ1" s="3"/>
-      <c r="ADK1" s="3"/>
-      <c r="ADL1" s="3"/>
-      <c r="ADM1" s="3"/>
-      <c r="ADN1" s="3"/>
-      <c r="ADO1" s="3"/>
-      <c r="ADP1" s="3"/>
-      <c r="ADQ1" s="3"/>
-      <c r="ADR1" s="3"/>
-      <c r="ADS1" s="3"/>
-      <c r="ADT1" s="3"/>
-      <c r="ADU1" s="3"/>
-      <c r="ADV1" s="3"/>
-      <c r="ADW1" s="3"/>
-      <c r="ADX1" s="3"/>
-      <c r="ADY1" s="3"/>
-      <c r="ADZ1" s="3"/>
-      <c r="AEA1" s="3"/>
-      <c r="AEB1" s="3"/>
-      <c r="AEC1" s="3"/>
-      <c r="AED1" s="3"/>
-      <c r="AEE1" s="3"/>
-      <c r="AEF1" s="3"/>
-      <c r="AEG1" s="3"/>
-      <c r="AEH1" s="3"/>
-      <c r="AEI1" s="3"/>
-      <c r="AEJ1" s="3"/>
-      <c r="AEK1" s="3"/>
-      <c r="AEL1" s="3"/>
-      <c r="AEM1" s="3"/>
-      <c r="AEN1" s="3"/>
-      <c r="AEO1" s="3"/>
-      <c r="AEP1" s="3"/>
-      <c r="AEQ1" s="3"/>
-      <c r="AER1" s="3"/>
-      <c r="AES1" s="3"/>
-      <c r="AET1" s="3"/>
-      <c r="AEU1" s="3"/>
-      <c r="AEV1" s="3"/>
-      <c r="AEW1" s="3"/>
-      <c r="AEX1" s="3"/>
-      <c r="AEY1" s="3"/>
-      <c r="AEZ1" s="3"/>
-      <c r="AFA1" s="3"/>
-      <c r="AFB1" s="3"/>
-      <c r="AFC1" s="3"/>
-      <c r="AFD1" s="3"/>
-      <c r="AFE1" s="3"/>
-      <c r="AFF1" s="3"/>
-      <c r="AFG1" s="3"/>
-      <c r="AFH1" s="3"/>
-      <c r="AFI1" s="3"/>
-      <c r="AFJ1" s="3"/>
-      <c r="AFK1" s="3"/>
-      <c r="AFL1" s="3"/>
-      <c r="AFM1" s="3"/>
-      <c r="AFN1" s="3"/>
-      <c r="AFO1" s="3"/>
-      <c r="AFP1" s="3"/>
-      <c r="AFQ1" s="3"/>
-      <c r="AFR1" s="3"/>
-      <c r="AFS1" s="3"/>
-      <c r="AFT1" s="3"/>
-      <c r="AFU1" s="3"/>
-      <c r="AFV1" s="3"/>
-      <c r="AFW1" s="3"/>
-      <c r="AFX1" s="3"/>
-      <c r="AFY1" s="3"/>
-      <c r="AFZ1" s="3"/>
-      <c r="AGA1" s="3"/>
-      <c r="AGB1" s="3"/>
-      <c r="AGC1" s="3"/>
-      <c r="AGD1" s="3"/>
-      <c r="AGE1" s="3"/>
-      <c r="AGF1" s="3"/>
-      <c r="AGG1" s="3"/>
-      <c r="AGH1" s="3"/>
-      <c r="AGI1" s="3"/>
-      <c r="AGJ1" s="3"/>
-      <c r="AGK1" s="3"/>
-      <c r="AGL1" s="3"/>
-      <c r="AGM1" s="3"/>
-      <c r="AGN1" s="3"/>
-      <c r="AGO1" s="3"/>
-      <c r="AGP1" s="3"/>
-      <c r="AGQ1" s="3"/>
-      <c r="AGR1" s="3"/>
-      <c r="AGS1" s="3"/>
-      <c r="AGT1" s="3"/>
-      <c r="AGU1" s="3"/>
-      <c r="AGV1" s="3"/>
-      <c r="AGW1" s="3"/>
-      <c r="AGX1" s="3"/>
-      <c r="AGY1" s="3"/>
-      <c r="AGZ1" s="3"/>
-      <c r="AHA1" s="3"/>
-      <c r="AHB1" s="3"/>
-      <c r="AHC1" s="3"/>
-      <c r="AHD1" s="3"/>
-      <c r="AHE1" s="3"/>
-      <c r="AHF1" s="3"/>
-      <c r="AHG1" s="3"/>
-      <c r="AHH1" s="3"/>
-      <c r="AHI1" s="3"/>
-      <c r="AHJ1" s="3"/>
-      <c r="AHK1" s="3"/>
-      <c r="AHL1" s="3"/>
-      <c r="AHM1" s="3"/>
-      <c r="AHN1" s="3"/>
-      <c r="AHO1" s="3"/>
-      <c r="AHP1" s="3"/>
-      <c r="AHQ1" s="3"/>
-      <c r="AHR1" s="3"/>
-      <c r="AHS1" s="3"/>
-      <c r="AHT1" s="3"/>
-      <c r="AHU1" s="3"/>
-      <c r="AHV1" s="3"/>
-      <c r="AHW1" s="3"/>
-      <c r="AHX1" s="3"/>
-      <c r="AHY1" s="3"/>
-      <c r="AHZ1" s="3"/>
-      <c r="AIA1" s="3"/>
-      <c r="AIB1" s="3"/>
-      <c r="AIC1" s="3"/>
-      <c r="AID1" s="3"/>
-      <c r="AIE1" s="3"/>
-      <c r="AIF1" s="3"/>
-      <c r="AIG1" s="3"/>
-      <c r="AIH1" s="3"/>
-      <c r="AII1" s="3"/>
-      <c r="AIJ1" s="3"/>
-      <c r="AIK1" s="3"/>
-      <c r="AIL1" s="3"/>
-      <c r="AIM1" s="3"/>
-      <c r="AIN1" s="3"/>
-      <c r="AIO1" s="3"/>
-      <c r="AIP1" s="3"/>
-      <c r="AIQ1" s="3"/>
-      <c r="AIR1" s="3"/>
-      <c r="AIS1" s="3"/>
-      <c r="AIT1" s="3"/>
-      <c r="AIU1" s="3"/>
-      <c r="AIV1" s="3"/>
-      <c r="AIW1" s="3"/>
-      <c r="AIX1" s="3"/>
-      <c r="AIY1" s="3"/>
-      <c r="AIZ1" s="3"/>
-      <c r="AJA1" s="3"/>
-      <c r="AJB1" s="3"/>
-      <c r="AJC1" s="3"/>
-      <c r="AJD1" s="3"/>
-      <c r="AJE1" s="3"/>
-      <c r="AJF1" s="3"/>
-      <c r="AJG1" s="3"/>
-      <c r="AJH1" s="3"/>
-      <c r="AJI1" s="3"/>
-      <c r="AJJ1" s="3"/>
-      <c r="AJK1" s="3"/>
-      <c r="AJL1" s="3"/>
-      <c r="AJM1" s="3"/>
-      <c r="AJN1" s="3"/>
-      <c r="AJO1" s="3"/>
-      <c r="AJP1" s="3"/>
-      <c r="AJQ1" s="3"/>
-      <c r="AJR1" s="3"/>
-      <c r="AJS1" s="3"/>
-      <c r="AJT1" s="3"/>
-      <c r="AJU1" s="3"/>
-      <c r="AJV1" s="3"/>
-      <c r="AJW1" s="3"/>
-      <c r="AJX1" s="3"/>
-      <c r="AJY1" s="3"/>
-      <c r="AJZ1" s="3"/>
-      <c r="AKA1" s="3"/>
-      <c r="AKB1" s="3"/>
-      <c r="AKC1" s="3"/>
-      <c r="AKD1" s="3"/>
-      <c r="AKE1" s="3"/>
-      <c r="AKF1" s="3"/>
-      <c r="AKG1" s="3"/>
-      <c r="AKH1" s="3"/>
-      <c r="AKI1" s="3"/>
-      <c r="AKJ1" s="3"/>
-      <c r="AKK1" s="3"/>
-      <c r="AKL1" s="3"/>
-      <c r="AKM1" s="3"/>
-      <c r="AKN1" s="3"/>
-      <c r="AKO1" s="3"/>
-      <c r="AKP1" s="3"/>
-      <c r="AKQ1" s="3"/>
-      <c r="AKR1" s="3"/>
-      <c r="AKS1" s="3"/>
-      <c r="AKT1" s="3"/>
-      <c r="AKU1" s="3"/>
-      <c r="AKV1" s="3"/>
-      <c r="AKW1" s="3"/>
-      <c r="AKX1" s="3"/>
-      <c r="AKY1" s="3"/>
-      <c r="AKZ1" s="3"/>
-      <c r="ALA1" s="3"/>
-      <c r="ALB1" s="3"/>
-      <c r="ALC1" s="3"/>
-      <c r="ALD1" s="3"/>
-      <c r="ALE1" s="3"/>
-      <c r="ALF1" s="3"/>
-      <c r="ALG1" s="3"/>
-      <c r="ALH1" s="3"/>
-      <c r="ALI1" s="3"/>
-      <c r="ALJ1" s="3"/>
-      <c r="ALK1" s="3"/>
-      <c r="ALL1" s="3"/>
-      <c r="ALM1" s="3"/>
-      <c r="ALN1" s="3"/>
-      <c r="ALO1" s="3"/>
-      <c r="ALP1" s="3"/>
-      <c r="ALQ1" s="3"/>
-      <c r="ALR1" s="3"/>
-      <c r="ALS1" s="3"/>
-      <c r="ALT1" s="3"/>
-      <c r="ALU1" s="3"/>
-      <c r="ALV1" s="3"/>
-      <c r="ALW1" s="3"/>
-      <c r="ALX1" s="3"/>
-      <c r="ALY1" s="3"/>
+        <v>158</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="37" t="s">
-        <v>156</v>
-      </c>
-      <c r="B2" s="38" t="n">
+      <c r="A2" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" s="37" t="n">
         <v>0</v>
       </c>
-      <c r="C2" s="39" t="n">
+      <c r="C2" s="38" t="n">
         <v>1000</v>
       </c>
-      <c r="D2" s="39" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="B3" s="38" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" s="39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D3" s="39" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="37" t="s">
+      <c r="D2" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="B4" s="38" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" s="39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D4" s="39" t="s">
-        <v>159</v>
+      <c r="E2" s="39" t="str">
+        <f aca="false">VLOOKUP(A2,ListExtractors!$A$2:$B$1048576,2,0)</f>
+        <v>The VGGish neural network.</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A5:A1002" type="list">
-      <formula1>ListExtractors!$A$2:$A$1048576</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A2:A4" type="list">
+  <dataValidations count="1">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A2:A1002" type="list">
       <formula1>ListExtractors!$A$2:$A$1048576</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -8423,10 +7362,12 @@
     <tabColor rgb="FFB4C7DC"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8444,11 +7385,22 @@
       <c r="A2" s="41" t="s">
         <v>162</v>
       </c>
+      <c r="B2" s="39" t="str">
+        <f aca="false">VLOOKUP(A2,ListDigesters!$A$2:$B$1048576,2,0)</f>
+        <v>The silhouette between subtypes of a given cluster.</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="41" t="s">
         <v>163</v>
       </c>
+      <c r="B3" s="39" t="str">
+        <f aca="false">VLOOKUP(A3,ListDigesters!$A$2:$B$1048576,2,0)</f>
+        <v>Contingency between two clusters.</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="39"/>
     </row>
   </sheetData>
   <dataValidations count="2">

--- a/examples/campaigns/coral-reef-light/coral-reef-light.xlsx
+++ b/examples/campaigns/coral-reef-light/coral-reef-light.xlsx
@@ -615,7 +615,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="194">
   <si>
     <t xml:space="preserve">SoundScapeExplorer
 Version 12</t>
@@ -811,10 +811,10 @@
     <t xml:space="preserve">date</t>
   </si>
   <si>
-    <t xml:space="preserve">label_LIEU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">label_ANNEE</t>
+    <t xml:space="preserve">label_LOCATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">label_YEAR</t>
   </si>
   <si>
     <t xml:space="preserve">label_REPLICA</t>
@@ -823,31 +823,31 @@
     <t xml:space="preserve">label_SNAP</t>
   </si>
   <si>
-    <t xml:space="preserve">label_PROFONDEUR</t>
+    <t xml:space="preserve">label_DEPTH</t>
   </si>
   <si>
     <t xml:space="preserve">label_GEOMORPH</t>
   </si>
   <si>
-    <t xml:space="preserve">label_SUBSTRAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">label_PERIODE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">label_BATEAU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">label_PLUIE</t>
+    <t xml:space="preserve">label_SUBSTRATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">label_PERIOD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">label_BOAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">label_RAIN</t>
   </si>
   <si>
     <t xml:space="preserve">label_SONAR</t>
   </si>
   <si>
-    <t xml:space="preserve">label_ABONDANCE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">label_RICHESSE</t>
+    <t xml:space="preserve">label_ABUNDANCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">label_RICHNESS</t>
   </si>
   <si>
     <t xml:space="preserve">label_ABVOCAL</t>
@@ -856,34 +856,31 @@
     <t xml:space="preserve">label_RVOCAL</t>
   </si>
   <si>
-    <t xml:space="preserve">label_LIEU+ANNEE+REPLICA</t>
+    <t xml:space="preserve">label_LOCATION+YEAR+REPLICA</t>
   </si>
   <si>
     <t xml:space="preserve">/2022_passe_1/data_filtree/20221116T120500_2614231302179085_2.0.wav</t>
   </si>
   <si>
-    <t xml:space="preserve">passe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chenal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dalle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jour</t>
-  </si>
-  <si>
-    <t xml:space="preserve">non</t>
-  </si>
-  <si>
-    <t xml:space="preserve">passe/2022/1</t>
+    <t xml:space="preserve">boat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">channel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">slab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no</t>
   </si>
   <si>
     <t xml:space="preserve">/2022_passe_1/data_filtree/20221116T121500_2614231302179085_2.0.wav</t>
   </si>
   <si>
-    <t xml:space="preserve">oui</t>
+    <t xml:space="preserve">yes</t>
   </si>
   <si>
     <t xml:space="preserve">/2022_passe_1/data_filtree/20221116T122500_2614231302179085_2.0.wav</t>
@@ -892,9 +889,6 @@
     <t xml:space="preserve">/2022_passe_2/data_filtree/20221122T120000_2614231302179085_2.0.wav</t>
   </si>
   <si>
-    <t xml:space="preserve">passe/2022/2</t>
-  </si>
-  <si>
     <t xml:space="preserve">/2022_passe_2/data_filtree/20221122T121000_2614231302179085_2.0.wav</t>
   </si>
   <si>
@@ -904,9 +898,6 @@
     <t xml:space="preserve">/2022_passe_3/data_filtree/20221212T120500_2614231302179085_2.0.wav</t>
   </si>
   <si>
-    <t xml:space="preserve">passe/2022/3</t>
-  </si>
-  <si>
     <t xml:space="preserve">/2022_passe_3/data_filtree/20221212T121500_2614231302179085_2.0.wav</t>
   </si>
   <si>
@@ -916,16 +907,13 @@
     <t xml:space="preserve">/2022_naturel_1/data_filtree/20221116T120500_4407951432584596_2.0.wav</t>
   </si>
   <si>
-    <t xml:space="preserve">naturel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">barriere</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">naturel/2022/1</t>
+    <t xml:space="preserve">undegraded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">barrier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sand</t>
   </si>
   <si>
     <t xml:space="preserve">/2022_naturel_1/data_filtree/20221116T121500_4407951432584596_2.0.wav</t>
@@ -937,9 +925,6 @@
     <t xml:space="preserve">/2022_naturel_2/data_filtree/20221122T120500_4407951432584596_2.0.wav</t>
   </si>
   <si>
-    <t xml:space="preserve">naturel/2022/2</t>
-  </si>
-  <si>
     <t xml:space="preserve">/2022_naturel_2/data_filtree/20221122T121500_4407951432584596_2.0.wav</t>
   </si>
   <si>
@@ -949,9 +934,6 @@
     <t xml:space="preserve">/2022_naturel_3/data_filtree/20221212T120000_4407951432584596_2.0.wav</t>
   </si>
   <si>
-    <t xml:space="preserve">naturel/2022/3</t>
-  </si>
-  <si>
     <t xml:space="preserve">/2022_naturel_3/data_filtree/20221212T121000_4407951432584596_2.0.wav</t>
   </si>
   <si>
@@ -961,10 +943,7 @@
     <t xml:space="preserve">/2022_touriste_1/data_filtree/20221116T120000_2614231121130510_2.0.wav</t>
   </si>
   <si>
-    <t xml:space="preserve">touriste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">touriste/2022/1</t>
+    <t xml:space="preserve">tourist</t>
   </si>
   <si>
     <t xml:space="preserve">/2022_touriste_1/data_filtree/20221116T121000_2614231121130510_2.0.wav</t>
@@ -976,9 +955,6 @@
     <t xml:space="preserve">/2022_touriste_2/data_filtree/20221122T120500_2614231121130510_2.0.wav</t>
   </si>
   <si>
-    <t xml:space="preserve">touriste/2022/2</t>
-  </si>
-  <si>
     <t xml:space="preserve">/2022_touriste_2/data_filtree/20221122T121500_2614231121130510_2.0.wav</t>
   </si>
   <si>
@@ -988,9 +964,6 @@
     <t xml:space="preserve">/2022_touriste_3/data_filtree/20221212T120500_2614231121130510_2.0.wav</t>
   </si>
   <si>
-    <t xml:space="preserve">touriste/2022/3</t>
-  </si>
-  <si>
     <t xml:space="preserve">/2022_touriste_3/data_filtree/20221212T121500_2614231121130510_2.0.wav</t>
   </si>
   <si>
@@ -1000,9 +973,6 @@
     <t xml:space="preserve">/2021_naturel_1/data_filtree/20210216T120200_2614231302179085_2.0.wav</t>
   </si>
   <si>
-    <t xml:space="preserve">naturel/2021/1</t>
-  </si>
-  <si>
     <t xml:space="preserve">/2021_naturel_1/data_filtree/20210216T121300_2614231302179085_2.0.wav</t>
   </si>
   <si>
@@ -1012,9 +982,6 @@
     <t xml:space="preserve">/2021_naturel_2/data_filtree/20210318T120500_2614231121130510_2.0.wav</t>
   </si>
   <si>
-    <t xml:space="preserve">naturel/2021/2</t>
-  </si>
-  <si>
     <t xml:space="preserve">/2021_naturel_2/data_filtree/20210318T121600_2614231121130510_2.0.wav</t>
   </si>
   <si>
@@ -1024,9 +991,6 @@
     <t xml:space="preserve">/2021_naturel_3/data_filtree/20210414T120500_2614231112834446_2.0.wav</t>
   </si>
   <si>
-    <t xml:space="preserve">naturel/2021/3</t>
-  </si>
-  <si>
     <t xml:space="preserve">/2021_naturel_3/data_filtree/20210414T121600_2614231112834446_2.0.wav</t>
   </si>
   <si>
@@ -1036,9 +1000,6 @@
     <t xml:space="preserve">/2021_passe_1/data_filtree/20210218T120600_2614231302179085_2.0.wav</t>
   </si>
   <si>
-    <t xml:space="preserve">passe/2021/1</t>
-  </si>
-  <si>
     <t xml:space="preserve">/2021_passe_1/data_filtree/20210218T121700_2614231302179085_2.0.wav</t>
   </si>
   <si>
@@ -1048,9 +1009,6 @@
     <t xml:space="preserve">/2021_passe_2/data_filtree/20210316T120400_2614231302179085_2.0.wav</t>
   </si>
   <si>
-    <t xml:space="preserve">passe/2021/2</t>
-  </si>
-  <si>
     <t xml:space="preserve">/2021_passe_2/data_filtree/20210316T121500_2614231302179085_2.0.wav</t>
   </si>
   <si>
@@ -1060,9 +1018,6 @@
     <t xml:space="preserve">/2021_passe_3/data_filtree/20210419T120400_2614231112834446_2.0.wav</t>
   </si>
   <si>
-    <t xml:space="preserve">passe/2021/3</t>
-  </si>
-  <si>
     <t xml:space="preserve">/2021_passe_3/data_filtree/20210419T121500_2614231112834446_2.0.wav</t>
   </si>
   <si>
@@ -1072,9 +1027,6 @@
     <t xml:space="preserve">/2021_touriste_1/data_filtree/20210216T120800_2614231121130510_2.0.wav</t>
   </si>
   <si>
-    <t xml:space="preserve">touriste/2021/1</t>
-  </si>
-  <si>
     <t xml:space="preserve">/2021_touriste_1/data_filtree/20210216T121900_2614231121130510_2.0.wav</t>
   </si>
   <si>
@@ -1084,9 +1036,6 @@
     <t xml:space="preserve">/2021_touriste_2/data_filtree/20210318T120000_2614231302179085_2.0.wav</t>
   </si>
   <si>
-    <t xml:space="preserve">touriste/2021/2</t>
-  </si>
-  <si>
     <t xml:space="preserve">/2021_touriste_2/data_filtree/20210318T121100_2614231302179085_2.0.wav</t>
   </si>
   <si>
@@ -1096,9 +1045,6 @@
     <t xml:space="preserve">/2021_touriste_3/data_filtree/20210413T121000_2614231302179085_2.0.wav</t>
   </si>
   <si>
-    <t xml:space="preserve">touriste/2021/3</t>
-  </si>
-  <si>
     <t xml:space="preserve">/2021_touriste_3/data_filtree/20210413T122100_2614231302179085_2.0.wav</t>
   </si>
   <si>
@@ -1162,7 +1108,7 @@
     <t xml:space="preserve">day1</t>
   </si>
   <si>
-    <t xml:space="preserve">LIEU</t>
+    <t xml:space="preserve">LOCATION</t>
   </si>
   <si>
     <t xml:space="preserve">hour</t>
@@ -1186,9 +1132,6 @@
     <t xml:space="preserve">vgg</t>
   </si>
   <si>
-    <t xml:space="preserve">no</t>
-  </si>
-  <si>
     <t xml:space="preserve">digester</t>
   </si>
   <si>
@@ -1340,9 +1283,6 @@
   </si>
   <si>
     <t xml:space="preserve">pca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">day</t>
   </si>
   <si>
     <t xml:space="preserve">month</t>
@@ -1957,24 +1897,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="40" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="C1" s="42" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="D1" s="42" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="E1" s="42" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="36" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="B2" s="38" t="n">
         <v>2</v>
@@ -1985,7 +1925,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="36" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="B3" s="37" t="n">
         <v>3</v>
@@ -2039,24 +1979,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="40" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="C1" s="40" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="36" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="B2" s="38" t="n">
         <v>15</v>
@@ -2073,7 +2013,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="36" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="B3" s="37" t="n">
         <v>15</v>
@@ -2094,12 +2034,12 @@
       <formula1>ListAutoclusters!$A$2:$A$1048576</formula1>
       <formula2>0</formula2>
     </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A2:A3" type="list">
+      <formula1>ListReducers!$A$2:$A$1048576</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A4:A1002" type="list">
       <formula1>ListAutoclusters!$A$2:$A$1048576</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A2:A3" type="list">
-      <formula1>ListReducers!$A$2:$A$1048576</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -2139,82 +2079,82 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="46" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="B1" s="47" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="44" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="B2" s="48" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="44" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="B3" s="48" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="44" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="B4" s="48" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="44" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="B5" s="48" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="44" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="B6" s="48" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="44" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="B7" s="49" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="44" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="B8" s="49" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="44" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="B9" s="49" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="44" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="B10" s="49" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -2253,74 +2193,74 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="46" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="B1" s="47" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="44" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="B2" s="48" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="44" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="B3" s="48" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="44" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="B4" s="48" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="44" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="B5" s="48" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="44" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="B6" s="48" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="44" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="B7" s="48" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="44" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="B8" s="48" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="44" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="B9" s="48" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2361,17 +2301,17 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="46" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="44" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="44" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -2409,17 +2349,17 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="46" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="44" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="44" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -2453,22 +2393,22 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="46" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="44" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="44" t="s">
-        <v>212</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="44" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -3675,7 +3615,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="24" width="42.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="25" width="22.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="26" width="20.56"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="28" min="5" style="27" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="5" style="27" width="18.21"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="28" min="20" style="27" width="11.52"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1003" min="29" style="1" width="11.52"/>
   </cols>
   <sheetData>
@@ -3793,16 +3734,17 @@
       <c r="R2" s="27" t="n">
         <v>58</v>
       </c>
-      <c r="S2" s="27" t="s">
-        <v>57</v>
+      <c r="S2" s="27" t="str">
+        <f aca="false">_xlfn.CONCAT(D2,"/",E2,"/",F2)</f>
+        <v>boat/2022/1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C3" s="31" t="n">
         <v>44881.5104166667</v>
@@ -3832,7 +3774,7 @@
         <v>55</v>
       </c>
       <c r="L3" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M3" s="27" t="s">
         <v>56</v>
@@ -3852,16 +3794,17 @@
       <c r="R3" s="27" t="n">
         <v>58</v>
       </c>
-      <c r="S3" s="27" t="s">
-        <v>57</v>
+      <c r="S3" s="27" t="str">
+        <f aca="false">_xlfn.CONCAT(D3,"/",E3,"/",F3)</f>
+        <v>boat/2022/1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C4" s="31" t="n">
         <v>44881.5173611111</v>
@@ -3891,7 +3834,7 @@
         <v>55</v>
       </c>
       <c r="L4" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M4" s="27" t="s">
         <v>56</v>
@@ -3911,16 +3854,17 @@
       <c r="R4" s="27" t="n">
         <v>58</v>
       </c>
-      <c r="S4" s="27" t="s">
-        <v>57</v>
+      <c r="S4" s="27" t="str">
+        <f aca="false">_xlfn.CONCAT(D4,"/",E4,"/",F4)</f>
+        <v>boat/2022/1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C5" s="32" t="n">
         <v>44887.5</v>
@@ -3950,7 +3894,7 @@
         <v>55</v>
       </c>
       <c r="L5" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M5" s="27" t="s">
         <v>56</v>
@@ -3970,16 +3914,17 @@
       <c r="R5" s="27" t="n">
         <v>58</v>
       </c>
-      <c r="S5" s="27" t="s">
-        <v>62</v>
+      <c r="S5" s="27" t="str">
+        <f aca="false">_xlfn.CONCAT(D5,"/",E5,"/",F5)</f>
+        <v>boat/2022/2</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="29" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C6" s="32" t="n">
         <v>44887.5069444444</v>
@@ -4009,7 +3954,7 @@
         <v>55</v>
       </c>
       <c r="L6" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M6" s="27" t="s">
         <v>56</v>
@@ -4029,16 +3974,17 @@
       <c r="R6" s="27" t="n">
         <v>58</v>
       </c>
-      <c r="S6" s="27" t="s">
-        <v>62</v>
+      <c r="S6" s="27" t="str">
+        <f aca="false">_xlfn.CONCAT(D6,"/",E6,"/",F6)</f>
+        <v>boat/2022/2</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C7" s="32" t="n">
         <v>44887.5138888889</v>
@@ -4068,7 +4014,7 @@
         <v>55</v>
       </c>
       <c r="L7" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M7" s="27" t="s">
         <v>56</v>
@@ -4088,16 +4034,17 @@
       <c r="R7" s="27" t="n">
         <v>58</v>
       </c>
-      <c r="S7" s="27" t="s">
-        <v>62</v>
+      <c r="S7" s="27" t="str">
+        <f aca="false">_xlfn.CONCAT(D7,"/",E7,"/",F7)</f>
+        <v>boat/2022/2</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="23" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C8" s="32" t="n">
         <v>44907.5034722222</v>
@@ -4127,7 +4074,7 @@
         <v>55</v>
       </c>
       <c r="L8" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M8" s="27" t="s">
         <v>56</v>
@@ -4147,16 +4094,17 @@
       <c r="R8" s="27" t="n">
         <v>58</v>
       </c>
-      <c r="S8" s="27" t="s">
-        <v>66</v>
+      <c r="S8" s="27" t="str">
+        <f aca="false">_xlfn.CONCAT(D8,"/",E8,"/",F8)</f>
+        <v>boat/2022/3</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="23" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C9" s="32" t="n">
         <v>44907.5104166667</v>
@@ -4186,7 +4134,7 @@
         <v>55</v>
       </c>
       <c r="L9" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M9" s="27" t="s">
         <v>56</v>
@@ -4206,16 +4154,17 @@
       <c r="R9" s="27" t="n">
         <v>58</v>
       </c>
-      <c r="S9" s="27" t="s">
-        <v>66</v>
+      <c r="S9" s="27" t="str">
+        <f aca="false">_xlfn.CONCAT(D9,"/",E9,"/",F9)</f>
+        <v>boat/2022/3</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="23" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C10" s="32" t="n">
         <v>44907.5173611111</v>
@@ -4245,7 +4194,7 @@
         <v>55</v>
       </c>
       <c r="L10" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M10" s="27" t="s">
         <v>56</v>
@@ -4265,22 +4214,23 @@
       <c r="R10" s="27" t="n">
         <v>58</v>
       </c>
-      <c r="S10" s="27" t="s">
-        <v>66</v>
+      <c r="S10" s="27" t="str">
+        <f aca="false">_xlfn.CONCAT(D10,"/",E10,"/",F10)</f>
+        <v>boat/2022/3</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="23" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C11" s="32" t="n">
         <v>44881.5034722222</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E11" s="26" t="n">
         <v>2022</v>
@@ -4295,10 +4245,10 @@
         <v>2</v>
       </c>
       <c r="I11" s="26" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J11" s="26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K11" s="27" t="s">
         <v>55</v>
@@ -4324,22 +4274,23 @@
       <c r="R11" s="27" t="n">
         <v>44</v>
       </c>
-      <c r="S11" s="27" t="s">
-        <v>73</v>
+      <c r="S11" s="27" t="str">
+        <f aca="false">_xlfn.CONCAT(D11,"/",E11,"/",F11)</f>
+        <v>undegraded/2022/1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="23" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C12" s="32" t="n">
         <v>44881.5104166667</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E12" s="26" t="n">
         <v>2022</v>
@@ -4354,10 +4305,10 @@
         <v>2</v>
       </c>
       <c r="I12" s="26" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J12" s="26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K12" s="27" t="s">
         <v>55</v>
@@ -4383,22 +4334,23 @@
       <c r="R12" s="27" t="n">
         <v>44</v>
       </c>
-      <c r="S12" s="27" t="s">
-        <v>73</v>
+      <c r="S12" s="27" t="str">
+        <f aca="false">_xlfn.CONCAT(D12,"/",E12,"/",F12)</f>
+        <v>undegraded/2022/1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="23" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C13" s="32" t="n">
         <v>44881.5173611111</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E13" s="26" t="n">
         <v>2022</v>
@@ -4413,10 +4365,10 @@
         <v>2</v>
       </c>
       <c r="I13" s="26" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J13" s="26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K13" s="27" t="s">
         <v>55</v>
@@ -4442,22 +4394,23 @@
       <c r="R13" s="27" t="n">
         <v>44</v>
       </c>
-      <c r="S13" s="27" t="s">
-        <v>73</v>
+      <c r="S13" s="27" t="str">
+        <f aca="false">_xlfn.CONCAT(D13,"/",E13,"/",F13)</f>
+        <v>undegraded/2022/1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="23" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C14" s="32" t="n">
         <v>44887.5034722222</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E14" s="26" t="n">
         <v>2022</v>
@@ -4472,10 +4425,10 @@
         <v>2</v>
       </c>
       <c r="I14" s="26" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J14" s="26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K14" s="27" t="s">
         <v>55</v>
@@ -4501,22 +4454,23 @@
       <c r="R14" s="27" t="n">
         <v>44</v>
       </c>
-      <c r="S14" s="27" t="s">
-        <v>77</v>
+      <c r="S14" s="27" t="str">
+        <f aca="false">_xlfn.CONCAT(D14,"/",E14,"/",F14)</f>
+        <v>undegraded/2022/2</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="23" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C15" s="32" t="n">
         <v>44887.5104166667</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E15" s="26" t="n">
         <v>2022</v>
@@ -4531,10 +4485,10 @@
         <v>2</v>
       </c>
       <c r="I15" s="26" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J15" s="26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K15" s="27" t="s">
         <v>55</v>
@@ -4560,22 +4514,23 @@
       <c r="R15" s="27" t="n">
         <v>44</v>
       </c>
-      <c r="S15" s="27" t="s">
-        <v>77</v>
+      <c r="S15" s="27" t="str">
+        <f aca="false">_xlfn.CONCAT(D15,"/",E15,"/",F15)</f>
+        <v>undegraded/2022/2</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="23" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C16" s="32" t="n">
         <v>44887.5173611111</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E16" s="26" t="n">
         <v>2022</v>
@@ -4590,10 +4545,10 @@
         <v>2</v>
       </c>
       <c r="I16" s="26" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J16" s="26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K16" s="27" t="s">
         <v>55</v>
@@ -4619,22 +4574,23 @@
       <c r="R16" s="27" t="n">
         <v>44</v>
       </c>
-      <c r="S16" s="27" t="s">
-        <v>77</v>
+      <c r="S16" s="27" t="str">
+        <f aca="false">_xlfn.CONCAT(D16,"/",E16,"/",F16)</f>
+        <v>undegraded/2022/2</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="23" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C17" s="32" t="n">
         <v>44907.5</v>
       </c>
       <c r="D17" s="26" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E17" s="26" t="n">
         <v>2022</v>
@@ -4649,10 +4605,10 @@
         <v>2</v>
       </c>
       <c r="I17" s="26" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J17" s="26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K17" s="27" t="s">
         <v>55</v>
@@ -4678,22 +4634,23 @@
       <c r="R17" s="27" t="n">
         <v>44</v>
       </c>
-      <c r="S17" s="27" t="s">
-        <v>81</v>
+      <c r="S17" s="27" t="str">
+        <f aca="false">_xlfn.CONCAT(D17,"/",E17,"/",F17)</f>
+        <v>undegraded/2022/3</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="23" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C18" s="32" t="n">
         <v>44907.5069444444</v>
       </c>
       <c r="D18" s="26" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E18" s="26" t="n">
         <v>2022</v>
@@ -4708,10 +4665,10 @@
         <v>2</v>
       </c>
       <c r="I18" s="26" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J18" s="26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K18" s="27" t="s">
         <v>55</v>
@@ -4737,22 +4694,23 @@
       <c r="R18" s="27" t="n">
         <v>44</v>
       </c>
-      <c r="S18" s="27" t="s">
-        <v>81</v>
+      <c r="S18" s="27" t="str">
+        <f aca="false">_xlfn.CONCAT(D18,"/",E18,"/",F18)</f>
+        <v>undegraded/2022/3</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="23" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C19" s="32" t="n">
         <v>44907.5138888889</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E19" s="26" t="n">
         <v>2022</v>
@@ -4767,10 +4725,10 @@
         <v>2</v>
       </c>
       <c r="I19" s="26" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J19" s="26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K19" s="27" t="s">
         <v>55</v>
@@ -4796,22 +4754,23 @@
       <c r="R19" s="27" t="n">
         <v>44</v>
       </c>
-      <c r="S19" s="27" t="s">
-        <v>81</v>
+      <c r="S19" s="27" t="str">
+        <f aca="false">_xlfn.CONCAT(D19,"/",E19,"/",F19)</f>
+        <v>undegraded/2022/3</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="23" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C20" s="32" t="n">
         <v>44881.5</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E20" s="26" t="n">
         <v>2022</v>
@@ -4826,10 +4785,10 @@
         <v>2</v>
       </c>
       <c r="I20" s="26" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J20" s="26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K20" s="27" t="s">
         <v>55</v>
@@ -4855,22 +4814,23 @@
       <c r="R20" s="27" t="n">
         <v>47</v>
       </c>
-      <c r="S20" s="27" t="s">
-        <v>86</v>
+      <c r="S20" s="27" t="str">
+        <f aca="false">_xlfn.CONCAT(D20,"/",E20,"/",F20)</f>
+        <v>tourist/2022/1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="23" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C21" s="32" t="n">
         <v>44881.5069444444</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E21" s="26" t="n">
         <v>2022</v>
@@ -4885,10 +4845,10 @@
         <v>2</v>
       </c>
       <c r="I21" s="26" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J21" s="26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K21" s="27" t="s">
         <v>55</v>
@@ -4914,22 +4874,23 @@
       <c r="R21" s="27" t="n">
         <v>47</v>
       </c>
-      <c r="S21" s="27" t="s">
-        <v>86</v>
+      <c r="S21" s="27" t="str">
+        <f aca="false">_xlfn.CONCAT(D21,"/",E21,"/",F21)</f>
+        <v>tourist/2022/1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="23" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C22" s="32" t="n">
         <v>44881.5138888889</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E22" s="26" t="n">
         <v>2022</v>
@@ -4944,10 +4905,10 @@
         <v>2</v>
       </c>
       <c r="I22" s="26" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J22" s="26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K22" s="27" t="s">
         <v>55</v>
@@ -4973,22 +4934,23 @@
       <c r="R22" s="27" t="n">
         <v>47</v>
       </c>
-      <c r="S22" s="27" t="s">
-        <v>86</v>
+      <c r="S22" s="27" t="str">
+        <f aca="false">_xlfn.CONCAT(D22,"/",E22,"/",F22)</f>
+        <v>tourist/2022/1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="23" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C23" s="32" t="n">
         <v>44887.5034722222</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E23" s="26" t="n">
         <v>2022</v>
@@ -5003,10 +4965,10 @@
         <v>2</v>
       </c>
       <c r="I23" s="26" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J23" s="26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K23" s="27" t="s">
         <v>55</v>
@@ -5032,22 +4994,23 @@
       <c r="R23" s="27" t="n">
         <v>47</v>
       </c>
-      <c r="S23" s="27" t="s">
-        <v>90</v>
+      <c r="S23" s="27" t="str">
+        <f aca="false">_xlfn.CONCAT(D23,"/",E23,"/",F23)</f>
+        <v>tourist/2022/2</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="23" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C24" s="32" t="n">
         <v>44887.5104166667</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E24" s="26" t="n">
         <v>2022</v>
@@ -5062,10 +5025,10 @@
         <v>2</v>
       </c>
       <c r="I24" s="26" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J24" s="26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K24" s="27" t="s">
         <v>55</v>
@@ -5091,22 +5054,23 @@
       <c r="R24" s="27" t="n">
         <v>47</v>
       </c>
-      <c r="S24" s="27" t="s">
-        <v>90</v>
+      <c r="S24" s="27" t="str">
+        <f aca="false">_xlfn.CONCAT(D24,"/",E24,"/",F24)</f>
+        <v>tourist/2022/2</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="23" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C25" s="32" t="n">
         <v>44887.5173611111</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E25" s="26" t="n">
         <v>2022</v>
@@ -5121,10 +5085,10 @@
         <v>2</v>
       </c>
       <c r="I25" s="26" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J25" s="26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K25" s="27" t="s">
         <v>55</v>
@@ -5150,22 +5114,23 @@
       <c r="R25" s="27" t="n">
         <v>47</v>
       </c>
-      <c r="S25" s="27" t="s">
-        <v>90</v>
+      <c r="S25" s="27" t="str">
+        <f aca="false">_xlfn.CONCAT(D25,"/",E25,"/",F25)</f>
+        <v>tourist/2022/2</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="23" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C26" s="32" t="n">
         <v>44907.5034722222</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E26" s="26" t="n">
         <v>2022</v>
@@ -5180,10 +5145,10 @@
         <v>2</v>
       </c>
       <c r="I26" s="26" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J26" s="26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K26" s="27" t="s">
         <v>55</v>
@@ -5209,22 +5174,23 @@
       <c r="R26" s="27" t="n">
         <v>47</v>
       </c>
-      <c r="S26" s="27" t="s">
-        <v>94</v>
+      <c r="S26" s="27" t="str">
+        <f aca="false">_xlfn.CONCAT(D26,"/",E26,"/",F26)</f>
+        <v>tourist/2022/3</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="23" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C27" s="32" t="n">
         <v>44907.5104166667</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E27" s="26" t="n">
         <v>2022</v>
@@ -5239,10 +5205,10 @@
         <v>2</v>
       </c>
       <c r="I27" s="26" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J27" s="26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K27" s="27" t="s">
         <v>55</v>
@@ -5268,22 +5234,23 @@
       <c r="R27" s="27" t="n">
         <v>47</v>
       </c>
-      <c r="S27" s="27" t="s">
-        <v>94</v>
+      <c r="S27" s="27" t="str">
+        <f aca="false">_xlfn.CONCAT(D27,"/",E27,"/",F27)</f>
+        <v>tourist/2022/3</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="23" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C28" s="32" t="n">
         <v>44907.5173611111</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E28" s="26" t="n">
         <v>2022</v>
@@ -5298,10 +5265,10 @@
         <v>2</v>
       </c>
       <c r="I28" s="26" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J28" s="26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K28" s="27" t="s">
         <v>55</v>
@@ -5327,22 +5294,23 @@
       <c r="R28" s="27" t="n">
         <v>47</v>
       </c>
-      <c r="S28" s="27" t="s">
-        <v>94</v>
+      <c r="S28" s="27" t="str">
+        <f aca="false">_xlfn.CONCAT(D28,"/",E28,"/",F28)</f>
+        <v>tourist/2022/3</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="23" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C29" s="32" t="n">
         <v>44243.5013888889</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E29" s="26" t="n">
         <v>2021</v>
@@ -5357,10 +5325,10 @@
         <v>2</v>
       </c>
       <c r="I29" s="26" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J29" s="26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K29" s="27" t="s">
         <v>55</v>
@@ -5386,22 +5354,23 @@
       <c r="R29" s="27" t="n">
         <v>60</v>
       </c>
-      <c r="S29" s="27" t="s">
-        <v>98</v>
+      <c r="S29" s="27" t="str">
+        <f aca="false">_xlfn.CONCAT(D29,"/",E29,"/",F29)</f>
+        <v>undegraded/2021/1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="23" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C30" s="32" t="n">
         <v>44243.5090277778</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E30" s="26" t="n">
         <v>2021</v>
@@ -5416,10 +5385,10 @@
         <v>2</v>
       </c>
       <c r="I30" s="26" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J30" s="26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K30" s="27" t="s">
         <v>55</v>
@@ -5445,22 +5414,23 @@
       <c r="R30" s="27" t="n">
         <v>60</v>
       </c>
-      <c r="S30" s="27" t="s">
-        <v>98</v>
+      <c r="S30" s="27" t="str">
+        <f aca="false">_xlfn.CONCAT(D30,"/",E30,"/",F30)</f>
+        <v>undegraded/2021/1</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="23" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C31" s="32" t="n">
         <v>44243.5166666667</v>
       </c>
       <c r="D31" s="26" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E31" s="26" t="n">
         <v>2021</v>
@@ -5475,10 +5445,10 @@
         <v>2</v>
       </c>
       <c r="I31" s="26" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J31" s="26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K31" s="27" t="s">
         <v>55</v>
@@ -5504,22 +5474,23 @@
       <c r="R31" s="27" t="n">
         <v>60</v>
       </c>
-      <c r="S31" s="27" t="s">
-        <v>98</v>
+      <c r="S31" s="27" t="str">
+        <f aca="false">_xlfn.CONCAT(D31,"/",E31,"/",F31)</f>
+        <v>undegraded/2021/1</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="23" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C32" s="32" t="n">
         <v>44273.5034722222</v>
       </c>
       <c r="D32" s="26" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E32" s="26" t="n">
         <v>2021</v>
@@ -5534,10 +5505,10 @@
         <v>2</v>
       </c>
       <c r="I32" s="26" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J32" s="26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K32" s="27" t="s">
         <v>55</v>
@@ -5563,22 +5534,23 @@
       <c r="R32" s="27" t="n">
         <v>72</v>
       </c>
-      <c r="S32" s="27" t="s">
-        <v>102</v>
+      <c r="S32" s="27" t="str">
+        <f aca="false">_xlfn.CONCAT(D32,"/",E32,"/",F32)</f>
+        <v>undegraded/2021/2</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="23" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C33" s="32" t="n">
         <v>44273.5111111111</v>
       </c>
       <c r="D33" s="26" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E33" s="26" t="n">
         <v>2021</v>
@@ -5593,10 +5565,10 @@
         <v>2</v>
       </c>
       <c r="I33" s="26" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J33" s="26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K33" s="27" t="s">
         <v>55</v>
@@ -5622,22 +5594,23 @@
       <c r="R33" s="27" t="n">
         <v>72</v>
       </c>
-      <c r="S33" s="27" t="s">
-        <v>102</v>
+      <c r="S33" s="27" t="str">
+        <f aca="false">_xlfn.CONCAT(D33,"/",E33,"/",F33)</f>
+        <v>undegraded/2021/2</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="23" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C34" s="32" t="n">
         <v>44273.51875</v>
       </c>
       <c r="D34" s="26" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E34" s="26" t="n">
         <v>2021</v>
@@ -5652,10 +5625,10 @@
         <v>2</v>
       </c>
       <c r="I34" s="26" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J34" s="26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K34" s="27" t="s">
         <v>55</v>
@@ -5681,22 +5654,23 @@
       <c r="R34" s="27" t="n">
         <v>72</v>
       </c>
-      <c r="S34" s="27" t="s">
-        <v>102</v>
+      <c r="S34" s="27" t="str">
+        <f aca="false">_xlfn.CONCAT(D34,"/",E34,"/",F34)</f>
+        <v>undegraded/2021/2</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="23" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="C35" s="32" t="n">
         <v>44300.5034722222</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E35" s="26" t="n">
         <v>2021</v>
@@ -5711,10 +5685,10 @@
         <v>2</v>
       </c>
       <c r="I35" s="26" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J35" s="26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K35" s="27" t="s">
         <v>55</v>
@@ -5740,22 +5714,23 @@
       <c r="R35" s="27" t="n">
         <v>146</v>
       </c>
-      <c r="S35" s="27" t="s">
-        <v>106</v>
+      <c r="S35" s="27" t="str">
+        <f aca="false">_xlfn.CONCAT(D35,"/",E35,"/",F35)</f>
+        <v>undegraded/2021/3</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="23" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="C36" s="32" t="n">
         <v>44300.5111111111</v>
       </c>
       <c r="D36" s="26" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E36" s="26" t="n">
         <v>2021</v>
@@ -5770,10 +5745,10 @@
         <v>2</v>
       </c>
       <c r="I36" s="26" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J36" s="26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K36" s="27" t="s">
         <v>55</v>
@@ -5799,22 +5774,23 @@
       <c r="R36" s="27" t="n">
         <v>146</v>
       </c>
-      <c r="S36" s="27" t="s">
-        <v>106</v>
+      <c r="S36" s="27" t="str">
+        <f aca="false">_xlfn.CONCAT(D36,"/",E36,"/",F36)</f>
+        <v>undegraded/2021/3</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="23" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C37" s="32" t="n">
         <v>44300.51875</v>
       </c>
       <c r="D37" s="26" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E37" s="26" t="n">
         <v>2021</v>
@@ -5829,10 +5805,10 @@
         <v>2</v>
       </c>
       <c r="I37" s="26" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J37" s="26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K37" s="27" t="s">
         <v>55</v>
@@ -5858,16 +5834,17 @@
       <c r="R37" s="27" t="n">
         <v>146</v>
       </c>
-      <c r="S37" s="27" t="s">
-        <v>106</v>
+      <c r="S37" s="27" t="str">
+        <f aca="false">_xlfn.CONCAT(D37,"/",E37,"/",F37)</f>
+        <v>undegraded/2021/3</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="23" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C38" s="32" t="n">
         <v>44245.5041666667</v>
@@ -5917,16 +5894,17 @@
       <c r="R38" s="27" t="n">
         <v>46</v>
       </c>
-      <c r="S38" s="27" t="s">
-        <v>110</v>
+      <c r="S38" s="27" t="str">
+        <f aca="false">_xlfn.CONCAT(D38,"/",E38,"/",F38)</f>
+        <v>boat/2021/1</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="23" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="C39" s="32" t="n">
         <v>44245.5118055556</v>
@@ -5976,16 +5954,17 @@
       <c r="R39" s="27" t="n">
         <v>46</v>
       </c>
-      <c r="S39" s="27" t="s">
-        <v>110</v>
+      <c r="S39" s="27" t="str">
+        <f aca="false">_xlfn.CONCAT(D39,"/",E39,"/",F39)</f>
+        <v>boat/2021/1</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="23" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="C40" s="32" t="n">
         <v>44245.5194444444</v>
@@ -6035,16 +6014,17 @@
       <c r="R40" s="27" t="n">
         <v>46</v>
       </c>
-      <c r="S40" s="27" t="s">
-        <v>110</v>
+      <c r="S40" s="27" t="str">
+        <f aca="false">_xlfn.CONCAT(D40,"/",E40,"/",F40)</f>
+        <v>boat/2021/1</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="23" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="C41" s="32" t="n">
         <v>44271.5027777778</v>
@@ -6074,7 +6054,7 @@
         <v>55</v>
       </c>
       <c r="L41" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M41" s="27" t="s">
         <v>56</v>
@@ -6094,16 +6074,17 @@
       <c r="R41" s="27" t="n">
         <v>42</v>
       </c>
-      <c r="S41" s="27" t="s">
-        <v>114</v>
+      <c r="S41" s="27" t="str">
+        <f aca="false">_xlfn.CONCAT(D41,"/",E41,"/",F41)</f>
+        <v>boat/2021/2</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="23" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="B42" s="24" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C42" s="32" t="n">
         <v>44271.5104166667</v>
@@ -6153,16 +6134,17 @@
       <c r="R42" s="27" t="n">
         <v>42</v>
       </c>
-      <c r="S42" s="27" t="s">
-        <v>114</v>
+      <c r="S42" s="27" t="str">
+        <f aca="false">_xlfn.CONCAT(D42,"/",E42,"/",F42)</f>
+        <v>boat/2021/2</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="23" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="B43" s="24" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="C43" s="32" t="n">
         <v>44271.5180555556</v>
@@ -6212,16 +6194,17 @@
       <c r="R43" s="27" t="n">
         <v>42</v>
       </c>
-      <c r="S43" s="27" t="s">
-        <v>114</v>
+      <c r="S43" s="27" t="str">
+        <f aca="false">_xlfn.CONCAT(D43,"/",E43,"/",F43)</f>
+        <v>boat/2021/2</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="23" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="B44" s="24" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="C44" s="32" t="n">
         <v>44305.5027777778</v>
@@ -6271,16 +6254,17 @@
       <c r="R44" s="27" t="n">
         <v>90</v>
       </c>
-      <c r="S44" s="27" t="s">
-        <v>118</v>
+      <c r="S44" s="27" t="str">
+        <f aca="false">_xlfn.CONCAT(D44,"/",E44,"/",F44)</f>
+        <v>boat/2021/3</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="23" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="B45" s="24" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="C45" s="32" t="n">
         <v>44305.5104166667</v>
@@ -6310,7 +6294,7 @@
         <v>55</v>
       </c>
       <c r="L45" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M45" s="27" t="s">
         <v>56</v>
@@ -6330,16 +6314,17 @@
       <c r="R45" s="27" t="n">
         <v>90</v>
       </c>
-      <c r="S45" s="27" t="s">
-        <v>118</v>
+      <c r="S45" s="27" t="str">
+        <f aca="false">_xlfn.CONCAT(D45,"/",E45,"/",F45)</f>
+        <v>boat/2021/3</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="23" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="B46" s="24" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="C46" s="32" t="n">
         <v>44305.5180555556</v>
@@ -6389,22 +6374,23 @@
       <c r="R46" s="27" t="n">
         <v>90</v>
       </c>
-      <c r="S46" s="27" t="s">
-        <v>118</v>
+      <c r="S46" s="27" t="str">
+        <f aca="false">_xlfn.CONCAT(D46,"/",E46,"/",F46)</f>
+        <v>boat/2021/3</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="23" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B47" s="24" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="C47" s="32" t="n">
         <v>44243.5055555556</v>
       </c>
       <c r="D47" s="26" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E47" s="26" t="n">
         <v>2021</v>
@@ -6419,10 +6405,10 @@
         <v>2</v>
       </c>
       <c r="I47" s="26" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J47" s="26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K47" s="27" t="s">
         <v>55</v>
@@ -6448,22 +6434,23 @@
       <c r="R47" s="27" t="n">
         <v>54</v>
       </c>
-      <c r="S47" s="27" t="s">
-        <v>122</v>
+      <c r="S47" s="27" t="str">
+        <f aca="false">_xlfn.CONCAT(D47,"/",E47,"/",F47)</f>
+        <v>tourist/2021/1</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="23" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="B48" s="24" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="C48" s="32" t="n">
         <v>44243.5131944445</v>
       </c>
       <c r="D48" s="26" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E48" s="26" t="n">
         <v>2021</v>
@@ -6478,10 +6465,10 @@
         <v>2</v>
       </c>
       <c r="I48" s="26" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J48" s="26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K48" s="27" t="s">
         <v>55</v>
@@ -6507,22 +6494,23 @@
       <c r="R48" s="27" t="n">
         <v>54</v>
       </c>
-      <c r="S48" s="27" t="s">
-        <v>122</v>
+      <c r="S48" s="27" t="str">
+        <f aca="false">_xlfn.CONCAT(D48,"/",E48,"/",F48)</f>
+        <v>tourist/2021/1</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="23" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="B49" s="24" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="C49" s="32" t="n">
         <v>44243.5208333333</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E49" s="26" t="n">
         <v>2021</v>
@@ -6537,10 +6525,10 @@
         <v>2</v>
       </c>
       <c r="I49" s="26" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J49" s="26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K49" s="27" t="s">
         <v>55</v>
@@ -6566,22 +6554,23 @@
       <c r="R49" s="27" t="n">
         <v>54</v>
       </c>
-      <c r="S49" s="27" t="s">
-        <v>122</v>
+      <c r="S49" s="27" t="str">
+        <f aca="false">_xlfn.CONCAT(D49,"/",E49,"/",F49)</f>
+        <v>tourist/2021/1</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="23" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="B50" s="24" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="C50" s="32" t="n">
         <v>44273.5</v>
       </c>
       <c r="D50" s="26" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E50" s="26" t="n">
         <v>2021</v>
@@ -6596,10 +6585,10 @@
         <v>2</v>
       </c>
       <c r="I50" s="26" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J50" s="26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K50" s="27" t="s">
         <v>55</v>
@@ -6625,22 +6614,23 @@
       <c r="R50" s="27" t="n">
         <v>63</v>
       </c>
-      <c r="S50" s="27" t="s">
-        <v>126</v>
+      <c r="S50" s="27" t="str">
+        <f aca="false">_xlfn.CONCAT(D50,"/",E50,"/",F50)</f>
+        <v>tourist/2021/2</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="23" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="C51" s="32" t="n">
         <v>44273.5076388889</v>
       </c>
       <c r="D51" s="26" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E51" s="26" t="n">
         <v>2021</v>
@@ -6655,10 +6645,10 @@
         <v>2</v>
       </c>
       <c r="I51" s="26" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J51" s="26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K51" s="27" t="s">
         <v>55</v>
@@ -6684,22 +6674,23 @@
       <c r="R51" s="27" t="n">
         <v>63</v>
       </c>
-      <c r="S51" s="27" t="s">
-        <v>126</v>
+      <c r="S51" s="27" t="str">
+        <f aca="false">_xlfn.CONCAT(D51,"/",E51,"/",F51)</f>
+        <v>tourist/2021/2</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="23" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="B52" s="24" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="C52" s="32" t="n">
         <v>44273.5152777778</v>
       </c>
       <c r="D52" s="26" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E52" s="26" t="n">
         <v>2021</v>
@@ -6714,10 +6705,10 @@
         <v>2</v>
       </c>
       <c r="I52" s="26" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J52" s="26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K52" s="27" t="s">
         <v>55</v>
@@ -6743,22 +6734,23 @@
       <c r="R52" s="27" t="n">
         <v>63</v>
       </c>
-      <c r="S52" s="27" t="s">
-        <v>126</v>
+      <c r="S52" s="27" t="str">
+        <f aca="false">_xlfn.CONCAT(D52,"/",E52,"/",F52)</f>
+        <v>tourist/2021/2</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="23" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="B53" s="24" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="C53" s="32" t="n">
         <v>44299.5069444445</v>
       </c>
       <c r="D53" s="26" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E53" s="26" t="n">
         <v>2021</v>
@@ -6773,10 +6765,10 @@
         <v>2</v>
       </c>
       <c r="I53" s="26" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J53" s="26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K53" s="27" t="s">
         <v>55</v>
@@ -6802,22 +6794,23 @@
       <c r="R53" s="27" t="n">
         <v>86</v>
       </c>
-      <c r="S53" s="27" t="s">
-        <v>130</v>
+      <c r="S53" s="27" t="str">
+        <f aca="false">_xlfn.CONCAT(D53,"/",E53,"/",F53)</f>
+        <v>tourist/2021/3</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="23" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="B54" s="24" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="C54" s="32" t="n">
         <v>44299.5145833333</v>
       </c>
       <c r="D54" s="26" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E54" s="26" t="n">
         <v>2021</v>
@@ -6832,10 +6825,10 @@
         <v>2</v>
       </c>
       <c r="I54" s="26" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J54" s="26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K54" s="27" t="s">
         <v>55</v>
@@ -6861,22 +6854,23 @@
       <c r="R54" s="27" t="n">
         <v>86</v>
       </c>
-      <c r="S54" s="27" t="s">
-        <v>130</v>
+      <c r="S54" s="27" t="str">
+        <f aca="false">_xlfn.CONCAT(D54,"/",E54,"/",F54)</f>
+        <v>tourist/2021/3</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="23" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="B55" s="24" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="C55" s="32" t="n">
         <v>44299.5222222222</v>
       </c>
       <c r="D55" s="26" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E55" s="26" t="n">
         <v>2021</v>
@@ -6891,10 +6885,10 @@
         <v>2</v>
       </c>
       <c r="I55" s="26" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J55" s="26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K55" s="27" t="s">
         <v>55</v>
@@ -6920,8 +6914,9 @@
       <c r="R55" s="27" t="n">
         <v>86</v>
       </c>
-      <c r="S55" s="27" t="s">
-        <v>130</v>
+      <c r="S55" s="27" t="str">
+        <f aca="false">_xlfn.CONCAT(D55,"/",E55,"/",F55)</f>
+        <v>tourist/2021/3</v>
       </c>
     </row>
   </sheetData>
@@ -6959,18 +6954,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="28" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="33" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="B2" s="34" t="n">
         <v>70</v>
@@ -7026,15 +7021,15 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="28" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="33" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="B2" s="34" t="n">
         <v>15</v>
@@ -7085,18 +7080,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="28" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="33" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="B2" s="31" t="n">
         <v>44562.5</v>
@@ -7107,7 +7102,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="33" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="B3" s="31" t="n">
         <v>44881.5</v>
@@ -7118,7 +7113,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="33" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="B4" s="32" t="n">
         <v>44887.5</v>
@@ -7129,7 +7124,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="33" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="B5" s="32" t="n">
         <v>44907.5</v>
@@ -7174,27 +7169,27 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="28" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="E1" s="28" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="F1" s="28" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="33" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="B2" s="31" t="n">
         <v>44881.5</v>
@@ -7203,18 +7198,18 @@
         <v>44882.5034722222</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F2" s="31" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="33" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="B3" s="31" t="n">
         <v>44887.5</v>
@@ -7223,18 +7218,18 @@
         <v>44888.5034722222</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F3" s="31" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="35" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="B4" s="31" t="n">
         <v>44907.5</v>
@@ -7243,13 +7238,13 @@
         <v>44908.5034722222</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F4" s="31" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7308,21 +7303,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="40" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="C1" s="40" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="36" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="B2" s="37" t="n">
         <v>0</v>
@@ -7331,7 +7326,7 @@
         <v>1000</v>
       </c>
       <c r="D2" s="38" t="s">
-        <v>160</v>
+        <v>56</v>
       </c>
       <c r="E2" s="39" t="str">
         <f aca="false">VLOOKUP(A2,ListExtractors!$A$2:$B$1048576,2,0)</f>
@@ -7378,12 +7373,12 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="40" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="41" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="B2" s="39" t="str">
         <f aca="false">VLOOKUP(A2,ListDigesters!$A$2:$B$1048576,2,0)</f>
@@ -7392,7 +7387,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="41" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="B3" s="39" t="str">
         <f aca="false">VLOOKUP(A3,ListDigesters!$A$2:$B$1048576,2,0)</f>

--- a/examples/campaigns/coral-reef-light/coral-reef-light.xlsx
+++ b/examples/campaigns/coral-reef-light/coral-reef-light.xlsx
@@ -37,7 +37,7 @@
 <file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author>BS</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0">
@@ -182,7 +182,7 @@
 <file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author>BS</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0">
@@ -258,7 +258,7 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author>BS</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0">
@@ -308,7 +308,7 @@
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author>BS</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0">
@@ -357,7 +357,7 @@
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author>BS</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0">
@@ -393,7 +393,7 @@
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author>BS</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0">
@@ -442,7 +442,7 @@
 <file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author>BS</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0">
@@ -530,7 +530,7 @@
 <file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author>BS</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0">
@@ -593,7 +593,7 @@
 <file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author>BS</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0">
@@ -618,7 +618,7 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="194">
   <si>
     <t xml:space="preserve">SoundScapeExplorer
-Version 12</t>
+Version 13</t>
   </si>
   <si>
     <t xml:space="preserve">Instructions</t>

--- a/examples/campaigns/coral-reef-light/coral-reef-light.xlsx
+++ b/examples/campaigns/coral-reef-light/coral-reef-light.xlsx
@@ -37,7 +37,7 @@
 <file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author>BS</author>
+    <author> </author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0">
@@ -182,7 +182,7 @@
 <file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author>BS</author>
+    <author> </author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0">
@@ -258,7 +258,7 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author>BS</author>
+    <author> </author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0">
@@ -308,7 +308,7 @@
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author>BS</author>
+    <author> </author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0">
@@ -357,7 +357,7 @@
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author>BS</author>
+    <author> </author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0">
@@ -393,7 +393,7 @@
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author>BS</author>
+    <author> </author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0">
@@ -442,7 +442,7 @@
 <file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author>BS</author>
+    <author> </author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0">
@@ -530,7 +530,7 @@
 <file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author>BS</author>
+    <author> </author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0">
@@ -593,7 +593,7 @@
 <file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author>BS</author>
+    <author> </author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0">
@@ -615,7 +615,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="195">
   <si>
     <t xml:space="preserve">SoundScapeExplorer
 Version 13</t>
@@ -638,12 +638,6 @@
   </si>
   <si>
     <t xml:space="preserve">https://sound-scape-explorer.github.io/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Campaign user guide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://sound-scape-explorer.github.io/docs/modules/campaign/user-guide/</t>
   </si>
   <si>
     <t xml:space="preserve">setting</t>
@@ -1180,13 +1174,22 @@
     <t xml:space="preserve">hdbscan-leaf</t>
   </si>
   <si>
-    <t xml:space="preserve">indicator</t>
-  </si>
-  <si>
     <t xml:space="preserve">description</t>
   </si>
   <si>
     <t xml:space="preserve">The VGGish neural network.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">melogram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The melogram (VGGish input)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">melspectrum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The melspectrum (over 1s with same other parameters than melogram)</t>
   </si>
   <si>
     <t xml:space="preserve">leq_maad</t>
@@ -1769,7 +1772,7 @@
     <tabColor rgb="FFDDDDDD"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMI13"/>
+  <dimension ref="A1:AMI12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -1844,14 +1847,6 @@
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:B5"/>
@@ -1859,7 +1854,6 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B11" r:id="rId1" display="https://sound-scape-explorer.github.io/"/>
-    <hyperlink ref="B13" r:id="rId2" display="https://sound-scape-explorer.github.io/docs/modules/campaign/user-guide/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1897,24 +1891,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1" s="42" t="s">
         <v>145</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="D1" s="42" t="s">
         <v>146</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="E1" s="42" t="s">
         <v>147</v>
-      </c>
-      <c r="D1" s="42" t="s">
-        <v>148</v>
-      </c>
-      <c r="E1" s="42" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="36" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B2" s="38" t="n">
         <v>2</v>
@@ -1925,7 +1919,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="36" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B3" s="37" t="n">
         <v>3</v>
@@ -1979,24 +1973,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1" s="40" t="s">
         <v>151</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="D1" s="40" t="s">
         <v>152</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="E1" s="40" t="s">
         <v>153</v>
-      </c>
-      <c r="D1" s="40" t="s">
-        <v>154</v>
-      </c>
-      <c r="E1" s="40" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="36" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B2" s="38" t="n">
         <v>15</v>
@@ -2013,7 +2007,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="36" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B3" s="37" t="n">
         <v>15</v>
@@ -2060,7 +2054,7 @@
     <tabColor rgb="FFDDDDDD"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -2073,88 +2067,104 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="44" width="16.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="45" width="42.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="45" width="59.23"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1015" min="3" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="46" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="B1" s="47" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="44" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B2" s="48" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="44" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B3" s="48" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="44" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B4" s="48" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="44" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B5" s="48" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="44" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B6" s="48" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="44" t="s">
-        <v>169</v>
-      </c>
-      <c r="B7" s="49" t="s">
-        <v>170</v>
+        <v>166</v>
+      </c>
+      <c r="B7" s="48" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="44" t="s">
-        <v>171</v>
-      </c>
-      <c r="B8" s="49" t="s">
-        <v>172</v>
+        <v>168</v>
+      </c>
+      <c r="B8" s="48" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="44" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B9" s="49" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="44" t="s">
+        <v>172</v>
+      </c>
+      <c r="B10" s="49" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="B11" s="49" t="s">
         <v>175</v>
       </c>
-      <c r="B10" s="49" t="s">
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="44" t="s">
         <v>176</v>
+      </c>
+      <c r="B12" s="49" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -2193,74 +2203,74 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="46" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B1" s="47" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="44" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B2" s="48" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="44" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B3" s="48" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="44" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B4" s="48" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="44" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B5" s="48" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="44" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B6" s="48" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="44" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B7" s="48" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="44" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B8" s="48" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="44" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B9" s="48" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2301,17 +2311,17 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="46" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="44" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="44" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -2349,17 +2359,17 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="46" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="44" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="44" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -2393,22 +2403,22 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="46" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="44" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="44" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="44" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -2446,68 +2456,68 @@
   <sheetData>
     <row r="1" s="13" customFormat="true" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AMJ1" s="14"/>
     </row>
     <row r="2" s="13" customFormat="true" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>11</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>13</v>
       </c>
       <c r="AMJ2" s="14"/>
     </row>
     <row r="3" s="13" customFormat="true" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>14</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>16</v>
       </c>
       <c r="AMJ3" s="14"/>
     </row>
     <row r="4" s="13" customFormat="true" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B4" s="16" t="n">
         <v>44100</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AMJ4" s="14"/>
     </row>
     <row r="5" s="13" customFormat="true" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B5" s="18" t="n">
         <v>44197</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AMJ5" s="14"/>
     </row>
     <row r="6" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6" s="20"/>
       <c r="C6" s="21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
@@ -3533,49 +3543,49 @@
     </row>
     <row r="7" s="13" customFormat="true" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="17" t="s">
         <v>23</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>25</v>
       </c>
       <c r="AMJ7" s="14"/>
     </row>
     <row r="8" s="13" customFormat="true" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B8" s="22" t="n">
         <v>3</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AMJ8" s="14"/>
     </row>
     <row r="9" s="13" customFormat="true" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B9" s="22" t="n">
         <v>10</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AMJ9" s="14"/>
     </row>
     <row r="10" s="13" customFormat="true" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B10" s="22" t="n">
         <v>42000</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AMJ10" s="14"/>
     </row>
@@ -3622,75 +3632,75 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="D1" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="E1" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="F1" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="G1" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="H1" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="I1" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="J1" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="K1" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="L1" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="M1" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="28" t="s">
+      <c r="N1" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="M1" s="28" t="s">
+      <c r="O1" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="N1" s="28" t="s">
+      <c r="P1" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="O1" s="28" t="s">
+      <c r="Q1" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="P1" s="28" t="s">
+      <c r="R1" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="Q1" s="28" t="s">
+      <c r="S1" s="28" t="s">
         <v>48</v>
-      </c>
-      <c r="R1" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="S1" s="28" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="29" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C2" s="31" t="n">
         <v>44881.5034722222</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E2" s="26" t="n">
         <v>2022</v>
@@ -3705,22 +3715,22 @@
         <v>5</v>
       </c>
       <c r="I2" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="J2" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="K2" s="27" t="s">
-        <v>55</v>
-      </c>
       <c r="L2" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M2" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N2" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O2" s="27" t="n">
         <v>465</v>
@@ -3741,16 +3751,16 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C3" s="31" t="n">
         <v>44881.5104166667</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E3" s="26" t="n">
         <v>2022</v>
@@ -3765,22 +3775,22 @@
         <v>5</v>
       </c>
       <c r="I3" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="J3" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="K3" s="27" t="s">
-        <v>55</v>
-      </c>
       <c r="L3" s="27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M3" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N3" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O3" s="27" t="n">
         <v>465</v>
@@ -3801,16 +3811,16 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="29" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C4" s="31" t="n">
         <v>44881.5173611111</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E4" s="26" t="n">
         <v>2022</v>
@@ -3825,22 +3835,22 @@
         <v>5</v>
       </c>
       <c r="I4" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="J4" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="K4" s="27" t="s">
-        <v>55</v>
-      </c>
       <c r="L4" s="27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M4" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N4" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O4" s="27" t="n">
         <v>465</v>
@@ -3861,16 +3871,16 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C5" s="32" t="n">
         <v>44887.5</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E5" s="26" t="n">
         <v>2022</v>
@@ -3885,22 +3895,22 @@
         <v>5</v>
       </c>
       <c r="I5" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="J5" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="K5" s="27" t="s">
-        <v>55</v>
-      </c>
       <c r="L5" s="27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M5" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N5" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O5" s="27" t="n">
         <v>465</v>
@@ -3921,16 +3931,16 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C6" s="32" t="n">
         <v>44887.5069444444</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E6" s="26" t="n">
         <v>2022</v>
@@ -3945,22 +3955,22 @@
         <v>5</v>
       </c>
       <c r="I6" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="J6" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="J6" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="K6" s="27" t="s">
-        <v>55</v>
-      </c>
       <c r="L6" s="27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M6" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N6" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O6" s="27" t="n">
         <v>465</v>
@@ -3981,16 +3991,16 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C7" s="32" t="n">
         <v>44887.5138888889</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E7" s="26" t="n">
         <v>2022</v>
@@ -4005,22 +4015,22 @@
         <v>5</v>
       </c>
       <c r="I7" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="J7" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="K7" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="J7" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="K7" s="27" t="s">
-        <v>55</v>
-      </c>
       <c r="L7" s="27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M7" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N7" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O7" s="27" t="n">
         <v>465</v>
@@ -4041,16 +4051,16 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="23" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C8" s="32" t="n">
         <v>44907.5034722222</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E8" s="26" t="n">
         <v>2022</v>
@@ -4065,22 +4075,22 @@
         <v>5</v>
       </c>
       <c r="I8" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="J8" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="K8" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="J8" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="K8" s="27" t="s">
-        <v>55</v>
-      </c>
       <c r="L8" s="27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M8" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N8" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O8" s="27" t="n">
         <v>465</v>
@@ -4101,16 +4111,16 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C9" s="32" t="n">
         <v>44907.5104166667</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E9" s="26" t="n">
         <v>2022</v>
@@ -4125,22 +4135,22 @@
         <v>5</v>
       </c>
       <c r="I9" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="J9" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="K9" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="J9" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="K9" s="27" t="s">
-        <v>55</v>
-      </c>
       <c r="L9" s="27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M9" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N9" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O9" s="27" t="n">
         <v>465</v>
@@ -4161,16 +4171,16 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="23" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C10" s="32" t="n">
         <v>44907.5173611111</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E10" s="26" t="n">
         <v>2022</v>
@@ -4185,22 +4195,22 @@
         <v>5</v>
       </c>
       <c r="I10" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="J10" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="J10" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="K10" s="27" t="s">
-        <v>55</v>
-      </c>
       <c r="L10" s="27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M10" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N10" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O10" s="27" t="n">
         <v>465</v>
@@ -4221,16 +4231,16 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="23" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C11" s="32" t="n">
         <v>44881.5034722222</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E11" s="26" t="n">
         <v>2022</v>
@@ -4245,22 +4255,22 @@
         <v>2</v>
       </c>
       <c r="I11" s="26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J11" s="26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K11" s="27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L11" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M11" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N11" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O11" s="27" t="n">
         <v>378</v>
@@ -4281,16 +4291,16 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="23" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C12" s="32" t="n">
         <v>44881.5104166667</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E12" s="26" t="n">
         <v>2022</v>
@@ -4305,22 +4315,22 @@
         <v>2</v>
       </c>
       <c r="I12" s="26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J12" s="26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K12" s="27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L12" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M12" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N12" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O12" s="27" t="n">
         <v>378</v>
@@ -4341,16 +4351,16 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C13" s="32" t="n">
         <v>44881.5173611111</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E13" s="26" t="n">
         <v>2022</v>
@@ -4365,22 +4375,22 @@
         <v>2</v>
       </c>
       <c r="I13" s="26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J13" s="26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K13" s="27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L13" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M13" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N13" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O13" s="27" t="n">
         <v>378</v>
@@ -4401,16 +4411,16 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="23" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C14" s="32" t="n">
         <v>44887.5034722222</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E14" s="26" t="n">
         <v>2022</v>
@@ -4425,22 +4435,22 @@
         <v>2</v>
       </c>
       <c r="I14" s="26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J14" s="26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K14" s="27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L14" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M14" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N14" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O14" s="27" t="n">
         <v>378</v>
@@ -4461,16 +4471,16 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="23" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C15" s="32" t="n">
         <v>44887.5104166667</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E15" s="26" t="n">
         <v>2022</v>
@@ -4485,22 +4495,22 @@
         <v>2</v>
       </c>
       <c r="I15" s="26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J15" s="26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K15" s="27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L15" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M15" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N15" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O15" s="27" t="n">
         <v>378</v>
@@ -4521,16 +4531,16 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="23" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C16" s="32" t="n">
         <v>44887.5173611111</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E16" s="26" t="n">
         <v>2022</v>
@@ -4545,22 +4555,22 @@
         <v>2</v>
       </c>
       <c r="I16" s="26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J16" s="26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K16" s="27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L16" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M16" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N16" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O16" s="27" t="n">
         <v>378</v>
@@ -4581,16 +4591,16 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="23" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C17" s="32" t="n">
         <v>44907.5</v>
       </c>
       <c r="D17" s="26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E17" s="26" t="n">
         <v>2022</v>
@@ -4605,22 +4615,22 @@
         <v>2</v>
       </c>
       <c r="I17" s="26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J17" s="26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K17" s="27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L17" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M17" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N17" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O17" s="27" t="n">
         <v>378</v>
@@ -4641,16 +4651,16 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="23" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C18" s="32" t="n">
         <v>44907.5069444444</v>
       </c>
       <c r="D18" s="26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E18" s="26" t="n">
         <v>2022</v>
@@ -4665,22 +4675,22 @@
         <v>2</v>
       </c>
       <c r="I18" s="26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J18" s="26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K18" s="27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L18" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M18" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N18" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O18" s="27" t="n">
         <v>378</v>
@@ -4701,16 +4711,16 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="23" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C19" s="32" t="n">
         <v>44907.5138888889</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E19" s="26" t="n">
         <v>2022</v>
@@ -4725,22 +4735,22 @@
         <v>2</v>
       </c>
       <c r="I19" s="26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J19" s="26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K19" s="27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L19" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M19" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N19" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O19" s="27" t="n">
         <v>378</v>
@@ -4761,16 +4771,16 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="23" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C20" s="32" t="n">
         <v>44881.5</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E20" s="26" t="n">
         <v>2022</v>
@@ -4785,22 +4795,22 @@
         <v>2</v>
       </c>
       <c r="I20" s="26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J20" s="26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K20" s="27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L20" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M20" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N20" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O20" s="27" t="n">
         <v>509</v>
@@ -4821,16 +4831,16 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="23" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C21" s="32" t="n">
         <v>44881.5069444444</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E21" s="26" t="n">
         <v>2022</v>
@@ -4845,22 +4855,22 @@
         <v>2</v>
       </c>
       <c r="I21" s="26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J21" s="26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K21" s="27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L21" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M21" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N21" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O21" s="27" t="n">
         <v>509</v>
@@ -4881,16 +4891,16 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="23" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C22" s="32" t="n">
         <v>44881.5138888889</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E22" s="26" t="n">
         <v>2022</v>
@@ -4905,22 +4915,22 @@
         <v>2</v>
       </c>
       <c r="I22" s="26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J22" s="26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K22" s="27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L22" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M22" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N22" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O22" s="27" t="n">
         <v>509</v>
@@ -4941,16 +4951,16 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="23" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C23" s="32" t="n">
         <v>44887.5034722222</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E23" s="26" t="n">
         <v>2022</v>
@@ -4965,22 +4975,22 @@
         <v>2</v>
       </c>
       <c r="I23" s="26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J23" s="26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K23" s="27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L23" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M23" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N23" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O23" s="27" t="n">
         <v>509</v>
@@ -5001,16 +5011,16 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="23" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C24" s="32" t="n">
         <v>44887.5104166667</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E24" s="26" t="n">
         <v>2022</v>
@@ -5025,22 +5035,22 @@
         <v>2</v>
       </c>
       <c r="I24" s="26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J24" s="26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K24" s="27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L24" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M24" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N24" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O24" s="27" t="n">
         <v>509</v>
@@ -5061,16 +5071,16 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="23" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C25" s="32" t="n">
         <v>44887.5173611111</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E25" s="26" t="n">
         <v>2022</v>
@@ -5085,22 +5095,22 @@
         <v>2</v>
       </c>
       <c r="I25" s="26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J25" s="26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K25" s="27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L25" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M25" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N25" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O25" s="27" t="n">
         <v>509</v>
@@ -5121,16 +5131,16 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="23" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C26" s="32" t="n">
         <v>44907.5034722222</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E26" s="26" t="n">
         <v>2022</v>
@@ -5145,22 +5155,22 @@
         <v>2</v>
       </c>
       <c r="I26" s="26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J26" s="26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K26" s="27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L26" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M26" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N26" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O26" s="27" t="n">
         <v>509</v>
@@ -5181,16 +5191,16 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="23" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C27" s="32" t="n">
         <v>44907.5104166667</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E27" s="26" t="n">
         <v>2022</v>
@@ -5205,22 +5215,22 @@
         <v>2</v>
       </c>
       <c r="I27" s="26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J27" s="26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K27" s="27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L27" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M27" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N27" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O27" s="27" t="n">
         <v>509</v>
@@ -5241,16 +5251,16 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="23" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C28" s="32" t="n">
         <v>44907.5173611111</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E28" s="26" t="n">
         <v>2022</v>
@@ -5265,22 +5275,22 @@
         <v>2</v>
       </c>
       <c r="I28" s="26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J28" s="26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K28" s="27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L28" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M28" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N28" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O28" s="27" t="n">
         <v>509</v>
@@ -5301,16 +5311,16 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="23" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C29" s="32" t="n">
         <v>44243.5013888889</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E29" s="26" t="n">
         <v>2021</v>
@@ -5325,22 +5335,22 @@
         <v>2</v>
       </c>
       <c r="I29" s="26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J29" s="26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K29" s="27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L29" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M29" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N29" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O29" s="27" t="n">
         <v>384</v>
@@ -5361,16 +5371,16 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="23" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C30" s="32" t="n">
         <v>44243.5090277778</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E30" s="26" t="n">
         <v>2021</v>
@@ -5385,22 +5395,22 @@
         <v>2</v>
       </c>
       <c r="I30" s="26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J30" s="26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K30" s="27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L30" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M30" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N30" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O30" s="27" t="n">
         <v>384</v>
@@ -5421,16 +5431,16 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="23" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C31" s="32" t="n">
         <v>44243.5166666667</v>
       </c>
       <c r="D31" s="26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E31" s="26" t="n">
         <v>2021</v>
@@ -5445,22 +5455,22 @@
         <v>2</v>
       </c>
       <c r="I31" s="26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J31" s="26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K31" s="27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L31" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M31" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N31" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O31" s="27" t="n">
         <v>384</v>
@@ -5481,16 +5491,16 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="23" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C32" s="32" t="n">
         <v>44273.5034722222</v>
       </c>
       <c r="D32" s="26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E32" s="26" t="n">
         <v>2021</v>
@@ -5505,22 +5515,22 @@
         <v>2</v>
       </c>
       <c r="I32" s="26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J32" s="26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K32" s="27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L32" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M32" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N32" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O32" s="27" t="n">
         <v>697</v>
@@ -5541,16 +5551,16 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="23" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C33" s="32" t="n">
         <v>44273.5111111111</v>
       </c>
       <c r="D33" s="26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E33" s="26" t="n">
         <v>2021</v>
@@ -5565,22 +5575,22 @@
         <v>2</v>
       </c>
       <c r="I33" s="26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J33" s="26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K33" s="27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L33" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M33" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N33" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O33" s="27" t="n">
         <v>697</v>
@@ -5601,16 +5611,16 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="23" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C34" s="32" t="n">
         <v>44273.51875</v>
       </c>
       <c r="D34" s="26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E34" s="26" t="n">
         <v>2021</v>
@@ -5625,22 +5635,22 @@
         <v>2</v>
       </c>
       <c r="I34" s="26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J34" s="26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K34" s="27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L34" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M34" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N34" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O34" s="27" t="n">
         <v>697</v>
@@ -5661,16 +5671,16 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="23" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C35" s="32" t="n">
         <v>44300.5034722222</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E35" s="26" t="n">
         <v>2021</v>
@@ -5685,22 +5695,22 @@
         <v>2</v>
       </c>
       <c r="I35" s="26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J35" s="26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K35" s="27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L35" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M35" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N35" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O35" s="27" t="n">
         <v>1794</v>
@@ -5721,16 +5731,16 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="23" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C36" s="32" t="n">
         <v>44300.5111111111</v>
       </c>
       <c r="D36" s="26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E36" s="26" t="n">
         <v>2021</v>
@@ -5745,22 +5755,22 @@
         <v>2</v>
       </c>
       <c r="I36" s="26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J36" s="26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K36" s="27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L36" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M36" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N36" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O36" s="27" t="n">
         <v>1794</v>
@@ -5781,16 +5791,16 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="23" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C37" s="32" t="n">
         <v>44300.51875</v>
       </c>
       <c r="D37" s="26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E37" s="26" t="n">
         <v>2021</v>
@@ -5805,22 +5815,22 @@
         <v>2</v>
       </c>
       <c r="I37" s="26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J37" s="26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K37" s="27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L37" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M37" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N37" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O37" s="27" t="n">
         <v>1794</v>
@@ -5841,16 +5851,16 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C38" s="32" t="n">
         <v>44245.5041666667</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E38" s="26" t="n">
         <v>2021</v>
@@ -5865,22 +5875,22 @@
         <v>5</v>
       </c>
       <c r="I38" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="J38" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="K38" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="J38" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="K38" s="27" t="s">
-        <v>55</v>
-      </c>
       <c r="L38" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M38" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N38" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O38" s="27" t="n">
         <v>352</v>
@@ -5901,16 +5911,16 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="23" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C39" s="32" t="n">
         <v>44245.5118055556</v>
       </c>
       <c r="D39" s="26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E39" s="26" t="n">
         <v>2021</v>
@@ -5925,22 +5935,22 @@
         <v>5</v>
       </c>
       <c r="I39" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="J39" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="K39" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="J39" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="K39" s="27" t="s">
-        <v>55</v>
-      </c>
       <c r="L39" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M39" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N39" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O39" s="27" t="n">
         <v>352</v>
@@ -5961,16 +5971,16 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="23" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C40" s="32" t="n">
         <v>44245.5194444444</v>
       </c>
       <c r="D40" s="26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E40" s="26" t="n">
         <v>2021</v>
@@ -5985,22 +5995,22 @@
         <v>5</v>
       </c>
       <c r="I40" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="J40" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="K40" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="J40" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="K40" s="27" t="s">
-        <v>55</v>
-      </c>
       <c r="L40" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M40" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N40" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O40" s="27" t="n">
         <v>352</v>
@@ -6021,16 +6031,16 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="23" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C41" s="32" t="n">
         <v>44271.5027777778</v>
       </c>
       <c r="D41" s="26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E41" s="26" t="n">
         <v>2021</v>
@@ -6045,22 +6055,22 @@
         <v>5</v>
       </c>
       <c r="I41" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="J41" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="K41" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="J41" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="K41" s="27" t="s">
-        <v>55</v>
-      </c>
       <c r="L41" s="27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M41" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N41" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O41" s="27" t="n">
         <v>497</v>
@@ -6081,16 +6091,16 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="23" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B42" s="24" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C42" s="32" t="n">
         <v>44271.5104166667</v>
       </c>
       <c r="D42" s="26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E42" s="26" t="n">
         <v>2021</v>
@@ -6105,22 +6115,22 @@
         <v>5</v>
       </c>
       <c r="I42" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="J42" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="K42" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="J42" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="K42" s="27" t="s">
-        <v>55</v>
-      </c>
       <c r="L42" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M42" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N42" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O42" s="27" t="n">
         <v>497</v>
@@ -6141,16 +6151,16 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="23" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B43" s="24" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C43" s="32" t="n">
         <v>44271.5180555556</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E43" s="26" t="n">
         <v>2021</v>
@@ -6165,22 +6175,22 @@
         <v>5</v>
       </c>
       <c r="I43" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="J43" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="K43" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="J43" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="K43" s="27" t="s">
-        <v>55</v>
-      </c>
       <c r="L43" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M43" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N43" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O43" s="27" t="n">
         <v>497</v>
@@ -6201,16 +6211,16 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="23" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B44" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C44" s="32" t="n">
         <v>44305.5027777778</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E44" s="26" t="n">
         <v>2021</v>
@@ -6225,22 +6235,22 @@
         <v>5</v>
       </c>
       <c r="I44" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="J44" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="K44" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="J44" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="K44" s="27" t="s">
-        <v>55</v>
-      </c>
       <c r="L44" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M44" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N44" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O44" s="27" t="n">
         <v>1178</v>
@@ -6261,16 +6271,16 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="23" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B45" s="24" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C45" s="32" t="n">
         <v>44305.5104166667</v>
       </c>
       <c r="D45" s="26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E45" s="26" t="n">
         <v>2021</v>
@@ -6285,22 +6295,22 @@
         <v>5</v>
       </c>
       <c r="I45" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="J45" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="K45" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="J45" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="K45" s="27" t="s">
-        <v>55</v>
-      </c>
       <c r="L45" s="27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M45" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N45" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O45" s="27" t="n">
         <v>1178</v>
@@ -6321,16 +6331,16 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="23" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B46" s="24" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C46" s="32" t="n">
         <v>44305.5180555556</v>
       </c>
       <c r="D46" s="26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E46" s="26" t="n">
         <v>2021</v>
@@ -6345,22 +6355,22 @@
         <v>5</v>
       </c>
       <c r="I46" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="J46" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="K46" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="J46" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="K46" s="27" t="s">
-        <v>55</v>
-      </c>
       <c r="L46" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M46" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N46" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O46" s="27" t="n">
         <v>1178</v>
@@ -6381,16 +6391,16 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="23" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B47" s="24" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C47" s="32" t="n">
         <v>44243.5055555556</v>
       </c>
       <c r="D47" s="26" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E47" s="26" t="n">
         <v>2021</v>
@@ -6405,22 +6415,22 @@
         <v>2</v>
       </c>
       <c r="I47" s="26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J47" s="26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K47" s="27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L47" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M47" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N47" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O47" s="27" t="n">
         <v>387</v>
@@ -6441,16 +6451,16 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="23" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B48" s="24" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C48" s="32" t="n">
         <v>44243.5131944445</v>
       </c>
       <c r="D48" s="26" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E48" s="26" t="n">
         <v>2021</v>
@@ -6465,22 +6475,22 @@
         <v>2</v>
       </c>
       <c r="I48" s="26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J48" s="26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K48" s="27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L48" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M48" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N48" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O48" s="27" t="n">
         <v>387</v>
@@ -6501,16 +6511,16 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="23" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B49" s="24" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C49" s="32" t="n">
         <v>44243.5208333333</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E49" s="26" t="n">
         <v>2021</v>
@@ -6525,22 +6535,22 @@
         <v>2</v>
       </c>
       <c r="I49" s="26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J49" s="26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K49" s="27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L49" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M49" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N49" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O49" s="27" t="n">
         <v>387</v>
@@ -6561,16 +6571,16 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="23" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B50" s="24" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C50" s="32" t="n">
         <v>44273.5</v>
       </c>
       <c r="D50" s="26" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E50" s="26" t="n">
         <v>2021</v>
@@ -6585,22 +6595,22 @@
         <v>2</v>
       </c>
       <c r="I50" s="26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J50" s="26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K50" s="27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L50" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M50" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N50" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O50" s="27" t="n">
         <v>680</v>
@@ -6621,16 +6631,16 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="23" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C51" s="32" t="n">
         <v>44273.5076388889</v>
       </c>
       <c r="D51" s="26" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E51" s="26" t="n">
         <v>2021</v>
@@ -6645,22 +6655,22 @@
         <v>2</v>
       </c>
       <c r="I51" s="26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J51" s="26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K51" s="27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L51" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M51" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N51" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O51" s="27" t="n">
         <v>680</v>
@@ -6681,16 +6691,16 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="23" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B52" s="24" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C52" s="32" t="n">
         <v>44273.5152777778</v>
       </c>
       <c r="D52" s="26" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E52" s="26" t="n">
         <v>2021</v>
@@ -6705,22 +6715,22 @@
         <v>2</v>
       </c>
       <c r="I52" s="26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J52" s="26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K52" s="27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L52" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M52" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N52" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O52" s="27" t="n">
         <v>680</v>
@@ -6741,16 +6751,16 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="23" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B53" s="24" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C53" s="32" t="n">
         <v>44299.5069444445</v>
       </c>
       <c r="D53" s="26" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E53" s="26" t="n">
         <v>2021</v>
@@ -6765,22 +6775,22 @@
         <v>2</v>
       </c>
       <c r="I53" s="26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J53" s="26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K53" s="27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L53" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M53" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N53" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O53" s="27" t="n">
         <v>1258</v>
@@ -6801,16 +6811,16 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="23" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B54" s="24" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C54" s="32" t="n">
         <v>44299.5145833333</v>
       </c>
       <c r="D54" s="26" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E54" s="26" t="n">
         <v>2021</v>
@@ -6825,22 +6835,22 @@
         <v>2</v>
       </c>
       <c r="I54" s="26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J54" s="26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K54" s="27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L54" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M54" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N54" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O54" s="27" t="n">
         <v>1258</v>
@@ -6861,16 +6871,16 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="23" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B55" s="24" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C55" s="32" t="n">
         <v>44299.5222222222</v>
       </c>
       <c r="D55" s="26" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E55" s="26" t="n">
         <v>2021</v>
@@ -6885,22 +6895,22 @@
         <v>2</v>
       </c>
       <c r="I55" s="26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J55" s="26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K55" s="27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L55" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M55" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N55" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O55" s="27" t="n">
         <v>1258</v>
@@ -6954,18 +6964,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>115</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="33" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B2" s="34" t="n">
         <v>70</v>
@@ -7021,15 +7031,15 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="28" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="33" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B2" s="34" t="n">
         <v>15</v>
@@ -7080,18 +7090,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>122</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="33" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B2" s="31" t="n">
         <v>44562.5</v>
@@ -7102,7 +7112,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="33" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B3" s="31" t="n">
         <v>44881.5</v>
@@ -7113,7 +7123,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="33" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B4" s="32" t="n">
         <v>44887.5</v>
@@ -7124,7 +7134,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="33" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B5" s="32" t="n">
         <v>44907.5</v>
@@ -7169,27 +7179,27 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="D1" s="28" t="s">
+      <c r="F1" s="28" t="s">
         <v>130</v>
-      </c>
-      <c r="E1" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="F1" s="28" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="33" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B2" s="31" t="n">
         <v>44881.5</v>
@@ -7198,18 +7208,18 @@
         <v>44882.5034722222</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F2" s="31" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="33" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B3" s="31" t="n">
         <v>44887.5</v>
@@ -7218,18 +7228,18 @@
         <v>44888.5034722222</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F3" s="31" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="35" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B4" s="31" t="n">
         <v>44907.5</v>
@@ -7238,13 +7248,13 @@
         <v>44908.5034722222</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F4" s="31" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7303,21 +7313,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1" s="40" t="s">
         <v>138</v>
-      </c>
-      <c r="B1" s="40" t="s">
-        <v>139</v>
-      </c>
-      <c r="C1" s="40" t="s">
-        <v>132</v>
-      </c>
-      <c r="D1" s="40" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="36" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B2" s="37" t="n">
         <v>0</v>
@@ -7326,7 +7336,7 @@
         <v>1000</v>
       </c>
       <c r="D2" s="38" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E2" s="39" t="str">
         <f aca="false">VLOOKUP(A2,ListExtractors!$A$2:$B$1048576,2,0)</f>
@@ -7373,12 +7383,12 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="40" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="41" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B2" s="39" t="str">
         <f aca="false">VLOOKUP(A2,ListDigesters!$A$2:$B$1048576,2,0)</f>
@@ -7387,7 +7397,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="41" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B3" s="39" t="str">
         <f aca="false">VLOOKUP(A3,ListDigesters!$A$2:$B$1048576,2,0)</f>
